--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margarita.smoliakova\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Self Improvement PLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>10
-(258-267)</t>
-  </si>
-  <si>
-    <t>10
 (268-277)</t>
   </si>
   <si>
@@ -585,13 +581,17 @@
   <si>
     <t>10
 (1005-1015)</t>
+  </si>
+  <si>
+    <t>10 (262)
+(258-267)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +610,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,39 +720,37 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1058,911 +1071,912 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
         <v>43011</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>43012</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>43013</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>43014</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>43017</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>43018</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>43019</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>43020</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>43021</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>43024</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>43025</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>43026</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>43027</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>43028</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>43031</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>43032</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <v>43033</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>43034</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>76</v>
+      <c r="I3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11">
         <v>43020</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>43021</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>43024</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>43025</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="11">
         <v>43026</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>43027</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="11">
         <v>43028</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="11">
         <v>43031</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="11">
         <v>43032</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="11">
         <v>43033</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="11">
         <v>43034</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="11">
         <v>43035</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="11">
         <v>43038</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="11">
         <v>43039</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="11">
         <v>43040</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="11">
         <v>43041</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="11">
         <v>43042</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="11">
         <v>43045</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="P6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11">
         <v>43046</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>43047</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>43048</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="11">
         <v>43049</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="11">
         <v>43052</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>43053</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="11">
         <v>43054</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="11">
         <v>43055</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="11">
         <v>43056</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="11">
         <v>43059</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="11">
         <v>43060</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="11">
         <v>43061</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="11">
         <v>43062</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="11">
         <v>43063</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="11">
         <v>43066</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="11">
         <v>43067</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="11">
         <v>43068</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="11">
         <v>43069</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="S11" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11">
         <v>43070</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="11">
         <v>43073</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="11">
         <v>43074</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="11">
         <v>43075</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="11">
         <v>43076</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="11">
         <v>43077</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="11">
         <v>43080</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="11">
         <v>43081</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="11">
         <v>43082</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="11">
         <v>43083</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="11">
         <v>43084</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="11">
         <v>43087</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="11">
         <v>43088</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="11">
         <v>43089</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="11">
         <v>43090</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="11">
         <v>43091</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="11">
         <v>43094</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="11">
         <v>43095</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="N14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="O14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="P14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="K15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="M15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6">
+      <c r="A17" s="15"/>
+      <c r="B17" s="11">
         <v>43096</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="11">
         <v>43097</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="11">
         <v>43098</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="11">
         <v>43102</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="11">
         <v>43103</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="11">
         <v>43104</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="11">
         <v>43105</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="11">
         <v>43108</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="11">
         <v>43109</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="11">
         <v>43110</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="11">
         <v>43111</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="11">
         <v>43112</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="11">
         <v>43115</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="11">
         <v>43116</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="11">
         <v>43117</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="11">
         <v>43118</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="11">
         <v>43119</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="11">
         <v>43122</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="P18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="Q18" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="R18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6">
+      <c r="A21" s="15"/>
+      <c r="B21" s="11">
         <v>43123</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="11">
         <v>43124</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -113,14 +113,6 @@
   </si>
   <si>
     <t>10
-(314-323)</t>
-  </si>
-  <si>
-    <t>10
-(324-333)</t>
-  </si>
-  <si>
-    <t>10
 (334-343)</t>
   </si>
   <si>
@@ -585,6 +577,14 @@
   <si>
     <t>10 (262)
 (258-267)</t>
+  </si>
+  <si>
+    <t>10 (322)
+(314-323)</t>
+  </si>
+  <si>
+    <t>10 (324)
+(324-333)</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -1204,59 +1204,59 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1321,58 +1321,58 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1380,58 +1380,58 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="S7" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1496,58 +1496,58 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="O10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="P10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="S10" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1555,58 +1555,58 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="O11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="P11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="Q11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="S11" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1671,58 +1671,58 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="O14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="R14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="S14" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1730,58 +1730,58 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="J15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="M15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1846,58 +1846,58 @@
         <v>3</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="Q18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="S18" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1905,58 +1905,58 @@
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -583,7 +583,7 @@
 (314-323)</t>
   </si>
   <si>
-    <t>10 (324)
+    <t>10 (330)
 (324-333)</t>
   </si>
 </sst>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>10
-(268-277)</t>
-  </si>
-  <si>
-    <t>10
 (278-287)</t>
   </si>
   <si>
@@ -585,6 +581,10 @@
   <si>
     <t>10 (330)
 (324-333)</t>
+  </si>
+  <si>
+    <t>10 (269)
+(268-277)</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,55 +1149,55 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
@@ -1205,58 +1205,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1321,58 +1321,58 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1380,58 +1380,58 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="S7" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1496,58 +1496,58 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="O10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="P10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="S10" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1555,58 +1555,58 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="O11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="P11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="Q11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="S11" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1671,58 +1671,58 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="O14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="R14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="S14" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1730,58 +1730,58 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="J15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="M15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1846,58 +1846,58 @@
         <v>3</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="Q18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="S18" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1905,58 +1905,58 @@
         <v>2</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -53,14 +53,6 @@
   </si>
   <si>
     <t>10
-(278-287)</t>
-  </si>
-  <si>
-    <t>10
-(288-297)</t>
-  </si>
-  <si>
-    <t>10
 (308-317)</t>
   </si>
   <si>
@@ -585,6 +577,15 @@
   <si>
     <t>10 (269)
 (268-277)</t>
+  </si>
+  <si>
+    <t>10 (284)
+(278-287)</t>
+  </si>
+  <si>
+    <t>10 (303)
+(288-297)
+(298-307)</t>
   </si>
 </sst>
 </file>
@@ -630,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,6 +670,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +725,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,918 +1079,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="18.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
+    <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
         <v>43011</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>43012</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D2" s="3">
         <v>43013</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="3">
         <v>43014</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="3">
         <v>43017</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G2" s="3">
         <v>43018</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H2" s="3">
         <v>43019</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I2" s="3">
         <v>43020</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J2" s="3">
         <v>43021</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K2" s="3">
         <v>43024</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L2" s="3">
         <v>43025</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M2" s="3">
         <v>43026</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N2" s="3">
         <v>43027</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O2" s="3">
         <v>43028</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P2" s="3">
         <v>43031</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q2" s="3">
         <v>43032</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R2" s="3">
         <v>43033</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S2" s="3">
         <v>43034</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>18</v>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="9" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="13">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="13">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="13">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="13">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="13">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="13">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="13">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="13">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="13">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="13">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="13">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="13">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11">
-        <v>43020</v>
-      </c>
-      <c r="C5" s="11">
-        <v>43021</v>
-      </c>
-      <c r="D5" s="11">
-        <v>43024</v>
-      </c>
-      <c r="E5" s="11">
-        <v>43025</v>
-      </c>
-      <c r="F5" s="11">
-        <v>43026</v>
-      </c>
-      <c r="G5" s="11">
-        <v>43027</v>
-      </c>
-      <c r="H5" s="11">
-        <v>43028</v>
-      </c>
-      <c r="I5" s="11">
-        <v>43031</v>
-      </c>
-      <c r="J5" s="11">
-        <v>43032</v>
-      </c>
-      <c r="K5" s="11">
-        <v>43033</v>
-      </c>
-      <c r="L5" s="11">
-        <v>43034</v>
-      </c>
-      <c r="M5" s="11">
-        <v>43035</v>
-      </c>
-      <c r="N5" s="11">
-        <v>43038</v>
-      </c>
-      <c r="O5" s="11">
-        <v>43039</v>
-      </c>
-      <c r="P5" s="11">
-        <v>43040</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>43041</v>
-      </c>
-      <c r="R5" s="11">
-        <v>43042</v>
-      </c>
-      <c r="S5" s="11">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="O9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="P9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="Q9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="R9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="S9" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11">
-        <v>43046</v>
-      </c>
-      <c r="C9" s="11">
-        <v>43047</v>
-      </c>
-      <c r="D9" s="11">
-        <v>43048</v>
-      </c>
-      <c r="E9" s="11">
-        <v>43049</v>
-      </c>
-      <c r="F9" s="11">
-        <v>43052</v>
-      </c>
-      <c r="G9" s="11">
-        <v>43053</v>
-      </c>
-      <c r="H9" s="11">
-        <v>43054</v>
-      </c>
-      <c r="I9" s="11">
-        <v>43055</v>
-      </c>
-      <c r="J9" s="11">
-        <v>43056</v>
-      </c>
-      <c r="K9" s="11">
-        <v>43059</v>
-      </c>
-      <c r="L9" s="11">
-        <v>43060</v>
-      </c>
-      <c r="M9" s="11">
-        <v>43061</v>
-      </c>
-      <c r="N9" s="11">
-        <v>43062</v>
-      </c>
-      <c r="O9" s="11">
-        <v>43063</v>
-      </c>
-      <c r="P9" s="11">
-        <v>43066</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>43067</v>
-      </c>
-      <c r="R9" s="11">
-        <v>43068</v>
-      </c>
-      <c r="S9" s="11">
-        <v>43069</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>97</v>
+      <c r="A10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11">
-        <v>43070</v>
-      </c>
-      <c r="C13" s="11">
-        <v>43073</v>
-      </c>
-      <c r="D13" s="11">
-        <v>43074</v>
-      </c>
-      <c r="E13" s="11">
-        <v>43075</v>
-      </c>
-      <c r="F13" s="11">
-        <v>43076</v>
-      </c>
-      <c r="G13" s="11">
-        <v>43077</v>
-      </c>
-      <c r="H13" s="11">
-        <v>43080</v>
-      </c>
-      <c r="I13" s="11">
-        <v>43081</v>
-      </c>
-      <c r="J13" s="11">
-        <v>43082</v>
-      </c>
-      <c r="K13" s="11">
-        <v>43083</v>
-      </c>
-      <c r="L13" s="11">
-        <v>43084</v>
-      </c>
-      <c r="M13" s="11">
-        <v>43087</v>
-      </c>
-      <c r="N13" s="11">
-        <v>43088</v>
-      </c>
-      <c r="O13" s="11">
-        <v>43089</v>
-      </c>
-      <c r="P13" s="11">
-        <v>43090</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>43091</v>
-      </c>
-      <c r="R13" s="11">
-        <v>43094</v>
-      </c>
-      <c r="S13" s="11">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>115</v>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="13">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="13">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="13">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="13">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="13">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="13">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="13">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="13">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="13">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="13">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="13">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="13">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="13">
+        <v>43069</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>72</v>
+      <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11">
-        <v>43096</v>
-      </c>
-      <c r="C17" s="11">
-        <v>43097</v>
-      </c>
-      <c r="D17" s="11">
-        <v>43098</v>
-      </c>
-      <c r="E17" s="11">
-        <v>43102</v>
-      </c>
-      <c r="F17" s="11">
-        <v>43103</v>
-      </c>
-      <c r="G17" s="11">
-        <v>43104</v>
-      </c>
-      <c r="H17" s="11">
-        <v>43105</v>
-      </c>
-      <c r="I17" s="11">
-        <v>43108</v>
-      </c>
-      <c r="J17" s="11">
-        <v>43109</v>
-      </c>
-      <c r="K17" s="11">
-        <v>43110</v>
-      </c>
-      <c r="L17" s="11">
-        <v>43111</v>
-      </c>
-      <c r="M17" s="11">
-        <v>43112</v>
-      </c>
-      <c r="N17" s="11">
-        <v>43115</v>
-      </c>
-      <c r="O17" s="11">
-        <v>43116</v>
-      </c>
-      <c r="P17" s="11">
-        <v>43117</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>43118</v>
-      </c>
-      <c r="R17" s="11">
-        <v>43119</v>
-      </c>
-      <c r="S17" s="11">
-        <v>43122</v>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="13">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="13">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="13">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="13">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="13">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="13">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="13">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="13">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="13">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="13">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="13">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="13">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="13">
+        <v>43095</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="11">
-        <v>43123</v>
-      </c>
-      <c r="C21" s="11">
-        <v>43124</v>
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="13">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="13">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="13">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="13">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="13">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="13">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="13">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="13">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="13">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="13">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="13">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="13">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="13">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>135</v>
+      <c r="B27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="13">
+        <v>43123</v>
+      </c>
+      <c r="C32" s="13">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>10
-(308-317)</t>
-  </si>
-  <si>
-    <t>10
 (318-327)</t>
   </si>
   <si>
@@ -569,10 +565,6 @@
   <si>
     <t>10 (322)
 (314-323)</t>
-  </si>
-  <si>
-    <t>10 (330)
-(324-333)</t>
   </si>
   <si>
     <t>10 (269)
@@ -586,6 +578,14 @@
     <t>10 (303)
 (288-297)
 (298-307)</t>
+  </si>
+  <si>
+    <t>10 (332)
+(324-333)</t>
+  </si>
+  <si>
+    <t>10 (317)
+(308-317)</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,55 +1160,55 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
@@ -1216,58 +1216,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1332,58 +1332,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1391,58 +1391,58 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1507,58 +1507,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1566,58 +1566,58 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1682,58 +1682,58 @@
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1741,58 +1741,58 @@
         <v>2</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="M22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -1857,58 +1857,58 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="Q27" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="R27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="S27" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1916,58 +1916,58 @@
         <v>2</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -1984,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>10
-(334-343)</t>
-  </si>
-  <si>
-    <t>10
 (344-353)</t>
   </si>
   <si>
@@ -586,6 +582,10 @@
   <si>
     <t>10 (317)
 (308-317)</t>
+  </si>
+  <si>
+    <t>10 (337)
+(334-343)</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,19 +1166,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>6</v>
@@ -1216,58 +1216,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1332,58 +1332,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1391,58 +1391,58 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1507,58 +1507,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1566,58 +1566,58 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1682,58 +1682,58 @@
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1741,58 +1741,58 @@
         <v>2</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="M22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -1857,58 +1857,58 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="Q27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="R27" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="S27" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1916,58 +1916,58 @@
         <v>2</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -1984,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>10
-(318-327)</t>
-  </si>
-  <si>
-    <t>10
 (328-337)</t>
   </si>
   <si>
@@ -586,6 +582,10 @@
   <si>
     <t>10 (337)
 (334-343)</t>
+  </si>
+  <si>
+    <t>10 (324)
+(318-327)</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1100,7 @@
       <c r="C2" s="2">
         <v>43012</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>43013</v>
       </c>
       <c r="E2" s="3">
@@ -1160,55 +1160,55 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
@@ -1216,58 +1216,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1332,58 +1332,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1391,58 +1391,58 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1507,58 +1507,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1566,58 +1566,58 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1682,58 +1682,58 @@
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1741,58 +1741,58 @@
         <v>2</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="M22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -1857,58 +1857,58 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="Q27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="R27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="S27" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1916,58 +1916,58 @@
         <v>2</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -1984,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>10
-(328-337)</t>
-  </si>
-  <si>
-    <t>10
 (338-347)</t>
   </si>
   <si>
@@ -586,6 +582,10 @@
   <si>
     <t>10 (324)
 (318-327)</t>
+  </si>
+  <si>
+    <t>10 (334)
+(328-337)</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,55 +1160,55 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
@@ -1216,58 +1216,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1332,58 +1332,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1391,58 +1391,58 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1507,58 +1507,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1566,58 +1566,58 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1682,58 +1682,58 @@
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1741,58 +1741,58 @@
         <v>2</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="M22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -1857,58 +1857,58 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="Q27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="R27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="S27" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1916,58 +1916,58 @@
         <v>2</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -1984,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>10
-(344-353)</t>
-  </si>
-  <si>
-    <t>10
 (354-363)</t>
   </si>
   <si>
@@ -586,6 +582,10 @@
   <si>
     <t>10 (334)
 (328-337)</t>
+  </si>
+  <si>
+    <t>10 (344)
+(344-353)</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1103,7 @@
       <c r="D2" s="2">
         <v>43013</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>43014</v>
       </c>
       <c r="F2" s="3">
@@ -1165,26 +1165,26 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>130</v>
+      <c r="E3" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>6</v>
@@ -1216,58 +1216,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1332,58 +1332,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1391,58 +1391,58 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1507,58 +1507,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1566,58 +1566,58 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1682,58 +1682,58 @@
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1741,58 +1741,58 @@
         <v>2</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="M22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -1857,58 +1857,58 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="Q27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="R27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="S27" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1916,58 +1916,58 @@
         <v>2</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -1984,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,13 +1227,13 @@
       <c r="E4" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="11" t="s">

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>10
-(348-357)</t>
-  </si>
-  <si>
-    <t>10
 (358-367)</t>
   </si>
   <si>
@@ -586,6 +582,10 @@
   <si>
     <t>10 (344)
 (344-353)</t>
+  </si>
+  <si>
+    <t>10 (352)
+(348-357)</t>
   </si>
 </sst>
 </file>
@@ -669,13 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,20 +728,17 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="4" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,6 +759,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1082,7 +1082,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,55 +1160,55 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
@@ -1216,778 +1216,778 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>65</v>
+      <c r="I4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12">
         <v>43020</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>43021</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>43024</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>43025</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>43026</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>43027</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>43028</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>43031</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>43032</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>43033</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>43034</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>43035</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>43038</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <v>43039</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>43040</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>43041</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="12">
         <v>43042</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>43045</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12">
         <v>43046</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>43047</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>43048</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>43049</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>43052</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>43053</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>43054</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>43055</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>43056</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>43059</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>43060</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>43061</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <v>43062</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <v>43063</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <v>43066</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="12">
         <v>43067</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="12">
         <v>43068</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="12">
         <v>43069</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12">
         <v>43070</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>43073</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>43074</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>43075</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>43076</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>43077</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>43080</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>43081</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>43082</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>43083</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>43084</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>43087</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>43088</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <v>43089</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <v>43090</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <v>43091</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="12">
         <v>43094</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="12">
         <v>43095</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>65</v>
+      <c r="M22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="13">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12">
         <v>43096</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>43097</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>43098</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>43102</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>43103</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <v>43104</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>43105</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <v>43108</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <v>43109</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <v>43110</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <v>43111</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <v>43112</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="12">
         <v>43115</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="12">
         <v>43116</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="12">
         <v>43117</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="12">
         <v>43118</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="12">
         <v>43119</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="12">
         <v>43122</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="P27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="Q27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="R27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="S27" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>65</v>
+      <c r="B28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="13">
+      <c r="A32" s="16"/>
+      <c r="B32" s="12">
         <v>43123</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>43124</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="6564"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>10
-(358-367)</t>
-  </si>
-  <si>
-    <t>10
 (368-377)</t>
   </si>
   <si>
@@ -586,6 +582,10 @@
   <si>
     <t>10 (352)
 (348-357)</t>
+  </si>
+  <si>
+    <t>10 (362)
+(358-367)</t>
   </si>
 </sst>
 </file>
@@ -675,12 +675,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -718,6 +718,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -725,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -744,9 +757,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +769,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1079,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V33"/>
+  <dimension ref="A2:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,834 +1191,855 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11">
+        <v>43020</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43021</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43024</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43025</v>
+      </c>
+      <c r="F9" s="11">
+        <v>43026</v>
+      </c>
+      <c r="G9" s="11">
+        <v>43027</v>
+      </c>
+      <c r="H9" s="11">
+        <v>43028</v>
+      </c>
+      <c r="I9" s="11">
+        <v>43031</v>
+      </c>
+      <c r="J9" s="11">
+        <v>43032</v>
+      </c>
+      <c r="K9" s="11">
+        <v>43033</v>
+      </c>
+      <c r="L9" s="11">
+        <v>43034</v>
+      </c>
+      <c r="M9" s="11">
+        <v>43035</v>
+      </c>
+      <c r="N9" s="11">
+        <v>43038</v>
+      </c>
+      <c r="O9" s="11">
+        <v>43039</v>
+      </c>
+      <c r="P9" s="11">
+        <v>43040</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>43041</v>
+      </c>
+      <c r="R9" s="11">
+        <v>43042</v>
+      </c>
+      <c r="S9" s="11">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>64</v>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12">
-        <v>43020</v>
-      </c>
-      <c r="C8" s="12">
-        <v>43021</v>
-      </c>
-      <c r="D8" s="12">
-        <v>43024</v>
-      </c>
-      <c r="E8" s="12">
-        <v>43025</v>
-      </c>
-      <c r="F8" s="12">
-        <v>43026</v>
-      </c>
-      <c r="G8" s="12">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="12">
-        <v>43028</v>
-      </c>
-      <c r="I8" s="12">
-        <v>43031</v>
-      </c>
-      <c r="J8" s="12">
-        <v>43032</v>
-      </c>
-      <c r="K8" s="12">
-        <v>43033</v>
-      </c>
-      <c r="L8" s="12">
-        <v>43034</v>
-      </c>
-      <c r="M8" s="12">
-        <v>43035</v>
-      </c>
-      <c r="N8" s="12">
-        <v>43038</v>
-      </c>
-      <c r="O8" s="12">
-        <v>43039</v>
-      </c>
-      <c r="P8" s="12">
-        <v>43040</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>43041</v>
-      </c>
-      <c r="R8" s="12">
-        <v>43042</v>
-      </c>
-      <c r="S8" s="12">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11">
         <v>43046</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C15" s="11">
         <v>43047</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="11">
         <v>43048</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="11">
         <v>43049</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="11">
         <v>43052</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="11">
         <v>43053</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="11">
         <v>43054</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="11">
         <v>43055</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="11">
         <v>43056</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K15" s="11">
         <v>43059</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L15" s="11">
         <v>43060</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="11">
         <v>43061</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N15" s="11">
         <v>43062</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O15" s="11">
         <v>43063</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P15" s="11">
         <v>43066</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q15" s="11">
         <v>43067</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R15" s="11">
         <v>43068</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S15" s="11">
         <v>43069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="M17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="N17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="O17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="P17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="Q17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="R17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="S17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S16" s="15" t="s">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11">
+        <v>43070</v>
+      </c>
+      <c r="C21" s="11">
+        <v>43073</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43074</v>
+      </c>
+      <c r="E21" s="11">
+        <v>43075</v>
+      </c>
+      <c r="F21" s="11">
+        <v>43076</v>
+      </c>
+      <c r="G21" s="11">
+        <v>43077</v>
+      </c>
+      <c r="H21" s="11">
+        <v>43080</v>
+      </c>
+      <c r="I21" s="11">
+        <v>43081</v>
+      </c>
+      <c r="J21" s="11">
+        <v>43082</v>
+      </c>
+      <c r="K21" s="11">
+        <v>43083</v>
+      </c>
+      <c r="L21" s="11">
+        <v>43084</v>
+      </c>
+      <c r="M21" s="11">
+        <v>43087</v>
+      </c>
+      <c r="N21" s="11">
+        <v>43088</v>
+      </c>
+      <c r="O21" s="11">
+        <v>43089</v>
+      </c>
+      <c r="P21" s="11">
+        <v>43090</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>43091</v>
+      </c>
+      <c r="R21" s="11">
+        <v>43094</v>
+      </c>
+      <c r="S21" s="11">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="C23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12">
-        <v>43070</v>
-      </c>
-      <c r="C20" s="12">
-        <v>43073</v>
-      </c>
-      <c r="D20" s="12">
-        <v>43074</v>
-      </c>
-      <c r="E20" s="12">
-        <v>43075</v>
-      </c>
-      <c r="F20" s="12">
-        <v>43076</v>
-      </c>
-      <c r="G20" s="12">
-        <v>43077</v>
-      </c>
-      <c r="H20" s="12">
-        <v>43080</v>
-      </c>
-      <c r="I20" s="12">
-        <v>43081</v>
-      </c>
-      <c r="J20" s="12">
-        <v>43082</v>
-      </c>
-      <c r="K20" s="12">
-        <v>43083</v>
-      </c>
-      <c r="L20" s="12">
-        <v>43084</v>
-      </c>
-      <c r="M20" s="12">
-        <v>43087</v>
-      </c>
-      <c r="N20" s="12">
-        <v>43088</v>
-      </c>
-      <c r="O20" s="12">
-        <v>43089</v>
-      </c>
-      <c r="P20" s="12">
-        <v>43090</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>43091</v>
-      </c>
-      <c r="R20" s="12">
-        <v>43094</v>
-      </c>
-      <c r="S20" s="12">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="11">
         <v>43096</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C27" s="11">
         <v>43097</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="11">
         <v>43098</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="11">
         <v>43102</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="11">
         <v>43103</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="11">
         <v>43104</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="11">
         <v>43105</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="11">
         <v>43108</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="11">
         <v>43109</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K27" s="11">
         <v>43110</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L27" s="11">
         <v>43111</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M27" s="11">
         <v>43112</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N27" s="11">
         <v>43115</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O27" s="11">
         <v>43116</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P27" s="11">
         <v>43117</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q27" s="11">
         <v>43118</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R27" s="11">
         <v>43119</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S27" s="11">
         <v>43122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>64</v>
+      <c r="B29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="12">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="11">
         <v>43123</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C33" s="11">
         <v>43124</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PLAN" sheetId="1" r:id="rId1"/>
+    <sheet name="App plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -228,58 +229,6 @@
 (331-340)</t>
   </si>
   <si>
-    <t>10
-(341-350)</t>
-  </si>
-  <si>
-    <t>10
-(351-360)</t>
-  </si>
-  <si>
-    <t>10
-(361-370)</t>
-  </si>
-  <si>
-    <t>10
-(371-380)</t>
-  </si>
-  <si>
-    <t>10
-(381-390)</t>
-  </si>
-  <si>
-    <t>10
-(391-400)</t>
-  </si>
-  <si>
-    <t>10
-(401-410)</t>
-  </si>
-  <si>
-    <t>10
-(411-420)</t>
-  </si>
-  <si>
-    <t>10
-(421-430)</t>
-  </si>
-  <si>
-    <t>10
-(431-440)</t>
-  </si>
-  <si>
-    <t>10
-(441-450)</t>
-  </si>
-  <si>
-    <t>10
-(451-460)</t>
-  </si>
-  <si>
-    <t>10
-(461-470)</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -586,13 +535,183 @@
   <si>
     <t>10 (362)
 (358-367)</t>
+  </si>
+  <si>
+    <t>Create domain model</t>
+  </si>
+  <si>
+    <t>Create repos</t>
+  </si>
+  <si>
+    <t>Adding controllers and test views</t>
+  </si>
+  <si>
+    <t>Initial routing</t>
+  </si>
+  <si>
+    <t>Prepare DB</t>
+  </si>
+  <si>
+    <t>Code First Migration</t>
+  </si>
+  <si>
+    <t>Initial configuration</t>
+  </si>
+  <si>
+    <t>Create folder structure</t>
+  </si>
+  <si>
+    <t>Decide regarding functional elements</t>
+  </si>
+  <si>
+    <t>Initial (monkey) styling</t>
+  </si>
+  <si>
+    <t>Adding initial base layout</t>
+  </si>
+  <si>
+    <t>Adding diagramm (Angular Chart)</t>
+  </si>
+  <si>
+    <t>Create view models</t>
+  </si>
+  <si>
+    <t>Navigation and think of further steps</t>
+  </si>
+  <si>
+    <t>START WITHOUT TEMPLATES (kick off) - base features</t>
+  </si>
+  <si>
+    <t>Create initial tests</t>
+  </si>
+  <si>
+    <t>10
+(341-347)</t>
+  </si>
+  <si>
+    <t>(xix-xxix)</t>
+  </si>
+  <si>
+    <t>My Web App (base)</t>
+  </si>
+  <si>
+    <t>GIT (doc)</t>
+  </si>
+  <si>
+    <t>My Web App (advanced and API)</t>
+  </si>
+  <si>
+    <t>My Web App (base) / 
+My Web App (advanced and API)</t>
+  </si>
+  <si>
+    <t>finish base features</t>
+  </si>
+  <si>
+    <t>(2.1-2.2)</t>
+  </si>
+  <si>
+    <t>(2.3-2.4)</t>
+  </si>
+  <si>
+    <t>(2.5-2.6)</t>
+  </si>
+  <si>
+    <t>(2.7-2.8)</t>
+  </si>
+  <si>
+    <t>(3.1-3.2)</t>
+  </si>
+  <si>
+    <t>(3.3-3.4)</t>
+  </si>
+  <si>
+    <t>(3.5-3.6)</t>
+  </si>
+  <si>
+    <t>(3.7-4.1)</t>
+  </si>
+  <si>
+    <t>(4.2-4.3)</t>
+  </si>
+  <si>
+    <t>(4.4-4.5)</t>
+  </si>
+  <si>
+    <t>(4.6-4.7)</t>
+  </si>
+  <si>
+    <t>(4.8-4.9)</t>
+  </si>
+  <si>
+    <t>(4.10-5.1)</t>
+  </si>
+  <si>
+    <t>(5.2-5.3)</t>
+  </si>
+  <si>
+    <t>(5.4-6.1)</t>
+  </si>
+  <si>
+    <t>(6.2-6.3)</t>
+  </si>
+  <si>
+    <t>(6.4-6.5)</t>
+  </si>
+  <si>
+    <t>(6.6-7.1)</t>
+  </si>
+  <si>
+    <t>(7.2-7.3)</t>
+  </si>
+  <si>
+    <t>(7.4-7.5)</t>
+  </si>
+  <si>
+    <t>(7.6-7.7)</t>
+  </si>
+  <si>
+    <t>(7.8-7.9)</t>
+  </si>
+  <si>
+    <t>(7.10-7.11)</t>
+  </si>
+  <si>
+    <t>(7.12-7.13)</t>
+  </si>
+  <si>
+    <t>(7.14-7.15)</t>
+  </si>
+  <si>
+    <t>(8.1-8.2)</t>
+  </si>
+  <si>
+    <t>(8.3-8.4)</t>
+  </si>
+  <si>
+    <t>(8.5-9.1)</t>
+  </si>
+  <si>
+    <t>(9.2-9.3)</t>
+  </si>
+  <si>
+    <t>(10.1-10.2)</t>
+  </si>
+  <si>
+    <t>(10.3-10.4)</t>
+  </si>
+  <si>
+    <t>(10.5-10.6)</t>
+  </si>
+  <si>
+    <t>(10.7-10.8)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +737,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -631,7 +765,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +811,17 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -732,71 +877,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -1110,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V34"/>
+  <dimension ref="A2:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1287,7 @@
       <c r="E2" s="2">
         <v>43014</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>43017</v>
       </c>
       <c r="G2" s="3">
@@ -1184,7 +1334,7 @@
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1197,849 +1347,1100 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="13">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="13">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="13">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="13">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="13">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="13">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="13">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="13">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="13">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="13">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="13">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="13">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>6</v>
+      </c>
+      <c r="I11" s="15">
+        <v>7</v>
+      </c>
+      <c r="J11" s="15">
+        <v>7</v>
+      </c>
+      <c r="K11" s="15">
+        <v>7</v>
+      </c>
+      <c r="L11" s="15">
+        <v>8</v>
+      </c>
+      <c r="M11" s="15">
+        <v>8</v>
+      </c>
+      <c r="N11" s="15">
+        <v>8</v>
+      </c>
+      <c r="O11" s="15">
+        <v>9</v>
+      </c>
+      <c r="P11" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>11</v>
+      </c>
+      <c r="R11" s="15">
+        <v>12</v>
+      </c>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="13">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="13">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="13">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="13">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="13">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="13">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="13">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="13">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="13">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="13">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="13">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="13">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="13">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="13">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="13">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="13">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="13">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="13">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="13">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="13">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="13">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="13">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="13">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="13">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="13">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="13">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="13">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="13">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="13">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="13">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="13">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="13">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="13">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="13">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="13">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="13">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="13">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="13">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13">
+        <v>43123</v>
+      </c>
+      <c r="C32" s="13">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="53.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="23" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11">
-        <v>43020</v>
-      </c>
-      <c r="C9" s="11">
-        <v>43021</v>
-      </c>
-      <c r="D9" s="11">
-        <v>43024</v>
-      </c>
-      <c r="E9" s="11">
-        <v>43025</v>
-      </c>
-      <c r="F9" s="11">
-        <v>43026</v>
-      </c>
-      <c r="G9" s="11">
-        <v>43027</v>
-      </c>
-      <c r="H9" s="11">
-        <v>43028</v>
-      </c>
-      <c r="I9" s="11">
-        <v>43031</v>
-      </c>
-      <c r="J9" s="11">
-        <v>43032</v>
-      </c>
-      <c r="K9" s="11">
-        <v>43033</v>
-      </c>
-      <c r="L9" s="11">
-        <v>43034</v>
-      </c>
-      <c r="M9" s="11">
-        <v>43035</v>
-      </c>
-      <c r="N9" s="11">
-        <v>43038</v>
-      </c>
-      <c r="O9" s="11">
-        <v>43039</v>
-      </c>
-      <c r="P9" s="11">
-        <v>43040</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>43041</v>
-      </c>
-      <c r="R9" s="11">
-        <v>43042</v>
-      </c>
-      <c r="S9" s="11">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11">
-        <v>43046</v>
-      </c>
-      <c r="C15" s="11">
-        <v>43047</v>
-      </c>
-      <c r="D15" s="11">
-        <v>43048</v>
-      </c>
-      <c r="E15" s="11">
-        <v>43049</v>
-      </c>
-      <c r="F15" s="11">
-        <v>43052</v>
-      </c>
-      <c r="G15" s="11">
-        <v>43053</v>
-      </c>
-      <c r="H15" s="11">
-        <v>43054</v>
-      </c>
-      <c r="I15" s="11">
-        <v>43055</v>
-      </c>
-      <c r="J15" s="11">
-        <v>43056</v>
-      </c>
-      <c r="K15" s="11">
-        <v>43059</v>
-      </c>
-      <c r="L15" s="11">
-        <v>43060</v>
-      </c>
-      <c r="M15" s="11">
-        <v>43061</v>
-      </c>
-      <c r="N15" s="11">
-        <v>43062</v>
-      </c>
-      <c r="O15" s="11">
-        <v>43063</v>
-      </c>
-      <c r="P15" s="11">
-        <v>43066</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>43067</v>
-      </c>
-      <c r="R15" s="11">
-        <v>43068</v>
-      </c>
-      <c r="S15" s="11">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11">
-        <v>43070</v>
-      </c>
-      <c r="C21" s="11">
-        <v>43073</v>
-      </c>
-      <c r="D21" s="11">
-        <v>43074</v>
-      </c>
-      <c r="E21" s="11">
-        <v>43075</v>
-      </c>
-      <c r="F21" s="11">
-        <v>43076</v>
-      </c>
-      <c r="G21" s="11">
-        <v>43077</v>
-      </c>
-      <c r="H21" s="11">
-        <v>43080</v>
-      </c>
-      <c r="I21" s="11">
-        <v>43081</v>
-      </c>
-      <c r="J21" s="11">
-        <v>43082</v>
-      </c>
-      <c r="K21" s="11">
-        <v>43083</v>
-      </c>
-      <c r="L21" s="11">
-        <v>43084</v>
-      </c>
-      <c r="M21" s="11">
-        <v>43087</v>
-      </c>
-      <c r="N21" s="11">
-        <v>43088</v>
-      </c>
-      <c r="O21" s="11">
-        <v>43089</v>
-      </c>
-      <c r="P21" s="11">
-        <v>43090</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>43091</v>
-      </c>
-      <c r="R21" s="11">
-        <v>43094</v>
-      </c>
-      <c r="S21" s="11">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="11">
-        <v>43096</v>
-      </c>
-      <c r="C27" s="11">
-        <v>43097</v>
-      </c>
-      <c r="D27" s="11">
-        <v>43098</v>
-      </c>
-      <c r="E27" s="11">
-        <v>43102</v>
-      </c>
-      <c r="F27" s="11">
-        <v>43103</v>
-      </c>
-      <c r="G27" s="11">
-        <v>43104</v>
-      </c>
-      <c r="H27" s="11">
-        <v>43105</v>
-      </c>
-      <c r="I27" s="11">
-        <v>43108</v>
-      </c>
-      <c r="J27" s="11">
-        <v>43109</v>
-      </c>
-      <c r="K27" s="11">
-        <v>43110</v>
-      </c>
-      <c r="L27" s="11">
-        <v>43111</v>
-      </c>
-      <c r="M27" s="11">
-        <v>43112</v>
-      </c>
-      <c r="N27" s="11">
-        <v>43115</v>
-      </c>
-      <c r="O27" s="11">
-        <v>43116</v>
-      </c>
-      <c r="P27" s="11">
-        <v>43117</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>43118</v>
-      </c>
-      <c r="R27" s="11">
-        <v>43119</v>
-      </c>
-      <c r="S27" s="11">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S29" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="11">
-        <v>43123</v>
-      </c>
-      <c r="C33" s="11">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>126</v>
+      <c r="B17" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
@@ -885,21 +885,34 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -915,31 +928,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1262,1039 +1261,1039 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28:S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="18.5546875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
         <v>43011</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>43012</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>43013</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>43014</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>43017</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>43018</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>43019</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>43020</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>43021</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>43024</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>43025</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="7">
         <v>43026</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="7">
         <v>43027</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="7">
         <v>43028</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="7">
         <v>43031</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="7">
         <v>43032</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="7">
         <v>43033</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="7">
         <v>43034</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20">
         <v>43020</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="20">
         <v>43021</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="20">
         <v>43024</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="20">
         <v>43025</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="20">
         <v>43026</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="20">
         <v>43027</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="20">
         <v>43028</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="20">
         <v>43031</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="20">
         <v>43032</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="20">
         <v>43033</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="20">
         <v>43034</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="20">
         <v>43035</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="20">
         <v>43038</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="20">
         <v>43039</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="20">
         <v>43040</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="20">
         <v>43041</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="20">
         <v>43042</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="20">
         <v>43045</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="23">
         <v>3</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="23">
         <v>4</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="23">
         <v>4</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="23">
         <v>5</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="23">
         <v>6</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="23">
         <v>7</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="23">
         <v>7</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="23">
         <v>7</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="23">
         <v>8</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="23">
         <v>8</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="23">
         <v>8</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="23">
         <v>9</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="23">
         <v>10</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="23">
         <v>11</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="23">
         <v>12</v>
       </c>
-      <c r="S11" s="15"/>
+      <c r="S11" s="23"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20">
         <v>43046</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="20">
         <v>43047</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="20">
         <v>43048</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="20">
         <v>43049</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="20">
         <v>43052</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="20">
         <v>43053</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="20">
         <v>43054</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="20">
         <v>43055</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="20">
         <v>43056</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="20">
         <v>43059</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="20">
         <v>43060</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="20">
         <v>43061</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="20">
         <v>43062</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="20">
         <v>43063</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="20">
         <v>43066</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="20">
         <v>43067</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="20">
         <v>43068</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="20">
         <v>43069</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="S16" s="23" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20">
         <v>43070</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="20">
         <v>43073</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="20">
         <v>43074</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="20">
         <v>43075</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="20">
         <v>43076</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="20">
         <v>43077</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="20">
         <v>43080</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="20">
         <v>43081</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="20">
         <v>43082</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="20">
         <v>43083</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="20">
         <v>43084</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="20">
         <v>43087</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="20">
         <v>43088</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="20">
         <v>43089</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="20">
         <v>43090</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="20">
         <v>43091</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="20">
         <v>43094</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="20">
         <v>43095</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="S22" s="15" t="s">
+      <c r="S22" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="26" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20">
         <v>43096</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="20">
         <v>43097</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="20">
         <v>43098</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="20">
         <v>43102</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="20">
         <v>43103</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="20">
         <v>43104</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="20">
         <v>43105</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="20">
         <v>43108</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="20">
         <v>43109</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="20">
         <v>43110</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="20">
         <v>43111</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="20">
         <v>43112</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="20">
         <v>43115</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="20">
         <v>43116</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="20">
         <v>43117</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="20">
         <v>43118</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="20">
         <v>43119</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="20">
         <v>43122</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="P28" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="23">
         <v>10.9</v>
       </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20">
         <v>43123</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="20">
         <v>43124</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="22" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2308,138 +2307,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="3" t="s">
         <v>140</v>
       </c>
     </row>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>10
-(378-387)</t>
-  </si>
-  <si>
-    <t>10
 (388-397)</t>
   </si>
   <si>
@@ -705,13 +701,17 @@
   </si>
   <si>
     <t>(10.7-10.8)</t>
+  </si>
+  <si>
+    <t>10 (380)
+(378-387)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,9 +735,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -752,7 +766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -882,62 +896,62 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,1040 +1275,1040 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="9" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="18.5546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
         <v>43011</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>43012</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>43013</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>43014</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>43017</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>43018</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>43019</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>43020</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <v>43021</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="3">
         <v>43024</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="3">
         <v>43025</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="3">
         <v>43026</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="3">
         <v>43027</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="3">
         <v>43028</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="3">
         <v>43031</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="3">
         <v>43032</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="3">
         <v>43033</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="3">
         <v>43034</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="H4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="15">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="15">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="15">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="15">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="15">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="15">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="15">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="15">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="15">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="15">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="15">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="15">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="15">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="15">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="15">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="H11" s="18">
         <v>6</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="I11" s="18">
         <v>7</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="J11" s="18">
+        <v>7</v>
+      </c>
+      <c r="K11" s="18">
+        <v>7</v>
+      </c>
+      <c r="L11" s="18">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="M11" s="18">
+        <v>8</v>
+      </c>
+      <c r="N11" s="18">
+        <v>8</v>
+      </c>
+      <c r="O11" s="18">
         <v>9</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="P11" s="18">
         <v>10</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="Q11" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20">
-        <v>43020</v>
-      </c>
-      <c r="C8" s="20">
-        <v>43021</v>
-      </c>
-      <c r="D8" s="20">
-        <v>43024</v>
-      </c>
-      <c r="E8" s="20">
-        <v>43025</v>
-      </c>
-      <c r="F8" s="20">
-        <v>43026</v>
-      </c>
-      <c r="G8" s="20">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="20">
-        <v>43028</v>
-      </c>
-      <c r="I8" s="20">
-        <v>43031</v>
-      </c>
-      <c r="J8" s="20">
-        <v>43032</v>
-      </c>
-      <c r="K8" s="20">
-        <v>43033</v>
-      </c>
-      <c r="L8" s="20">
-        <v>43034</v>
-      </c>
-      <c r="M8" s="20">
-        <v>43035</v>
-      </c>
-      <c r="N8" s="20">
-        <v>43038</v>
-      </c>
-      <c r="O8" s="20">
-        <v>43039</v>
-      </c>
-      <c r="P8" s="20">
-        <v>43040</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>43041</v>
-      </c>
-      <c r="R8" s="20">
-        <v>43042</v>
-      </c>
-      <c r="S8" s="20">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="R11" s="18">
+        <v>12</v>
+      </c>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="15">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="15">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="15">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="15">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="15">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="15">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="15">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="15">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="15">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="15">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="15">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="15">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="15">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="15">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="15">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="B15" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="C15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="15">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="15">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="15">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="15">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="15">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="15">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="15">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="15">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="15">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="15">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="15">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="15">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="15">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="15">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="15">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="23">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23">
-        <v>2</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="B22" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="20"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="15">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="15">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="15">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="15">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="15">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="15">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="15">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="15">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="15">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="15">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="15">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="15">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="15">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="15">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="15">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="23">
-        <v>4</v>
-      </c>
-      <c r="F11" s="23">
-        <v>4</v>
-      </c>
-      <c r="G11" s="23">
-        <v>5</v>
-      </c>
-      <c r="H11" s="23">
-        <v>6</v>
-      </c>
-      <c r="I11" s="23">
-        <v>7</v>
-      </c>
-      <c r="J11" s="23">
-        <v>7</v>
-      </c>
-      <c r="K11" s="23">
-        <v>7</v>
-      </c>
-      <c r="L11" s="23">
-        <v>8</v>
-      </c>
-      <c r="M11" s="23">
-        <v>8</v>
-      </c>
-      <c r="N11" s="23">
-        <v>8</v>
-      </c>
-      <c r="O11" s="23">
-        <v>9</v>
-      </c>
-      <c r="P11" s="23">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>11</v>
-      </c>
-      <c r="R11" s="23">
-        <v>12</v>
-      </c>
-      <c r="S11" s="23"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20">
-        <v>43046</v>
-      </c>
-      <c r="C14" s="20">
-        <v>43047</v>
-      </c>
-      <c r="D14" s="20">
-        <v>43048</v>
-      </c>
-      <c r="E14" s="20">
-        <v>43049</v>
-      </c>
-      <c r="F14" s="20">
-        <v>43052</v>
-      </c>
-      <c r="G14" s="20">
-        <v>43053</v>
-      </c>
-      <c r="H14" s="20">
-        <v>43054</v>
-      </c>
-      <c r="I14" s="20">
-        <v>43055</v>
-      </c>
-      <c r="J14" s="20">
-        <v>43056</v>
-      </c>
-      <c r="K14" s="20">
-        <v>43059</v>
-      </c>
-      <c r="L14" s="20">
-        <v>43060</v>
-      </c>
-      <c r="M14" s="20">
-        <v>43061</v>
-      </c>
-      <c r="N14" s="20">
-        <v>43062</v>
-      </c>
-      <c r="O14" s="20">
-        <v>43063</v>
-      </c>
-      <c r="P14" s="20">
-        <v>43066</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>43067</v>
-      </c>
-      <c r="R14" s="20">
-        <v>43068</v>
-      </c>
-      <c r="S14" s="20">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="B27" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15">
+        <v>43123</v>
+      </c>
+      <c r="C32" s="15">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20">
-        <v>43070</v>
-      </c>
-      <c r="C20" s="20">
-        <v>43073</v>
-      </c>
-      <c r="D20" s="20">
-        <v>43074</v>
-      </c>
-      <c r="E20" s="20">
-        <v>43075</v>
-      </c>
-      <c r="F20" s="20">
-        <v>43076</v>
-      </c>
-      <c r="G20" s="20">
-        <v>43077</v>
-      </c>
-      <c r="H20" s="20">
-        <v>43080</v>
-      </c>
-      <c r="I20" s="20">
-        <v>43081</v>
-      </c>
-      <c r="J20" s="20">
-        <v>43082</v>
-      </c>
-      <c r="K20" s="20">
-        <v>43083</v>
-      </c>
-      <c r="L20" s="20">
-        <v>43084</v>
-      </c>
-      <c r="M20" s="20">
-        <v>43087</v>
-      </c>
-      <c r="N20" s="20">
-        <v>43088</v>
-      </c>
-      <c r="O20" s="20">
-        <v>43089</v>
-      </c>
-      <c r="P20" s="20">
-        <v>43090</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>43091</v>
-      </c>
-      <c r="R20" s="20">
-        <v>43094</v>
-      </c>
-      <c r="S20" s="20">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="25"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20">
-        <v>43096</v>
-      </c>
-      <c r="C26" s="20">
-        <v>43097</v>
-      </c>
-      <c r="D26" s="20">
-        <v>43098</v>
-      </c>
-      <c r="E26" s="20">
-        <v>43102</v>
-      </c>
-      <c r="F26" s="20">
-        <v>43103</v>
-      </c>
-      <c r="G26" s="20">
-        <v>43104</v>
-      </c>
-      <c r="H26" s="20">
-        <v>43105</v>
-      </c>
-      <c r="I26" s="20">
-        <v>43108</v>
-      </c>
-      <c r="J26" s="20">
-        <v>43109</v>
-      </c>
-      <c r="K26" s="20">
-        <v>43110</v>
-      </c>
-      <c r="L26" s="20">
-        <v>43111</v>
-      </c>
-      <c r="M26" s="20">
-        <v>43112</v>
-      </c>
-      <c r="N26" s="20">
-        <v>43115</v>
-      </c>
-      <c r="O26" s="20">
-        <v>43116</v>
-      </c>
-      <c r="P26" s="20">
-        <v>43117</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>43118</v>
-      </c>
-      <c r="R26" s="20">
-        <v>43119</v>
-      </c>
-      <c r="S26" s="20">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="R27" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="S27" s="22" t="s">
+      <c r="B33" s="17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>10.9</v>
-      </c>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20">
-        <v>43123</v>
-      </c>
-      <c r="C32" s="20">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2307,140 +2321,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>10
-(388-397)</t>
-  </si>
-  <si>
-    <t>10
 (398-407)</t>
   </si>
   <si>
@@ -705,6 +701,10 @@
   <si>
     <t>10 (380)
 (378-387)</t>
+  </si>
+  <si>
+    <t>10 (391)
+(388-397)</t>
   </si>
 </sst>
 </file>
@@ -742,9 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -757,16 +764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -901,57 +901,57 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="5" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="8" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,1039 +1276,1039 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="18.5546875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
         <v>43011</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>43012</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>43013</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>43014</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>43017</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>43018</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>43019</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>43020</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>43021</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>43024</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>43025</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="7">
         <v>43026</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="7">
         <v>43027</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="7">
         <v>43028</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="7">
         <v>43031</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="7">
         <v>43032</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="7">
         <v>43033</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="7">
         <v>43034</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="H4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="20">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="20">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="20">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="20">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="20">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="20">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="20">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="20">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="20">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="20">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="20">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="20">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="20">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="20">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="20">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="20">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23">
+        <v>4</v>
+      </c>
+      <c r="F11" s="23">
+        <v>4</v>
+      </c>
+      <c r="G11" s="23">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="H11" s="23">
         <v>6</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="8" t="s">
+      <c r="I11" s="23">
         <v>7</v>
       </c>
-      <c r="P3" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="J11" s="23">
+        <v>7</v>
+      </c>
+      <c r="K11" s="23">
+        <v>7</v>
+      </c>
+      <c r="L11" s="23">
         <v>8</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="M11" s="23">
+        <v>8</v>
+      </c>
+      <c r="N11" s="23">
+        <v>8</v>
+      </c>
+      <c r="O11" s="23">
         <v>9</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="P11" s="23">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="Q11" s="23">
+        <v>11</v>
+      </c>
+      <c r="R11" s="23">
         <v>12</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
-        <v>43020</v>
-      </c>
-      <c r="C8" s="15">
-        <v>43021</v>
-      </c>
-      <c r="D8" s="15">
-        <v>43024</v>
-      </c>
-      <c r="E8" s="15">
-        <v>43025</v>
-      </c>
-      <c r="F8" s="15">
-        <v>43026</v>
-      </c>
-      <c r="G8" s="15">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="15">
-        <v>43028</v>
-      </c>
-      <c r="I8" s="15">
-        <v>43031</v>
-      </c>
-      <c r="J8" s="15">
-        <v>43032</v>
-      </c>
-      <c r="K8" s="15">
-        <v>43033</v>
-      </c>
-      <c r="L8" s="15">
-        <v>43034</v>
-      </c>
-      <c r="M8" s="15">
-        <v>43035</v>
-      </c>
-      <c r="N8" s="15">
-        <v>43038</v>
-      </c>
-      <c r="O8" s="15">
-        <v>43039</v>
-      </c>
-      <c r="P8" s="15">
-        <v>43040</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>43041</v>
-      </c>
-      <c r="R8" s="15">
-        <v>43042</v>
-      </c>
-      <c r="S8" s="15">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="S11" s="23"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="20">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="20">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="20">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="20">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="20">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="20">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="20">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="20">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="20">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="20">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="20">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="20">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="20">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="20">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="20">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="20">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="17" t="s">
+      <c r="B15" s="22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="C15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="20">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="20">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="20">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="20">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="20">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="20">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="20">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="20">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="20">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="20">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="20">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="20">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="20">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="20">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="20">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="20">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18">
-        <v>2</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="B22" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="20">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="20">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="20">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="20">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="20">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="20">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="20">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="20">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="20">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="20">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="20">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="20">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="20">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="20">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="20">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="20">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="18">
-        <v>4</v>
-      </c>
-      <c r="F11" s="18">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5</v>
-      </c>
-      <c r="H11" s="18">
-        <v>6</v>
-      </c>
-      <c r="I11" s="18">
-        <v>7</v>
-      </c>
-      <c r="J11" s="18">
-        <v>7</v>
-      </c>
-      <c r="K11" s="18">
-        <v>7</v>
-      </c>
-      <c r="L11" s="18">
-        <v>8</v>
-      </c>
-      <c r="M11" s="18">
-        <v>8</v>
-      </c>
-      <c r="N11" s="18">
-        <v>8</v>
-      </c>
-      <c r="O11" s="18">
-        <v>9</v>
-      </c>
-      <c r="P11" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>11</v>
-      </c>
-      <c r="R11" s="18">
-        <v>12</v>
-      </c>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
-        <v>43046</v>
-      </c>
-      <c r="C14" s="15">
-        <v>43047</v>
-      </c>
-      <c r="D14" s="15">
-        <v>43048</v>
-      </c>
-      <c r="E14" s="15">
-        <v>43049</v>
-      </c>
-      <c r="F14" s="15">
-        <v>43052</v>
-      </c>
-      <c r="G14" s="15">
-        <v>43053</v>
-      </c>
-      <c r="H14" s="15">
-        <v>43054</v>
-      </c>
-      <c r="I14" s="15">
-        <v>43055</v>
-      </c>
-      <c r="J14" s="15">
-        <v>43056</v>
-      </c>
-      <c r="K14" s="15">
-        <v>43059</v>
-      </c>
-      <c r="L14" s="15">
-        <v>43060</v>
-      </c>
-      <c r="M14" s="15">
-        <v>43061</v>
-      </c>
-      <c r="N14" s="15">
-        <v>43062</v>
-      </c>
-      <c r="O14" s="15">
-        <v>43063</v>
-      </c>
-      <c r="P14" s="15">
-        <v>43066</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>43067</v>
-      </c>
-      <c r="R14" s="15">
-        <v>43068</v>
-      </c>
-      <c r="S14" s="15">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="B27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>10.9</v>
+      </c>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20">
+        <v>43123</v>
+      </c>
+      <c r="C32" s="20">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15">
-        <v>43070</v>
-      </c>
-      <c r="C20" s="15">
-        <v>43073</v>
-      </c>
-      <c r="D20" s="15">
-        <v>43074</v>
-      </c>
-      <c r="E20" s="15">
-        <v>43075</v>
-      </c>
-      <c r="F20" s="15">
-        <v>43076</v>
-      </c>
-      <c r="G20" s="15">
-        <v>43077</v>
-      </c>
-      <c r="H20" s="15">
-        <v>43080</v>
-      </c>
-      <c r="I20" s="15">
-        <v>43081</v>
-      </c>
-      <c r="J20" s="15">
-        <v>43082</v>
-      </c>
-      <c r="K20" s="15">
-        <v>43083</v>
-      </c>
-      <c r="L20" s="15">
-        <v>43084</v>
-      </c>
-      <c r="M20" s="15">
-        <v>43087</v>
-      </c>
-      <c r="N20" s="15">
-        <v>43088</v>
-      </c>
-      <c r="O20" s="15">
-        <v>43089</v>
-      </c>
-      <c r="P20" s="15">
-        <v>43090</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>43091</v>
-      </c>
-      <c r="R20" s="15">
-        <v>43094</v>
-      </c>
-      <c r="S20" s="15">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="R22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="20"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15">
-        <v>43096</v>
-      </c>
-      <c r="C26" s="15">
-        <v>43097</v>
-      </c>
-      <c r="D26" s="15">
-        <v>43098</v>
-      </c>
-      <c r="E26" s="15">
-        <v>43102</v>
-      </c>
-      <c r="F26" s="15">
-        <v>43103</v>
-      </c>
-      <c r="G26" s="15">
-        <v>43104</v>
-      </c>
-      <c r="H26" s="15">
-        <v>43105</v>
-      </c>
-      <c r="I26" s="15">
-        <v>43108</v>
-      </c>
-      <c r="J26" s="15">
-        <v>43109</v>
-      </c>
-      <c r="K26" s="15">
-        <v>43110</v>
-      </c>
-      <c r="L26" s="15">
-        <v>43111</v>
-      </c>
-      <c r="M26" s="15">
-        <v>43112</v>
-      </c>
-      <c r="N26" s="15">
-        <v>43115</v>
-      </c>
-      <c r="O26" s="15">
-        <v>43116</v>
-      </c>
-      <c r="P26" s="15">
-        <v>43117</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>43118</v>
-      </c>
-      <c r="R26" s="15">
-        <v>43119</v>
-      </c>
-      <c r="S26" s="15">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="S27" s="17" t="s">
+      <c r="B33" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="O28" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15">
-        <v>43123</v>
-      </c>
-      <c r="C32" s="15">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2327,135 +2327,135 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="3.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="24" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>9</v>
-      </c>
-      <c r="B11" s="24" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>10</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>11</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>12</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>13</v>
-      </c>
-      <c r="B15" s="24" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>14</v>
-      </c>
-      <c r="B16" s="24" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -779,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,12 +801,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -896,50 +890,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="8" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,10 +929,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,14 +1260,14 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="9" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="18.5546875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1306,1008 +1290,1008 @@
       <c r="G2" s="6">
         <v>43018</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>43019</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>43020</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>43021</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>43024</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>43025</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>43026</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>43027</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>43028</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>43031</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>43032</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>43033</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>43034</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
         <v>43020</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>43021</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>43024</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>43025</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <v>43026</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="15">
         <v>43027</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="15">
         <v>43028</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="15">
         <v>43031</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="15">
         <v>43032</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="15">
         <v>43033</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="15">
         <v>43034</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="15">
         <v>43035</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="15">
         <v>43038</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="15">
         <v>43039</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="15">
         <v>43040</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="15">
         <v>43041</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="15">
         <v>43042</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="15">
         <v>43045</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="18">
         <v>3</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="18">
         <v>4</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="18">
         <v>4</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="18">
         <v>5</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="18">
         <v>6</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="18">
         <v>7</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="18">
         <v>7</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="18">
         <v>7</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="18">
         <v>8</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="18">
         <v>8</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="18">
         <v>8</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="18">
         <v>9</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="18">
         <v>10</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="18">
         <v>11</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="18">
         <v>12</v>
       </c>
-      <c r="S11" s="23"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
         <v>43046</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>43047</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>43048</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>43049</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <v>43052</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="15">
         <v>43053</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="15">
         <v>43054</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="15">
         <v>43055</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="15">
         <v>43056</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="15">
         <v>43059</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="15">
         <v>43060</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="15">
         <v>43061</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="15">
         <v>43062</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="15">
         <v>43063</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="15">
         <v>43066</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="15">
         <v>43067</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="15">
         <v>43068</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="15">
         <v>43069</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
         <v>43070</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="15">
         <v>43073</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="15">
         <v>43074</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>43075</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="15">
         <v>43076</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="15">
         <v>43077</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="15">
         <v>43080</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="15">
         <v>43081</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="15">
         <v>43082</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="15">
         <v>43083</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="15">
         <v>43084</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="15">
         <v>43087</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="15">
         <v>43088</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="15">
         <v>43089</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="15">
         <v>43090</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="15">
         <v>43091</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="15">
         <v>43094</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="15">
         <v>43095</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="Q21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="S21" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S22" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="25"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
         <v>43096</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="15">
         <v>43097</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="15">
         <v>43098</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="15">
         <v>43102</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="15">
         <v>43103</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="15">
         <v>43104</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="15">
         <v>43105</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="15">
         <v>43108</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="15">
         <v>43109</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="15">
         <v>43110</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="15">
         <v>43111</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="15">
         <v>43112</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="15">
         <v>43115</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="15">
         <v>43116</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="15">
         <v>43117</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="15">
         <v>43118</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="15">
         <v>43119</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="15">
         <v>43122</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="Q27" s="22" t="s">
+      <c r="Q27" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="R27" s="22" t="s">
+      <c r="R27" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="S27" s="22" t="s">
+      <c r="S27" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="18">
         <v>10.9</v>
       </c>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15">
         <v>43123</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="15">
         <v>43124</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="17" t="s">
         <v>111</v>
       </c>
     </row>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -225,10 +225,6 @@
   </si>
   <si>
     <t>10
-(373-384)</t>
-  </si>
-  <si>
-    <t>10
 (385-394)</t>
   </si>
   <si>
@@ -705,6 +701,14 @@
   <si>
     <t>10 (391)
 (388-397)</t>
+  </si>
+  <si>
+    <t>3
+Create domain model</t>
+  </si>
+  <si>
+    <t>10 (381)
+(373-384)</t>
   </si>
 </sst>
 </file>
@@ -779,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +834,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -893,12 +903,13 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -920,13 +931,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,7 +949,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1257,1043 +1271,1037 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V33"/>
+  <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="8" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="18.5546875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>43011</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>43012</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>43013</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>43014</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>43017</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>43018</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>43019</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>43020</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>43021</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <v>43024</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="7">
         <v>43025</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="7">
         <v>43026</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>43027</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="7">
         <v>43028</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="7">
         <v>43031</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="7">
         <v>43032</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="7">
         <v>43033</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="7">
         <v>43034</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="16">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="16">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="16">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="16">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="16">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="16">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="16">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="16">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="16">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="16">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="16">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="16">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="16">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="16">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+      <c r="H11" s="19">
+        <v>4</v>
+      </c>
+      <c r="I11" s="19">
+        <v>4</v>
+      </c>
+      <c r="J11" s="19">
+        <v>5</v>
+      </c>
+      <c r="K11" s="19">
+        <v>5</v>
+      </c>
+      <c r="L11" s="19">
+        <v>5</v>
+      </c>
+      <c r="M11" s="19">
+        <v>5</v>
+      </c>
+      <c r="N11" s="19">
         <v>6</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="O11" s="19">
         <v>7</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="P11" s="19">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>7</v>
+      </c>
+      <c r="R11" s="19">
         <v>8</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S11" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="16">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="16">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="16">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="16">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="16">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="16">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="16">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="16">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="16">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="16">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="16">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="16">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="16">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="16">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="16">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="16">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="19">
+        <v>8</v>
+      </c>
+      <c r="C17" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D17" s="19">
+        <v>9</v>
+      </c>
+      <c r="E17" s="19">
+        <v>9</v>
+      </c>
+      <c r="F17" s="19">
+        <v>9</v>
+      </c>
+      <c r="G17" s="19">
+        <v>9</v>
+      </c>
+      <c r="H17" s="19">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19">
+        <v>10</v>
+      </c>
+      <c r="J17" s="19">
+        <v>11</v>
+      </c>
+      <c r="K17" s="19">
+        <v>12</v>
+      </c>
+      <c r="L17" s="19">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
-        <v>43020</v>
-      </c>
-      <c r="C8" s="15">
-        <v>43021</v>
-      </c>
-      <c r="D8" s="15">
-        <v>43024</v>
-      </c>
-      <c r="E8" s="15">
-        <v>43025</v>
-      </c>
-      <c r="F8" s="15">
-        <v>43026</v>
-      </c>
-      <c r="G8" s="15">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="15">
-        <v>43028</v>
-      </c>
-      <c r="I8" s="15">
-        <v>43031</v>
-      </c>
-      <c r="J8" s="15">
-        <v>43032</v>
-      </c>
-      <c r="K8" s="15">
-        <v>43033</v>
-      </c>
-      <c r="L8" s="15">
-        <v>43034</v>
-      </c>
-      <c r="M8" s="15">
-        <v>43035</v>
-      </c>
-      <c r="N8" s="15">
-        <v>43038</v>
-      </c>
-      <c r="O8" s="15">
-        <v>43039</v>
-      </c>
-      <c r="P8" s="15">
-        <v>43040</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>43041</v>
-      </c>
-      <c r="R8" s="15">
-        <v>43042</v>
-      </c>
-      <c r="S8" s="15">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="M17" s="19">
+        <v>13</v>
+      </c>
+      <c r="N17" s="19">
+        <v>13</v>
+      </c>
+      <c r="O17" s="19">
+        <v>13</v>
+      </c>
+      <c r="P17" s="19">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="16">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="16">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="16">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="16">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="16">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="16">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="16">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="16">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="16">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="16">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="16">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="16">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="16">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="16">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="16">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="16">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18">
-        <v>2</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="B22" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="22"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="16">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="16">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="16">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="16">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="16">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="16">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="16">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="16">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="16">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="16">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="16">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="16">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="16">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="16">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="16">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="16">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="18">
-        <v>4</v>
-      </c>
-      <c r="F11" s="18">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5</v>
-      </c>
-      <c r="H11" s="18">
-        <v>6</v>
-      </c>
-      <c r="I11" s="18">
-        <v>7</v>
-      </c>
-      <c r="J11" s="18">
-        <v>7</v>
-      </c>
-      <c r="K11" s="18">
-        <v>7</v>
-      </c>
-      <c r="L11" s="18">
-        <v>8</v>
-      </c>
-      <c r="M11" s="18">
-        <v>8</v>
-      </c>
-      <c r="N11" s="18">
-        <v>8</v>
-      </c>
-      <c r="O11" s="18">
-        <v>9</v>
-      </c>
-      <c r="P11" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>11</v>
-      </c>
-      <c r="R11" s="18">
-        <v>12</v>
-      </c>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
-        <v>43046</v>
-      </c>
-      <c r="C14" s="15">
-        <v>43047</v>
-      </c>
-      <c r="D14" s="15">
-        <v>43048</v>
-      </c>
-      <c r="E14" s="15">
-        <v>43049</v>
-      </c>
-      <c r="F14" s="15">
-        <v>43052</v>
-      </c>
-      <c r="G14" s="15">
-        <v>43053</v>
-      </c>
-      <c r="H14" s="15">
-        <v>43054</v>
-      </c>
-      <c r="I14" s="15">
-        <v>43055</v>
-      </c>
-      <c r="J14" s="15">
-        <v>43056</v>
-      </c>
-      <c r="K14" s="15">
-        <v>43059</v>
-      </c>
-      <c r="L14" s="15">
-        <v>43060</v>
-      </c>
-      <c r="M14" s="15">
-        <v>43061</v>
-      </c>
-      <c r="N14" s="15">
-        <v>43062</v>
-      </c>
-      <c r="O14" s="15">
-        <v>43063</v>
-      </c>
-      <c r="P14" s="15">
-        <v>43066</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>43067</v>
-      </c>
-      <c r="R14" s="15">
-        <v>43068</v>
-      </c>
-      <c r="S14" s="15">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="B27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15">
-        <v>43070</v>
-      </c>
-      <c r="C20" s="15">
-        <v>43073</v>
-      </c>
-      <c r="D20" s="15">
-        <v>43074</v>
-      </c>
-      <c r="E20" s="15">
-        <v>43075</v>
-      </c>
-      <c r="F20" s="15">
-        <v>43076</v>
-      </c>
-      <c r="G20" s="15">
-        <v>43077</v>
-      </c>
-      <c r="H20" s="15">
-        <v>43080</v>
-      </c>
-      <c r="I20" s="15">
-        <v>43081</v>
-      </c>
-      <c r="J20" s="15">
-        <v>43082</v>
-      </c>
-      <c r="K20" s="15">
-        <v>43083</v>
-      </c>
-      <c r="L20" s="15">
-        <v>43084</v>
-      </c>
-      <c r="M20" s="15">
-        <v>43087</v>
-      </c>
-      <c r="N20" s="15">
-        <v>43088</v>
-      </c>
-      <c r="O20" s="15">
-        <v>43089</v>
-      </c>
-      <c r="P20" s="15">
-        <v>43090</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>43091</v>
-      </c>
-      <c r="R20" s="15">
-        <v>43094</v>
-      </c>
-      <c r="S20" s="15">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="B28" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="R22" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="20"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15">
-        <v>43096</v>
-      </c>
-      <c r="C26" s="15">
-        <v>43097</v>
-      </c>
-      <c r="D26" s="15">
-        <v>43098</v>
-      </c>
-      <c r="E26" s="15">
-        <v>43102</v>
-      </c>
-      <c r="F26" s="15">
-        <v>43103</v>
-      </c>
-      <c r="G26" s="15">
-        <v>43104</v>
-      </c>
-      <c r="H26" s="15">
-        <v>43105</v>
-      </c>
-      <c r="I26" s="15">
-        <v>43108</v>
-      </c>
-      <c r="J26" s="15">
-        <v>43109</v>
-      </c>
-      <c r="K26" s="15">
-        <v>43110</v>
-      </c>
-      <c r="L26" s="15">
-        <v>43111</v>
-      </c>
-      <c r="M26" s="15">
-        <v>43112</v>
-      </c>
-      <c r="N26" s="15">
-        <v>43115</v>
-      </c>
-      <c r="O26" s="15">
-        <v>43116</v>
-      </c>
-      <c r="P26" s="15">
-        <v>43117</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>43118</v>
-      </c>
-      <c r="R26" s="15">
-        <v>43119</v>
-      </c>
-      <c r="S26" s="15">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="O28" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15">
-        <v>43123</v>
-      </c>
-      <c r="C32" s="15">
-        <v>43124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>111</v>
-      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2306,7 +2314,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2327,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2327,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2335,15 +2343,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>125</v>
+      <c r="B5" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2351,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2359,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2367,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2375,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2383,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2391,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2399,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2407,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2415,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2423,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2431,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2439,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -783,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +839,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +909,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,6 +936,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -949,7 +957,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1274,259 +1287,259 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="9" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="18.5546875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
         <v>43011</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>43012</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>43013</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>43014</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>43017</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>43018</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>43019</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>43020</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>43021</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>43024</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>43025</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>43026</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>43027</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>43028</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>43031</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>43032</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>43033</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>43034</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
         <v>43020</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>43021</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>43024</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>43025</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>43026</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>43027</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>43028</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>43031</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>43032</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>43033</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>43034</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>43035</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>43038</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>43039</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <v>43040</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <v>43041</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="15">
         <v>43042</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="15">
         <v>43045</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -1579,13 +1592,13 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1638,7 +1651,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="20">
@@ -1647,10 +1660,10 @@
       <c r="C11" s="20">
         <v>2</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>3</v>
       </c>
       <c r="F11" s="19">
@@ -1697,64 +1710,64 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
         <v>43046</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>43047</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>43048</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>43049</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>43052</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>43053</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>43054</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>43055</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>43056</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>43059</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>43060</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <v>43061</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <v>43062</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="15">
         <v>43063</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="15">
         <v>43066</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="15">
         <v>43067</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="15">
         <v>43068</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="15">
         <v>43069</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1813,7 +1826,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1872,7 +1885,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B17" s="19">
@@ -1925,64 +1938,64 @@
       <c r="S17" s="19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
         <v>43070</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>43073</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>43074</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>43075</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>43076</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>43077</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>43080</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>43081</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>43082</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>43083</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>43084</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>43087</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>43088</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="15">
         <v>43089</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>43090</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="15">
         <v>43091</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="15">
         <v>43094</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="15">
         <v>43095</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -2041,7 +2054,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -2100,7 +2113,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="19"/>
@@ -2128,64 +2141,64 @@
       <c r="H24" s="22"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
         <v>43096</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>43097</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>43098</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>43102</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>43103</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>43104</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>43105</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <v>43108</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>43109</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>43110</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <v>43111</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="15">
         <v>43112</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="15">
         <v>43115</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="15">
         <v>43116</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="15">
         <v>43117</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="15">
         <v>43118</v>
       </c>
-      <c r="R26" s="16">
+      <c r="R26" s="15">
         <v>43119</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="15">
         <v>43122</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -2226,7 +2239,7 @@
       <c r="S27" s="19"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -2281,7 +2294,7 @@
       <c r="S28" s="19"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B29" s="19"/>
@@ -2314,7 +2327,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2334,7 +2347,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2342,7 +2355,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="24" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2350,7 +2363,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="25" t="s">
         <v>124</v>
       </c>
     </row>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="186">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(11-20)</t>
-  </si>
-  <si>
-    <t>10
 (21-30)</t>
   </si>
   <si>
@@ -222,10 +218,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>10
-(385-394)</t>
   </si>
   <si>
     <t>10
@@ -577,9 +569,6 @@
 (341-347)</t>
   </si>
   <si>
-    <t>(xix-xxix)</t>
-  </si>
-  <si>
     <t>My Web App (base)</t>
   </si>
   <si>
@@ -709,6 +698,26 @@
   <si>
     <t>10 (381)
 (373-384)</t>
+  </si>
+  <si>
+    <t>10 (389)
+(385-394)</t>
+  </si>
+  <si>
+    <t>3
+Improve domain model</t>
+  </si>
+  <si>
+    <t>3
+Review and  finish domain model</t>
+  </si>
+  <si>
+    <t>xx
+(xix-xxix)</t>
+  </si>
+  <si>
+    <t>10 (11)
+(11-20)</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,12 +848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,12 +912,14 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -957,12 +962,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1286,1035 +1290,1035 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="8" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="18.5546875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
         <v>43011</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>43012</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>43013</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>43014</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>43017</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>43018</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <v>43019</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
         <v>43020</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>43021</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>43024</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="8">
         <v>43025</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>43026</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="8">
         <v>43027</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="8">
         <v>43028</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="8">
         <v>43031</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="8">
         <v>43032</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="8">
         <v>43033</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="8">
         <v>43034</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="E4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="G4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="25">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="25">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="17">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="17">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="17">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="17">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="17">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="17">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="17">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="17">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="17">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="17">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="17">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="17">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="17">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="17">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="17">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
+        <v>2</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="21">
+        <v>4</v>
+      </c>
+      <c r="H11" s="21">
+        <v>4</v>
+      </c>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+      <c r="J11" s="21">
+        <v>5</v>
+      </c>
+      <c r="K11" s="21">
+        <v>5</v>
+      </c>
+      <c r="L11" s="21">
+        <v>5</v>
+      </c>
+      <c r="M11" s="21">
+        <v>5</v>
+      </c>
+      <c r="N11" s="21">
         <v>6</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="O11" s="21">
         <v>7</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="P11" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>7</v>
+      </c>
+      <c r="R11" s="21">
         <v>8</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S11" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="17">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="17">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="17">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="17">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="17">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="17">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="17">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="17">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="17">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="17">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="17">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="17">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="17">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="17">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="17">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="21">
+        <v>8</v>
+      </c>
+      <c r="C17" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D17" s="21">
+        <v>9</v>
+      </c>
+      <c r="E17" s="21">
+        <v>9</v>
+      </c>
+      <c r="F17" s="21">
+        <v>9</v>
+      </c>
+      <c r="G17" s="21">
+        <v>9</v>
+      </c>
+      <c r="H17" s="21">
+        <v>10</v>
+      </c>
+      <c r="I17" s="21">
+        <v>10</v>
+      </c>
+      <c r="J17" s="21">
+        <v>11</v>
+      </c>
+      <c r="K17" s="21">
+        <v>12</v>
+      </c>
+      <c r="L17" s="21">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
-        <v>43020</v>
-      </c>
-      <c r="C8" s="15">
-        <v>43021</v>
-      </c>
-      <c r="D8" s="15">
-        <v>43024</v>
-      </c>
-      <c r="E8" s="15">
-        <v>43025</v>
-      </c>
-      <c r="F8" s="15">
-        <v>43026</v>
-      </c>
-      <c r="G8" s="15">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="15">
-        <v>43028</v>
-      </c>
-      <c r="I8" s="15">
-        <v>43031</v>
-      </c>
-      <c r="J8" s="15">
-        <v>43032</v>
-      </c>
-      <c r="K8" s="15">
-        <v>43033</v>
-      </c>
-      <c r="L8" s="15">
-        <v>43034</v>
-      </c>
-      <c r="M8" s="15">
-        <v>43035</v>
-      </c>
-      <c r="N8" s="15">
-        <v>43038</v>
-      </c>
-      <c r="O8" s="15">
-        <v>43039</v>
-      </c>
-      <c r="P8" s="15">
-        <v>43040</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>43041</v>
-      </c>
-      <c r="R8" s="15">
-        <v>43042</v>
-      </c>
-      <c r="S8" s="15">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="M17" s="21">
+        <v>13</v>
+      </c>
+      <c r="N17" s="21">
+        <v>13</v>
+      </c>
+      <c r="O17" s="21">
+        <v>13</v>
+      </c>
+      <c r="P17" s="21">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="17">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="17">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="17">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="17">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="17">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="17">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="17">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="17">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="17">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="17">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="17">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="17">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="17">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="17">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="17">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="B21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="24"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="17">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="17">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="17">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="17">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="17">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="17">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="17">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="17">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="17">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="17">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="17">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="17">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="17">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="17">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="17">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="17">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>10.9</v>
+      </c>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="18">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19">
-        <v>3</v>
-      </c>
-      <c r="G11" s="19">
-        <v>4</v>
-      </c>
-      <c r="H11" s="19">
-        <v>4</v>
-      </c>
-      <c r="I11" s="19">
-        <v>4</v>
-      </c>
-      <c r="J11" s="19">
-        <v>5</v>
-      </c>
-      <c r="K11" s="19">
-        <v>5</v>
-      </c>
-      <c r="L11" s="19">
-        <v>5</v>
-      </c>
-      <c r="M11" s="19">
-        <v>5</v>
-      </c>
-      <c r="N11" s="19">
-        <v>6</v>
-      </c>
-      <c r="O11" s="19">
-        <v>7</v>
-      </c>
-      <c r="P11" s="19">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>7</v>
-      </c>
-      <c r="R11" s="19">
-        <v>8</v>
-      </c>
-      <c r="S11" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
-        <v>43046</v>
-      </c>
-      <c r="C14" s="15">
-        <v>43047</v>
-      </c>
-      <c r="D14" s="15">
-        <v>43048</v>
-      </c>
-      <c r="E14" s="15">
-        <v>43049</v>
-      </c>
-      <c r="F14" s="15">
-        <v>43052</v>
-      </c>
-      <c r="G14" s="15">
-        <v>43053</v>
-      </c>
-      <c r="H14" s="15">
-        <v>43054</v>
-      </c>
-      <c r="I14" s="15">
-        <v>43055</v>
-      </c>
-      <c r="J14" s="15">
-        <v>43056</v>
-      </c>
-      <c r="K14" s="15">
-        <v>43059</v>
-      </c>
-      <c r="L14" s="15">
-        <v>43060</v>
-      </c>
-      <c r="M14" s="15">
-        <v>43061</v>
-      </c>
-      <c r="N14" s="15">
-        <v>43062</v>
-      </c>
-      <c r="O14" s="15">
-        <v>43063</v>
-      </c>
-      <c r="P14" s="15">
-        <v>43066</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>43067</v>
-      </c>
-      <c r="R14" s="15">
-        <v>43068</v>
-      </c>
-      <c r="S14" s="15">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="19">
-        <v>8</v>
-      </c>
-      <c r="C17" s="19">
-        <v>9</v>
-      </c>
-      <c r="D17" s="19">
-        <v>9</v>
-      </c>
-      <c r="E17" s="19">
-        <v>9</v>
-      </c>
-      <c r="F17" s="19">
-        <v>9</v>
-      </c>
-      <c r="G17" s="19">
-        <v>9</v>
-      </c>
-      <c r="H17" s="19">
-        <v>10</v>
-      </c>
-      <c r="I17" s="19">
-        <v>10</v>
-      </c>
-      <c r="J17" s="19">
-        <v>11</v>
-      </c>
-      <c r="K17" s="19">
-        <v>12</v>
-      </c>
-      <c r="L17" s="19">
-        <v>13</v>
-      </c>
-      <c r="M17" s="19">
-        <v>13</v>
-      </c>
-      <c r="N17" s="19">
-        <v>13</v>
-      </c>
-      <c r="O17" s="19">
-        <v>13</v>
-      </c>
-      <c r="P17" s="19">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15">
-        <v>43070</v>
-      </c>
-      <c r="C20" s="15">
-        <v>43073</v>
-      </c>
-      <c r="D20" s="15">
-        <v>43074</v>
-      </c>
-      <c r="E20" s="15">
-        <v>43075</v>
-      </c>
-      <c r="F20" s="15">
-        <v>43076</v>
-      </c>
-      <c r="G20" s="15">
-        <v>43077</v>
-      </c>
-      <c r="H20" s="15">
-        <v>43080</v>
-      </c>
-      <c r="I20" s="15">
-        <v>43081</v>
-      </c>
-      <c r="J20" s="15">
-        <v>43082</v>
-      </c>
-      <c r="K20" s="15">
-        <v>43083</v>
-      </c>
-      <c r="L20" s="15">
-        <v>43084</v>
-      </c>
-      <c r="M20" s="15">
-        <v>43087</v>
-      </c>
-      <c r="N20" s="15">
-        <v>43088</v>
-      </c>
-      <c r="O20" s="15">
-        <v>43089</v>
-      </c>
-      <c r="P20" s="15">
-        <v>43090</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>43091</v>
-      </c>
-      <c r="R20" s="15">
-        <v>43094</v>
-      </c>
-      <c r="S20" s="15">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15">
-        <v>43096</v>
-      </c>
-      <c r="C26" s="15">
-        <v>43097</v>
-      </c>
-      <c r="D26" s="15">
-        <v>43098</v>
-      </c>
-      <c r="E26" s="15">
-        <v>43102</v>
-      </c>
-      <c r="F26" s="15">
-        <v>43103</v>
-      </c>
-      <c r="G26" s="15">
-        <v>43104</v>
-      </c>
-      <c r="H26" s="15">
-        <v>43105</v>
-      </c>
-      <c r="I26" s="15">
-        <v>43108</v>
-      </c>
-      <c r="J26" s="15">
-        <v>43109</v>
-      </c>
-      <c r="K26" s="15">
-        <v>43110</v>
-      </c>
-      <c r="L26" s="15">
-        <v>43111</v>
-      </c>
-      <c r="M26" s="15">
-        <v>43112</v>
-      </c>
-      <c r="N26" s="15">
-        <v>43115</v>
-      </c>
-      <c r="O26" s="15">
-        <v>43116</v>
-      </c>
-      <c r="P26" s="15">
-        <v>43117</v>
-      </c>
-      <c r="Q26" s="15">
-        <v>43118</v>
-      </c>
-      <c r="R26" s="15">
-        <v>43119</v>
-      </c>
-      <c r="S26" s="15">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-    </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>10.9</v>
-      </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2340,31 +2344,31 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>130</v>
+      <c r="B3" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>131</v>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>124</v>
+      <c r="B5" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2372,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2380,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2388,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2396,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2404,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2412,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2420,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2428,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2436,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2444,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2452,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2460,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(21-30)</t>
-  </si>
-  <si>
-    <t>10
 (31-40)</t>
   </si>
   <si>
@@ -218,10 +214,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>10
-(395-404)</t>
   </si>
   <si>
     <t>10
@@ -718,6 +710,14 @@
   <si>
     <t>10 (11)
 (11-20)</t>
+  </si>
+  <si>
+    <t>10 (397)
+(395-404)</t>
+  </si>
+  <si>
+    <t>10 (21)
+(21-30)</t>
   </si>
 </sst>
 </file>
@@ -940,11 +940,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,13 +967,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1375,43 +1375,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="K3" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>8</v>
@@ -1428,16 +1428,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
@@ -1446,93 +1446,93 @@
         <v>12</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="25">
+      <c r="B8" s="17">
         <v>43020</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="17">
         <v>43021</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>43024</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <v>43025</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>43026</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="18">
         <v>43027</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="18">
         <v>43028</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <v>43031</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="18">
         <v>43032</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="18">
         <v>43033</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="18">
         <v>43034</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="18">
         <v>43035</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="18">
         <v>43038</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="18">
         <v>43039</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="18">
         <v>43040</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="18">
         <v>43041</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="18">
         <v>43042</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="18">
         <v>43045</v>
       </c>
     </row>
@@ -1540,233 +1540,233 @@
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="H9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="I9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="J9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="K9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="L9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="M9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="N9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="O9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="P9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="Q9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="R9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="S9" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="I10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="N10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="S10" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="27">
+        <v>137</v>
+      </c>
+      <c r="B11" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="D11" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="24">
         <v>4</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="24">
         <v>4</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="24">
         <v>4</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="24">
         <v>5</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="24">
         <v>5</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="24">
         <v>5</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="24">
         <v>5</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="24">
         <v>6</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="24">
         <v>7</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="24">
         <v>7</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="24">
         <v>7</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="24">
         <v>8</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
-      <c r="B14" s="17">
+      <c r="B14" s="18">
         <v>43046</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="18">
         <v>43047</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <v>43048</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="18">
         <v>43049</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="18">
         <v>43052</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="18">
         <v>43053</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="18">
         <v>43054</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="18">
         <v>43055</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="18">
         <v>43056</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="18">
         <v>43059</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="18">
         <v>43060</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="18">
         <v>43061</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="18">
         <v>43062</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="18">
         <v>43063</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="18">
         <v>43066</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="18">
         <v>43067</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="18">
         <v>43068</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="18">
         <v>43069</v>
       </c>
     </row>
@@ -1774,227 +1774,227 @@
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="E15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="F15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="G15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="H15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="I15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="J15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="K15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="L15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="M15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="N15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="O15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="P15" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="Q15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="R15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="S15" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="I16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="K16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="L16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="M16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="N16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="O16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="P16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="Q16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="R16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="R16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>138</v>
+      <c r="S16" s="24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="21">
+        <v>137</v>
+      </c>
+      <c r="B17" s="24">
         <v>8</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="24">
         <v>9</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="24">
         <v>9</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="24">
         <v>9</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="24">
         <v>9</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="24">
         <v>9</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="24">
         <v>10</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="24">
         <v>10</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="24">
         <v>11</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="24">
         <v>12</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="24">
         <v>13</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="24">
         <v>13</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="24">
         <v>13</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="24">
         <v>13</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="24">
         <v>13</v>
       </c>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
-      <c r="B20" s="17">
+      <c r="B20" s="18">
         <v>43070</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="18">
         <v>43073</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>43074</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="18">
         <v>43075</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="18">
         <v>43076</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="18">
         <v>43077</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="18">
         <v>43080</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <v>43081</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="18">
         <v>43082</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="18">
         <v>43083</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="18">
         <v>43084</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="18">
         <v>43087</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="18">
         <v>43088</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="18">
         <v>43089</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="18">
         <v>43090</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="18">
         <v>43091</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="18">
         <v>43094</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="18">
         <v>43095</v>
       </c>
     </row>
@@ -2002,202 +2002,202 @@
       <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="E21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="F21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="G21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="H21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="I21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="J21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="K21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="L21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="M21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="N21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="O21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="P21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="Q21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="R21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="S21" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="E22" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="F22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="G22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="H22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="I22" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="J22" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="K22" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="L22" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="M22" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="N22" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="O22" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="P22" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="Q22" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="R22" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="S22" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="R22" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="S22" s="21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
+        <v>140</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="24"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
-      <c r="B26" s="17">
+      <c r="B26" s="18">
         <v>43096</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="18">
         <v>43097</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="18">
         <v>43098</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="18">
         <v>43102</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="18">
         <v>43103</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="18">
         <v>43104</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="18">
         <v>43105</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="18">
         <v>43108</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="18">
         <v>43109</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="18">
         <v>43110</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="18">
         <v>43111</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="18">
         <v>43112</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="18">
         <v>43115</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="18">
         <v>43116</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="18">
         <v>43117</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="18">
         <v>43118</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="18">
         <v>43119</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="18">
         <v>43122</v>
       </c>
     </row>
@@ -2205,120 +2205,120 @@
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="F27" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="G27" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="H27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="I27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="J27" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="E28" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="F28" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="G28" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="H28" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="I28" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="J28" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="K28" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="L28" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="M28" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="N28" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="O28" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="P28" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="O28" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="24">
         <v>10.9</v>
       </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
+        <v>139</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,7 +2344,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2360,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -217,10 +217,6 @@
   </si>
   <si>
     <t>10
-(405-414)</t>
-  </si>
-  <si>
-    <t>10
 (415-424)</t>
   </si>
   <si>
@@ -718,6 +714,10 @@
   <si>
     <t>10 (21)
 (21-30)</t>
+  </si>
+  <si>
+    <t>10(405)
+(405-414)</t>
   </si>
 </sst>
 </file>
@@ -954,13 +954,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,7 +1291,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,43 +1375,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>8</v>
@@ -1428,16 +1428,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
@@ -1487,7 +1487,7 @@
       <c r="C8" s="17">
         <v>43021</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>43024</v>
       </c>
       <c r="E8" s="18">
@@ -1541,58 +1541,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="I9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="J9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="K9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="L9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="M9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="N9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="O9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="S9" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1600,63 +1600,63 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="D10" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1664,52 +1664,52 @@
       <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="G11" s="25">
         <v>4</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="25">
         <v>4</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="25">
         <v>4</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="25">
         <v>5</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="25">
         <v>5</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="25">
         <v>5</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="25">
         <v>5</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="25">
         <v>6</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="25">
         <v>7</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="25">
         <v>7</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="25">
         <v>7</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="25">
         <v>8</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="25">
         <v>8</v>
       </c>
     </row>
@@ -1775,171 +1775,171 @@
         <v>3</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="H15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="I15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="K15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="L15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="M15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="N15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="O15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="P15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="Q15" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="S15" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="24" t="s">
-        <v>136</v>
+      <c r="S16" s="25" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="24">
+        <v>136</v>
+      </c>
+      <c r="B17" s="25">
         <v>8</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <v>9</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="25">
         <v>9</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="25">
         <v>9</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="25">
         <v>9</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="25">
         <v>9</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="25">
         <v>10</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="25">
         <v>10</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="25">
         <v>11</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="25">
         <v>12</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="25">
         <v>13</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="25">
         <v>13</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="25">
         <v>13</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="25">
         <v>13</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="25">
         <v>13</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
@@ -2003,143 +2003,143 @@
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="G21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="H21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="I21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="J21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="K21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="L21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="M21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="N21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="O21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="P21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="Q21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="R21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="S21" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="H22" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="I22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="J22" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="K22" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="L22" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="M22" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="N22" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="O22" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="P22" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="Q22" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="R22" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="S22" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="27"/>
@@ -2206,119 +2206,119 @@
         <v>3</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="G27" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="H27" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="I27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="J27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="G28" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="H28" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="I28" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="J28" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="K28" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="L28" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="M28" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="N28" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="O28" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="P28" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="P28" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="25">
         <v>10.9</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,7 +2344,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2360,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(31-40)</t>
-  </si>
-  <si>
-    <t>10
 (41-50)</t>
   </si>
   <si>
@@ -214,10 +210,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>10
-(415-424)</t>
   </si>
   <si>
     <t>10
@@ -716,8 +708,16 @@
 (21-30)</t>
   </si>
   <si>
-    <t>10(405)
+    <t>10(414)
 (405-414)</t>
+  </si>
+  <si>
+    <t>10 (415)
+(415-424)</t>
+  </si>
+  <si>
+    <t>10 (31)
+(31-40)</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -954,19 +954,22 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1294,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,43 +1378,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="K3" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>8</v>
@@ -1428,16 +1431,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
@@ -1446,37 +1449,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1541,58 +1544,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="I9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="J9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="K9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="L9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="M9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="N9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="O9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="S9" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1600,63 +1603,63 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="O10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="P10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="Q10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="R10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="S10" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1665,51 +1668,51 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="25">
+        <v>174</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="24">
         <v>4</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>4</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <v>4</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <v>5</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <v>5</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <v>5</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <v>5</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="24">
         <v>6</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="24">
         <v>7</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="24">
         <v>7</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="24">
         <v>7</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="24">
         <v>8</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="24">
         <v>8</v>
       </c>
     </row>
@@ -1775,171 +1778,171 @@
         <v>3</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="H15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="I15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="K15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="L15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="M15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="N15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="O15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="P15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="Q15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="S15" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="J16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="M16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="N16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="O16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="P16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="Q16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="R16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R16" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>135</v>
+      <c r="S16" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="25">
+        <v>134</v>
+      </c>
+      <c r="B17" s="24">
         <v>8</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>9</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>9</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>9</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>9</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>9</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <v>10</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>10</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <v>11</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="24">
         <v>12</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="24">
         <v>13</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="24">
         <v>13</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="24">
         <v>13</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="24">
         <v>13</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="24">
         <v>13</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
@@ -2003,143 +2006,143 @@
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="G21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="H21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="I21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="J21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="K21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="L21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="M21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="N21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="O21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="P21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="Q21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="R21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="S21" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="R21" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="J22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="L22" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="M22" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="N22" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="O22" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="P22" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="Q22" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="R22" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="S22" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+        <v>137</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
+        <v>138</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="27"/>
@@ -2206,119 +2209,119 @@
         <v>3</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="E27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="F27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="G27" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="H27" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="I27" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="J27" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="H28" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="I28" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="J28" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="K28" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="M28" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="N28" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="O28" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="P28" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="O28" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="24">
         <v>10.9</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
+        <v>136</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,7 +2347,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2352,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2360,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2368,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2376,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2384,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2392,7 +2395,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2411,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2424,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2440,7 +2443,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -712,12 +712,12 @@
 (405-414)</t>
   </si>
   <si>
-    <t>10 (415)
-(415-424)</t>
-  </si>
-  <si>
     <t>10 (31)
 (31-40)</t>
+  </si>
+  <si>
+    <t>10 (419)
+(415-424)</t>
   </si>
 </sst>
 </file>
@@ -945,9 +945,6 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -970,6 +967,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1294,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,49 +1552,49 @@
       <c r="D9" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1602,58 +1602,58 @@
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1661,58 +1661,58 @@
       <c r="A11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>1</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>2</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>4</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>4</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>4</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <v>5</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>5</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <v>5</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="23">
         <v>5</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="23">
         <v>6</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="23">
         <v>7</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="23">
         <v>7</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="23">
         <v>7</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="23">
         <v>8</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="23">
         <v>8</v>
       </c>
     </row>
@@ -1777,58 +1777,58 @@
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1836,58 +1836,58 @@
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1895,54 +1895,54 @@
       <c r="A17" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>8</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>9</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>9</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>9</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>9</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>9</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>10</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>10</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="23">
         <v>11</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="23">
         <v>12</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>13</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="23">
         <v>13</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="23">
         <v>13</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="23">
         <v>13</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="23">
         <v>13</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
@@ -2005,58 +2005,58 @@
       <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="S21" s="21" t="s">
+      <c r="S21" s="20" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2064,58 +2064,58 @@
       <c r="A22" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="P22" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="R22" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="S22" s="24" t="s">
+      <c r="S22" s="23" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2123,29 +2123,29 @@
       <c r="A23" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="26" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="27"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
@@ -2208,120 +2208,120 @@
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="24" t="s">
+      <c r="P28" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="23">
         <v>10.9</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -213,10 +213,6 @@
   </si>
   <si>
     <t>10
-(425-434)</t>
-  </si>
-  <si>
-    <t>10
 (435-444)</t>
   </si>
   <si>
@@ -718,6 +714,14 @@
   <si>
     <t>10 (419)
 (415-424)</t>
+  </si>
+  <si>
+    <t>4
+Create repos</t>
+  </si>
+  <si>
+    <t>10 (426)
+(425-434)</t>
   </si>
 </sst>
 </file>
@@ -912,7 +916,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -966,10 +970,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1301,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,43 +1385,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>8</v>
@@ -1431,16 +1438,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
@@ -1493,7 +1500,7 @@
       <c r="D8" s="17">
         <v>43024</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>43025</v>
       </c>
       <c r="F8" s="18">
@@ -1544,58 +1551,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1603,19 +1610,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>15</v>
@@ -1659,7 +1666,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -1668,16 +1675,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="23">
-        <v>4</v>
+      <c r="G11" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="H11" s="23">
         <v>4</v>
@@ -1778,58 +1785,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="E15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="J15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="L15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="P15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="R15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1888,12 +1895,12 @@
         <v>44</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="23">
         <v>8</v>
@@ -2006,122 +2013,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="I21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="J21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="L21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="M21" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="N21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="O21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="P21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="Q21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="R21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="S21" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="E22" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="F22" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="G22" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="I22" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="J22" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="K22" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="L22" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="M22" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="N22" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="O22" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="P22" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="Q22" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="R22" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="S22" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2130,7 +2137,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -2209,31 +2216,31 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="G27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="H27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="I27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="J27" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
@@ -2247,52 +2254,52 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="D28" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="F28" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="G28" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="H28" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="I28" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="J28" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="K28" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="L28" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="M28" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="N28" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="O28" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="P28" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>171</v>
       </c>
       <c r="Q28" s="23">
         <v>10.9</v>
@@ -2302,7 +2309,7 @@
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2347,7 +2354,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2355,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2363,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2371,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2379,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2387,7 +2394,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2395,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2403,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2411,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2419,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2427,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2435,7 +2442,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2443,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2451,7 +2458,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2459,7 +2466,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2467,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -708,10 +708,6 @@
 (405-414)</t>
   </si>
   <si>
-    <t>10 (31)
-(31-40)</t>
-  </si>
-  <si>
     <t>10 (419)
 (415-424)</t>
   </si>
@@ -722,6 +718,10 @@
   <si>
     <t>10 (426)
 (425-434)</t>
+  </si>
+  <si>
+    <t>10 (39)
+(31-40)</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -949,6 +949,9 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -961,22 +964,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1494,7 @@
       <c r="E8" s="17">
         <v>43025</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>43026</v>
       </c>
       <c r="G8" s="18">
@@ -1562,46 +1553,46 @@
       <c r="E9" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1609,58 +1600,58 @@
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>183</v>
+      <c r="F10" s="23" t="s">
+        <v>186</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1668,58 +1659,58 @@
       <c r="A11" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="G11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="24">
         <v>4</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="24">
         <v>4</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="24">
         <v>5</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="24">
         <v>5</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="24">
         <v>5</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="24">
         <v>5</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="24">
         <v>6</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="24">
         <v>7</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="24">
         <v>7</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="24">
         <v>7</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="24">
         <v>8</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="24">
         <v>8</v>
       </c>
     </row>
@@ -1784,58 +1775,58 @@
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="S15" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1843,58 +1834,58 @@
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="24" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1902,54 +1893,54 @@
       <c r="A17" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="24">
         <v>8</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="24">
         <v>9</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="24">
         <v>9</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="24">
         <v>9</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="24">
         <v>9</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="24">
         <v>9</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="24">
         <v>10</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="24">
         <v>10</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="24">
         <v>11</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="24">
         <v>12</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="24">
         <v>13</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="24">
         <v>13</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="24">
         <v>13</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="24">
         <v>13</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="24">
         <v>13</v>
       </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
@@ -2012,58 +2003,58 @@
       <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="S21" s="20" t="s">
+      <c r="S21" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2071,58 +2062,58 @@
       <c r="A22" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S22" s="24" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2130,26 +2121,26 @@
       <c r="A23" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="26"/>
@@ -2215,120 +2206,120 @@
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="24">
         <v>10.9</v>
       </c>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1704" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1710" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
@@ -90,14 +90,6 @@
   </si>
   <si>
     <t>10
-(41-50)</t>
-  </si>
-  <si>
-    <t>10
-(51-60)</t>
-  </si>
-  <si>
-    <t>10
 (61-70)</t>
   </si>
   <si>
@@ -210,10 +202,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>10
-(435-444)</t>
   </si>
   <si>
     <t>10
@@ -722,6 +710,18 @@
   <si>
     <t>10 (39)
 (31-40)</t>
+  </si>
+  <si>
+    <t>10 (41)
+(41-50)</t>
+  </si>
+  <si>
+    <t>10 (55)
+(51-60)</t>
+  </si>
+  <si>
+    <t>10 (435)
+(435-444)</t>
   </si>
 </sst>
 </file>
@@ -1295,14 +1295,14 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="10" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="18.5703125" style="10" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>43011</v>
@@ -1362,7 +1362,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1376,43 +1376,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>8</v>
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1429,16 +1429,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
@@ -1447,40 +1447,40 @@
         <v>12</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="17">
         <v>43020</v>
@@ -1497,7 +1497,7 @@
       <c r="F8" s="17">
         <v>43026</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>43027</v>
       </c>
       <c r="H8" s="18">
@@ -1537,127 +1537,127 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="L9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="M9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="N9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="O9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="S9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="M10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1666,18 +1666,18 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="F11" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" s="24">
+        <v>181</v>
+      </c>
+      <c r="H11" s="23">
         <v>4</v>
       </c>
       <c r="I11" s="24">
@@ -1714,7 +1714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="18">
         <v>43046</v>
@@ -1771,127 +1771,127 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="H15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="I15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="K15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="L15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="M15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="N15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="O15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="P15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="Q15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="S15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="G16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="H16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="J16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="K16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="L16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="M16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="N16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="O16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="P16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="Q16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="R16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="S16" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B17" s="24">
         <v>8</v>
@@ -1942,7 +1942,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="18">
         <v>43070</v>
@@ -1999,127 +1999,127 @@
         <v>43095</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="G21" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="H21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="I21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="J21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="K21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="L21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="M21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="N21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="O21" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="P21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="Q21" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="R21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="S21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="R21" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="F22" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="G22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="H22" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="J22" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="K22" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="L22" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="M22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="N22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="O22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="P22" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="Q22" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="R22" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="S22" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="Q22" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:19" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -2128,7 +2128,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -2142,10 +2142,10 @@
       <c r="R23" s="24"/>
       <c r="S23" s="24"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H24" s="26"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="18">
         <v>43096</v>
@@ -2202,36 +2202,36 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="F27" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="G27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="H27" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="I27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="J27" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -2243,54 +2243,54 @@
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
     </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="H28" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="J28" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="K28" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="L28" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="M28" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="N28" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="O28" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="P28" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>170</v>
       </c>
       <c r="Q28" s="24">
         <v>10.9</v>
@@ -2298,9 +2298,9 @@
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
     </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -2335,137 +2335,137 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,14 +90,6 @@
   </si>
   <si>
     <t>10
-(61-70)</t>
-  </si>
-  <si>
-    <t>10
-(71-80)</t>
-  </si>
-  <si>
-    <t>10
 (81-90)</t>
   </si>
   <si>
@@ -722,6 +714,14 @@
   <si>
     <t>10 (435)
 (435-444)</t>
+  </si>
+  <si>
+    <t>10 (69)
+(61-70)</t>
+  </si>
+  <si>
+    <t>10 (71)
+(71-80)</t>
   </si>
 </sst>
 </file>
@@ -916,14 +916,13 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -970,6 +969,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1291,1035 +1292,1035 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>43011</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>43012</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>43013</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>43014</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>43017</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>43018</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>43019</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>43020</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>43021</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>43024</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>43025</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>43026</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>43027</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>43028</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>43031</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>43032</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>43033</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>43034</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="E4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="16">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="16">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="16">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="16">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="16">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="17">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="17">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="17">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="17">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="17">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="17">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="17">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="17">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="17">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="21">
+        <v>4</v>
+      </c>
+      <c r="I11" s="22">
+        <v>4</v>
+      </c>
+      <c r="J11" s="23">
+        <v>5</v>
+      </c>
+      <c r="K11" s="23">
+        <v>5</v>
+      </c>
+      <c r="L11" s="23">
+        <v>5</v>
+      </c>
+      <c r="M11" s="23">
+        <v>5</v>
+      </c>
+      <c r="N11" s="23">
         <v>6</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O11" s="23">
         <v>7</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="R3" s="12" t="s">
+      <c r="P11" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>7</v>
+      </c>
+      <c r="R11" s="23">
         <v>8</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S11" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="17">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="17">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="17">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="17">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="17">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="17">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="17">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="17">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="17">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="17">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="17">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="17">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="17">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="17">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="17">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="23">
+        <v>8</v>
+      </c>
+      <c r="C17" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="D17" s="23">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23">
+        <v>9</v>
+      </c>
+      <c r="F17" s="23">
+        <v>9</v>
+      </c>
+      <c r="G17" s="23">
+        <v>9</v>
+      </c>
+      <c r="H17" s="23">
+        <v>10</v>
+      </c>
+      <c r="I17" s="23">
+        <v>10</v>
+      </c>
+      <c r="J17" s="23">
+        <v>11</v>
+      </c>
+      <c r="K17" s="23">
+        <v>12</v>
+      </c>
+      <c r="L17" s="23">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17">
-        <v>43020</v>
-      </c>
-      <c r="C8" s="17">
-        <v>43021</v>
-      </c>
-      <c r="D8" s="17">
-        <v>43024</v>
-      </c>
-      <c r="E8" s="17">
-        <v>43025</v>
-      </c>
-      <c r="F8" s="17">
-        <v>43026</v>
-      </c>
-      <c r="G8" s="17">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="18">
-        <v>43028</v>
-      </c>
-      <c r="I8" s="18">
-        <v>43031</v>
-      </c>
-      <c r="J8" s="18">
-        <v>43032</v>
-      </c>
-      <c r="K8" s="18">
-        <v>43033</v>
-      </c>
-      <c r="L8" s="18">
-        <v>43034</v>
-      </c>
-      <c r="M8" s="18">
-        <v>43035</v>
-      </c>
-      <c r="N8" s="18">
-        <v>43038</v>
-      </c>
-      <c r="O8" s="18">
-        <v>43039</v>
-      </c>
-      <c r="P8" s="18">
-        <v>43040</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>43041</v>
-      </c>
-      <c r="R8" s="18">
-        <v>43042</v>
-      </c>
-      <c r="S8" s="18">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="M17" s="23">
+        <v>13</v>
+      </c>
+      <c r="N17" s="23">
+        <v>13</v>
+      </c>
+      <c r="O17" s="23">
+        <v>13</v>
+      </c>
+      <c r="P17" s="23">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="17">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="17">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="17">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="17">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="17">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="17">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="17">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="17">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="17">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="17">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="17">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="17">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="17">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="17">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="17">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H24" s="25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="17">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="17">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="17">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="17">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="17">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="17">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="17">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="17">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="17">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="17">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="17">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="17">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="17">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="17">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="17">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="17">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+    </row>
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>10.9</v>
+      </c>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="22">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22">
-        <v>2</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="23">
-        <v>4</v>
-      </c>
-      <c r="I11" s="24">
-        <v>4</v>
-      </c>
-      <c r="J11" s="24">
-        <v>5</v>
-      </c>
-      <c r="K11" s="24">
-        <v>5</v>
-      </c>
-      <c r="L11" s="24">
-        <v>5</v>
-      </c>
-      <c r="M11" s="24">
-        <v>5</v>
-      </c>
-      <c r="N11" s="24">
-        <v>6</v>
-      </c>
-      <c r="O11" s="24">
-        <v>7</v>
-      </c>
-      <c r="P11" s="24">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>7</v>
-      </c>
-      <c r="R11" s="24">
-        <v>8</v>
-      </c>
-      <c r="S11" s="24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18">
-        <v>43046</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43047</v>
-      </c>
-      <c r="D14" s="18">
-        <v>43048</v>
-      </c>
-      <c r="E14" s="18">
-        <v>43049</v>
-      </c>
-      <c r="F14" s="18">
-        <v>43052</v>
-      </c>
-      <c r="G14" s="18">
-        <v>43053</v>
-      </c>
-      <c r="H14" s="18">
-        <v>43054</v>
-      </c>
-      <c r="I14" s="18">
-        <v>43055</v>
-      </c>
-      <c r="J14" s="18">
-        <v>43056</v>
-      </c>
-      <c r="K14" s="18">
-        <v>43059</v>
-      </c>
-      <c r="L14" s="18">
-        <v>43060</v>
-      </c>
-      <c r="M14" s="18">
-        <v>43061</v>
-      </c>
-      <c r="N14" s="18">
-        <v>43062</v>
-      </c>
-      <c r="O14" s="18">
-        <v>43063</v>
-      </c>
-      <c r="P14" s="18">
-        <v>43066</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>43067</v>
-      </c>
-      <c r="R14" s="18">
-        <v>43068</v>
-      </c>
-      <c r="S14" s="18">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="24">
-        <v>8</v>
-      </c>
-      <c r="C17" s="24">
-        <v>9</v>
-      </c>
-      <c r="D17" s="24">
-        <v>9</v>
-      </c>
-      <c r="E17" s="24">
-        <v>9</v>
-      </c>
-      <c r="F17" s="24">
-        <v>9</v>
-      </c>
-      <c r="G17" s="24">
-        <v>9</v>
-      </c>
-      <c r="H17" s="24">
-        <v>10</v>
-      </c>
-      <c r="I17" s="24">
-        <v>10</v>
-      </c>
-      <c r="J17" s="24">
-        <v>11</v>
-      </c>
-      <c r="K17" s="24">
-        <v>12</v>
-      </c>
-      <c r="L17" s="24">
-        <v>13</v>
-      </c>
-      <c r="M17" s="24">
-        <v>13</v>
-      </c>
-      <c r="N17" s="24">
-        <v>13</v>
-      </c>
-      <c r="O17" s="24">
-        <v>13</v>
-      </c>
-      <c r="P17" s="24">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18">
-        <v>43070</v>
-      </c>
-      <c r="C20" s="18">
-        <v>43073</v>
-      </c>
-      <c r="D20" s="18">
-        <v>43074</v>
-      </c>
-      <c r="E20" s="18">
-        <v>43075</v>
-      </c>
-      <c r="F20" s="18">
-        <v>43076</v>
-      </c>
-      <c r="G20" s="18">
-        <v>43077</v>
-      </c>
-      <c r="H20" s="18">
-        <v>43080</v>
-      </c>
-      <c r="I20" s="18">
-        <v>43081</v>
-      </c>
-      <c r="J20" s="18">
-        <v>43082</v>
-      </c>
-      <c r="K20" s="18">
-        <v>43083</v>
-      </c>
-      <c r="L20" s="18">
-        <v>43084</v>
-      </c>
-      <c r="M20" s="18">
-        <v>43087</v>
-      </c>
-      <c r="N20" s="18">
-        <v>43088</v>
-      </c>
-      <c r="O20" s="18">
-        <v>43089</v>
-      </c>
-      <c r="P20" s="18">
-        <v>43090</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>43091</v>
-      </c>
-      <c r="R20" s="18">
-        <v>43094</v>
-      </c>
-      <c r="S20" s="18">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="26"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18">
-        <v>43096</v>
-      </c>
-      <c r="C26" s="18">
-        <v>43097</v>
-      </c>
-      <c r="D26" s="18">
-        <v>43098</v>
-      </c>
-      <c r="E26" s="18">
-        <v>43102</v>
-      </c>
-      <c r="F26" s="18">
-        <v>43103</v>
-      </c>
-      <c r="G26" s="18">
-        <v>43104</v>
-      </c>
-      <c r="H26" s="18">
-        <v>43105</v>
-      </c>
-      <c r="I26" s="18">
-        <v>43108</v>
-      </c>
-      <c r="J26" s="18">
-        <v>43109</v>
-      </c>
-      <c r="K26" s="18">
-        <v>43110</v>
-      </c>
-      <c r="L26" s="18">
-        <v>43111</v>
-      </c>
-      <c r="M26" s="18">
-        <v>43112</v>
-      </c>
-      <c r="N26" s="18">
-        <v>43115</v>
-      </c>
-      <c r="O26" s="18">
-        <v>43116</v>
-      </c>
-      <c r="P26" s="18">
-        <v>43117</v>
-      </c>
-      <c r="Q26" s="18">
-        <v>43118</v>
-      </c>
-      <c r="R26" s="18">
-        <v>43119</v>
-      </c>
-      <c r="S26" s="18">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-    </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q28" s="24">
-        <v>10.9</v>
-      </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2345,7 +2346,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,23 +2362,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>113</v>
+      <c r="B5" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>114</v>
+      <c r="B6" s="27" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,15 +2386,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>121</v>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2410,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2418,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,15 +2426,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>117</v>
+      <c r="B13" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2450,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2458,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="188">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(81-90)</t>
-  </si>
-  <si>
-    <t>10
 (91-100)</t>
   </si>
   <si>
@@ -198,14 +194,6 @@
   <si>
     <t>10
 (445-454)</t>
-  </si>
-  <si>
-    <t>10
-(455-464)</t>
-  </si>
-  <si>
-    <t>10
-(465-474)</t>
   </si>
   <si>
     <t>10
@@ -722,6 +710,21 @@
   <si>
     <t>10 (71)
 (71-80)</t>
+  </si>
+  <si>
+    <t>10 (455)
+(455-464)</t>
+  </si>
+  <si>
+    <t>10 (81)
+(81-90)</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>10 (466)
+(465-474)</t>
   </si>
 </sst>
 </file>
@@ -916,13 +919,15 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -969,8 +974,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1292,1035 +1296,1019 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="18.5703125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <v>43011</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>43012</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>43013</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>43014</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>43017</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <v>43018</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <v>43019</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <v>43020</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <v>43021</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="9">
         <v>43024</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="9">
         <v>43025</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <v>43026</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="9">
         <v>43027</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="9">
         <v>43028</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="9">
         <v>43031</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="9">
         <v>43032</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="9">
         <v>43033</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="9">
         <v>43034</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="F4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18">
+        <v>43020</v>
+      </c>
+      <c r="C8" s="18">
+        <v>43021</v>
+      </c>
+      <c r="D8" s="18">
+        <v>43024</v>
+      </c>
+      <c r="E8" s="18">
+        <v>43025</v>
+      </c>
+      <c r="F8" s="18">
+        <v>43026</v>
+      </c>
+      <c r="G8" s="18">
+        <v>43027</v>
+      </c>
+      <c r="H8" s="18">
+        <v>43028</v>
+      </c>
+      <c r="I8" s="18">
+        <v>43031</v>
+      </c>
+      <c r="J8" s="18">
+        <v>43032</v>
+      </c>
+      <c r="K8" s="28">
+        <v>43033</v>
+      </c>
+      <c r="L8" s="19">
+        <v>43034</v>
+      </c>
+      <c r="M8" s="19">
+        <v>43035</v>
+      </c>
+      <c r="N8" s="19">
+        <v>43038</v>
+      </c>
+      <c r="O8" s="19">
+        <v>43039</v>
+      </c>
+      <c r="P8" s="19">
+        <v>43040</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>43041</v>
+      </c>
+      <c r="R8" s="19">
+        <v>43042</v>
+      </c>
+      <c r="S8" s="19">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="23">
+        <v>4</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="19">
+        <v>43046</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43047</v>
+      </c>
+      <c r="D14" s="19">
+        <v>43048</v>
+      </c>
+      <c r="E14" s="19">
+        <v>43049</v>
+      </c>
+      <c r="F14" s="19">
+        <v>43052</v>
+      </c>
+      <c r="G14" s="19">
+        <v>43053</v>
+      </c>
+      <c r="H14" s="19">
+        <v>43054</v>
+      </c>
+      <c r="I14" s="19">
+        <v>43055</v>
+      </c>
+      <c r="J14" s="19">
+        <v>43056</v>
+      </c>
+      <c r="K14" s="19">
+        <v>43059</v>
+      </c>
+      <c r="L14" s="19">
+        <v>43060</v>
+      </c>
+      <c r="M14" s="19">
+        <v>43061</v>
+      </c>
+      <c r="N14" s="19">
+        <v>43062</v>
+      </c>
+      <c r="O14" s="19">
+        <v>43063</v>
+      </c>
+      <c r="P14" s="19">
+        <v>43066</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>43067</v>
+      </c>
+      <c r="R14" s="19">
+        <v>43068</v>
+      </c>
+      <c r="S14" s="19">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="25">
         <v>8</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="C17" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="D17" s="25">
+        <v>9</v>
+      </c>
+      <c r="E17" s="25">
+        <v>9</v>
+      </c>
+      <c r="F17" s="25">
+        <v>9</v>
+      </c>
+      <c r="G17" s="25">
+        <v>9</v>
+      </c>
+      <c r="H17" s="25">
+        <v>10</v>
+      </c>
+      <c r="I17" s="25">
+        <v>10</v>
+      </c>
+      <c r="J17" s="25">
+        <v>11</v>
+      </c>
+      <c r="K17" s="25">
+        <v>12</v>
+      </c>
+      <c r="L17" s="25">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>43020</v>
-      </c>
-      <c r="C8" s="16">
-        <v>43021</v>
-      </c>
-      <c r="D8" s="16">
-        <v>43024</v>
-      </c>
-      <c r="E8" s="16">
-        <v>43025</v>
-      </c>
-      <c r="F8" s="16">
-        <v>43026</v>
-      </c>
-      <c r="G8" s="16">
-        <v>43027</v>
-      </c>
-      <c r="H8" s="16">
-        <v>43028</v>
-      </c>
-      <c r="I8" s="16">
-        <v>43031</v>
-      </c>
-      <c r="J8" s="17">
-        <v>43032</v>
-      </c>
-      <c r="K8" s="17">
-        <v>43033</v>
-      </c>
-      <c r="L8" s="17">
-        <v>43034</v>
-      </c>
-      <c r="M8" s="17">
-        <v>43035</v>
-      </c>
-      <c r="N8" s="17">
-        <v>43038</v>
-      </c>
-      <c r="O8" s="17">
-        <v>43039</v>
-      </c>
-      <c r="P8" s="17">
-        <v>43040</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>43041</v>
-      </c>
-      <c r="R8" s="17">
-        <v>43042</v>
-      </c>
-      <c r="S8" s="17">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="M17" s="25">
+        <v>13</v>
+      </c>
+      <c r="N17" s="25">
+        <v>13</v>
+      </c>
+      <c r="O17" s="25">
+        <v>13</v>
+      </c>
+      <c r="P17" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19">
+        <v>43070</v>
+      </c>
+      <c r="C20" s="19">
+        <v>43073</v>
+      </c>
+      <c r="D20" s="19">
+        <v>43074</v>
+      </c>
+      <c r="E20" s="19">
+        <v>43075</v>
+      </c>
+      <c r="F20" s="19">
+        <v>43076</v>
+      </c>
+      <c r="G20" s="19">
+        <v>43077</v>
+      </c>
+      <c r="H20" s="19">
+        <v>43080</v>
+      </c>
+      <c r="I20" s="19">
+        <v>43081</v>
+      </c>
+      <c r="J20" s="19">
+        <v>43082</v>
+      </c>
+      <c r="K20" s="19">
+        <v>43083</v>
+      </c>
+      <c r="L20" s="19">
+        <v>43084</v>
+      </c>
+      <c r="M20" s="19">
+        <v>43087</v>
+      </c>
+      <c r="N20" s="19">
+        <v>43088</v>
+      </c>
+      <c r="O20" s="19">
+        <v>43089</v>
+      </c>
+      <c r="P20" s="19">
+        <v>43090</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>43091</v>
+      </c>
+      <c r="R20" s="19">
+        <v>43094</v>
+      </c>
+      <c r="S20" s="19">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="S22" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21">
-        <v>2</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="21">
-        <v>4</v>
-      </c>
-      <c r="I11" s="22">
-        <v>4</v>
-      </c>
-      <c r="J11" s="23">
-        <v>5</v>
-      </c>
-      <c r="K11" s="23">
-        <v>5</v>
-      </c>
-      <c r="L11" s="23">
-        <v>5</v>
-      </c>
-      <c r="M11" s="23">
-        <v>5</v>
-      </c>
-      <c r="N11" s="23">
-        <v>6</v>
-      </c>
-      <c r="O11" s="23">
-        <v>7</v>
-      </c>
-      <c r="P11" s="23">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>7</v>
-      </c>
-      <c r="R11" s="23">
-        <v>8</v>
-      </c>
-      <c r="S11" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17">
-        <v>43046</v>
-      </c>
-      <c r="C14" s="17">
-        <v>43047</v>
-      </c>
-      <c r="D14" s="17">
-        <v>43048</v>
-      </c>
-      <c r="E14" s="17">
-        <v>43049</v>
-      </c>
-      <c r="F14" s="17">
-        <v>43052</v>
-      </c>
-      <c r="G14" s="17">
-        <v>43053</v>
-      </c>
-      <c r="H14" s="17">
-        <v>43054</v>
-      </c>
-      <c r="I14" s="17">
-        <v>43055</v>
-      </c>
-      <c r="J14" s="17">
-        <v>43056</v>
-      </c>
-      <c r="K14" s="17">
-        <v>43059</v>
-      </c>
-      <c r="L14" s="17">
-        <v>43060</v>
-      </c>
-      <c r="M14" s="17">
-        <v>43061</v>
-      </c>
-      <c r="N14" s="17">
-        <v>43062</v>
-      </c>
-      <c r="O14" s="17">
-        <v>43063</v>
-      </c>
-      <c r="P14" s="17">
-        <v>43066</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>43067</v>
-      </c>
-      <c r="R14" s="17">
-        <v>43068</v>
-      </c>
-      <c r="S14" s="17">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H24" s="27"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="19">
+        <v>43097</v>
+      </c>
+      <c r="D26" s="19">
+        <v>43098</v>
+      </c>
+      <c r="E26" s="19">
+        <v>43102</v>
+      </c>
+      <c r="F26" s="19">
+        <v>43103</v>
+      </c>
+      <c r="G26" s="19">
+        <v>43104</v>
+      </c>
+      <c r="H26" s="19">
+        <v>43105</v>
+      </c>
+      <c r="I26" s="19">
+        <v>43108</v>
+      </c>
+      <c r="J26" s="19">
+        <v>43109</v>
+      </c>
+      <c r="K26" s="19">
+        <v>43110</v>
+      </c>
+      <c r="L26" s="19">
+        <v>43111</v>
+      </c>
+      <c r="M26" s="19">
+        <v>43112</v>
+      </c>
+      <c r="N26" s="19">
+        <v>43115</v>
+      </c>
+      <c r="O26" s="19">
+        <v>43116</v>
+      </c>
+      <c r="P26" s="19">
+        <v>43117</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>43118</v>
+      </c>
+      <c r="R26" s="19">
+        <v>43119</v>
+      </c>
+      <c r="S26" s="19">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="23" t="s">
+      <c r="B27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>10.9</v>
+      </c>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="23">
-        <v>8</v>
-      </c>
-      <c r="C17" s="23">
-        <v>9</v>
-      </c>
-      <c r="D17" s="23">
-        <v>9</v>
-      </c>
-      <c r="E17" s="23">
-        <v>9</v>
-      </c>
-      <c r="F17" s="23">
-        <v>9</v>
-      </c>
-      <c r="G17" s="23">
-        <v>9</v>
-      </c>
-      <c r="H17" s="23">
-        <v>10</v>
-      </c>
-      <c r="I17" s="23">
-        <v>10</v>
-      </c>
-      <c r="J17" s="23">
-        <v>11</v>
-      </c>
-      <c r="K17" s="23">
-        <v>12</v>
-      </c>
-      <c r="L17" s="23">
-        <v>13</v>
-      </c>
-      <c r="M17" s="23">
-        <v>13</v>
-      </c>
-      <c r="N17" s="23">
-        <v>13</v>
-      </c>
-      <c r="O17" s="23">
-        <v>13</v>
-      </c>
-      <c r="P17" s="23">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17">
-        <v>43070</v>
-      </c>
-      <c r="C20" s="17">
-        <v>43073</v>
-      </c>
-      <c r="D20" s="17">
-        <v>43074</v>
-      </c>
-      <c r="E20" s="17">
-        <v>43075</v>
-      </c>
-      <c r="F20" s="17">
-        <v>43076</v>
-      </c>
-      <c r="G20" s="17">
-        <v>43077</v>
-      </c>
-      <c r="H20" s="17">
-        <v>43080</v>
-      </c>
-      <c r="I20" s="17">
-        <v>43081</v>
-      </c>
-      <c r="J20" s="17">
-        <v>43082</v>
-      </c>
-      <c r="K20" s="17">
-        <v>43083</v>
-      </c>
-      <c r="L20" s="17">
-        <v>43084</v>
-      </c>
-      <c r="M20" s="17">
-        <v>43087</v>
-      </c>
-      <c r="N20" s="17">
-        <v>43088</v>
-      </c>
-      <c r="O20" s="17">
-        <v>43089</v>
-      </c>
-      <c r="P20" s="17">
-        <v>43090</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>43091</v>
-      </c>
-      <c r="R20" s="17">
-        <v>43094</v>
-      </c>
-      <c r="S20" s="17">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="25"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17">
-        <v>43096</v>
-      </c>
-      <c r="C26" s="17">
-        <v>43097</v>
-      </c>
-      <c r="D26" s="17">
-        <v>43098</v>
-      </c>
-      <c r="E26" s="17">
-        <v>43102</v>
-      </c>
-      <c r="F26" s="17">
-        <v>43103</v>
-      </c>
-      <c r="G26" s="17">
-        <v>43104</v>
-      </c>
-      <c r="H26" s="17">
-        <v>43105</v>
-      </c>
-      <c r="I26" s="17">
-        <v>43108</v>
-      </c>
-      <c r="J26" s="17">
-        <v>43109</v>
-      </c>
-      <c r="K26" s="17">
-        <v>43110</v>
-      </c>
-      <c r="L26" s="17">
-        <v>43111</v>
-      </c>
-      <c r="M26" s="17">
-        <v>43112</v>
-      </c>
-      <c r="N26" s="17">
-        <v>43115</v>
-      </c>
-      <c r="O26" s="17">
-        <v>43116</v>
-      </c>
-      <c r="P26" s="17">
-        <v>43117</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>43118</v>
-      </c>
-      <c r="R26" s="17">
-        <v>43119</v>
-      </c>
-      <c r="S26" s="17">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-    </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>10.9</v>
-      </c>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2346,7 +2334,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2362,23 +2350,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>111</v>
+      <c r="B5" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>112</v>
+      <c r="B6" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2454,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -197,10 +197,6 @@
   </si>
   <si>
     <t>10
-(475-484)</t>
-  </si>
-  <si>
-    <t>10
 (485-494)</t>
   </si>
   <si>
@@ -725,6 +721,10 @@
   <si>
     <t>10 (466)
 (465-474)</t>
+  </si>
+  <si>
+    <t>10 (477)
+(475-484)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +925,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -949,6 +955,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -974,7 +981,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1297,7 +1306,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,43 +1390,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1434,16 +1443,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1514,31 +1523,31 @@
       <c r="J8" s="18">
         <v>43032</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="18">
         <v>43033</v>
       </c>
       <c r="L8" s="19">
         <v>43034</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="20">
         <v>43035</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="20">
         <v>43038</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="20">
         <v>43039</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="20">
         <v>43040</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="20">
         <v>43041</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="20">
         <v>43042</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="20">
         <v>43045</v>
       </c>
     </row>
@@ -1546,217 +1555,217 @@
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="G9" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>184</v>
+      <c r="J9" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="K9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="M9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="N9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="O9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="P9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="Q9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="R9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="S9" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="25" t="s">
+      <c r="K10" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="23">
+        <v>124</v>
+      </c>
+      <c r="B11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="G11" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="24">
         <v>4</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>186</v>
+      <c r="I11" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>43046</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="20">
         <v>43047</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>43048</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>43049</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>43052</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <v>43053</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="20">
         <v>43054</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="20">
         <v>43055</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="20">
         <v>43056</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="20">
         <v>43059</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="20">
         <v>43060</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="20">
         <v>43061</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="20">
         <v>43062</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="20">
         <v>43063</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="20">
         <v>43066</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="20">
         <v>43067</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="20">
         <v>43068</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="20">
         <v>43069</v>
       </c>
     </row>
@@ -1764,227 +1773,227 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="I15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="J15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="K15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="L15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="M15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="N15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="O15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="P15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="Q15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="R15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="S15" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="25" t="s">
-        <v>124</v>
+      <c r="S16" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="25">
+        <v>124</v>
+      </c>
+      <c r="B17" s="26">
         <v>8</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <v>9</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>9</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="26">
         <v>9</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="26">
         <v>9</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="26">
         <v>9</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="26">
         <v>10</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <v>10</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <v>11</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="26">
         <v>12</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="26">
         <v>13</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="26">
         <v>13</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="26">
         <v>13</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="26">
         <v>13</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="26">
         <v>13</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="19">
+      <c r="B20" s="20">
         <v>43070</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>43073</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="20">
         <v>43074</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="20">
         <v>43075</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="20">
         <v>43076</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="20">
         <v>43077</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="20">
         <v>43080</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="20">
         <v>43081</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="20">
         <v>43082</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="20">
         <v>43083</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="20">
         <v>43084</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="20">
         <v>43087</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="20">
         <v>43088</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="20">
         <v>43089</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="20">
         <v>43090</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="20">
         <v>43091</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="20">
         <v>43094</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="20">
         <v>43095</v>
       </c>
     </row>
@@ -1992,202 +2001,202 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="G21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="I21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="J21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="K21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="L21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="M21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="N21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="O21" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="P21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="Q21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="R21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="S21" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="J22" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="K22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="L22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="M22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="N22" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="O22" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="P22" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="Q22" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="R22" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="S22" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>43096</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="20">
         <v>43097</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <v>43098</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="20">
         <v>43102</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="20">
         <v>43103</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="20">
         <v>43104</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="20">
         <v>43105</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="20">
         <v>43108</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="20">
         <v>43109</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="20">
         <v>43110</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="20">
         <v>43111</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="20">
         <v>43112</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="20">
         <v>43115</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="20">
         <v>43116</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="20">
         <v>43117</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="20">
         <v>43118</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="20">
         <v>43119</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="20">
         <v>43122</v>
       </c>
     </row>
@@ -2195,120 +2204,120 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="I27" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="J27" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="E28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="G28" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="H28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="I28" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="J28" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="K28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="L28" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="M28" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="N28" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="O28" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="P28" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="P28" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="26">
         <v>10.9</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
+        <v>126</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,7 +2343,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2367,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2407,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2447,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2455,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(91-100)</t>
-  </si>
-  <si>
-    <t>10
 (101-110)</t>
   </si>
   <si>
@@ -725,6 +721,10 @@
   <si>
     <t>10 (477)
 (475-484)</t>
+  </si>
+  <si>
+    <t>10 (99)
+(91-100)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,12 +855,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +919,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -979,9 +973,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,7 +1297,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,43 +1381,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1443,16 +1434,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1461,37 +1452,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1556,58 +1547,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>166</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="23" t="s">
+      <c r="N9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="P9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="Q9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="R9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="S9" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1615,63 +1606,63 @@
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>179</v>
-      </c>
       <c r="I10" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="29" t="s">
+      <c r="K10" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="N10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="O10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="P10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="Q10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="R10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="S10" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="24">
         <v>1</v>
@@ -1680,28 +1671,28 @@
         <v>2</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>168</v>
-      </c>
       <c r="G11" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="24">
         <v>4</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="26"/>
@@ -1774,58 +1765,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="J15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="L15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="M15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="N15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="O15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="P15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="Q15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="R15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="S15" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1833,63 +1824,63 @@
         <v>2</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="I16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="L16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="M16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="N16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="Q16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="R16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="26" t="s">
-        <v>39</v>
-      </c>
       <c r="S16" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="26">
         <v>8</v>
@@ -2002,122 +1993,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="J21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="M21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="N21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="O21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="P21" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="Q21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="R21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="S21" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="Q22" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="R22" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="S22" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -2126,7 +2117,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -2205,31 +2196,31 @@
         <v>3</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="G27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="I27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="J27" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -2243,52 +2234,52 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="G28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="L28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="N28" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="O28" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="P28" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="Q28" s="26">
         <v>10.9</v>
@@ -2298,7 +2289,7 @@
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -2343,7 +2334,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2350,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2454,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="189">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(101-110)</t>
-  </si>
-  <si>
-    <t>10
 (111-120)</t>
   </si>
   <si>
@@ -725,6 +721,13 @@
   <si>
     <t>10 (99)
 (91-100)</t>
+  </si>
+  <si>
+    <t>10 (107)
+(101-110)</t>
+  </si>
+  <si>
+    <t>Create tests</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,9 +963,6 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -973,6 +979,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,7 +1306,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,43 +1390,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1434,16 +1443,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1452,37 +1461,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1517,10 +1526,10 @@
       <c r="K8" s="18">
         <v>43033</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <v>43034</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>43035</v>
       </c>
       <c r="N8" s="20">
@@ -1547,161 +1556,165 @@
         <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>165</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="23" t="s">
+      <c r="N9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="P9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="Q9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="R9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="S9" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="25" t="s">
+      <c r="K10" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="Q10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="R10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="S10" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="24">
+        <v>122</v>
+      </c>
+      <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="G11" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="23">
         <v>4</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="I11" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -1764,172 +1777,172 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="N15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="O15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="P15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="Q15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="R15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="S15" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="N16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="P16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="Q16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="R16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="26" t="s">
-        <v>122</v>
+      <c r="S16" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="26">
+        <v>122</v>
+      </c>
+      <c r="B17" s="25">
         <v>8</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>9</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>9</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>9</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>9</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>9</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>10</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>10</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>11</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>12</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>13</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>13</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>13</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <v>13</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>13</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -1992,147 +2005,147 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="M21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="N21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="O21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="P21" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="Q21" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="R21" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="S21" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="Q22" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="R22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="S22" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="28"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2195,120 +2208,120 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="I27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="J27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="G28" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="L28" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="N28" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="O28" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="P28" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="P28" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="25">
         <v>10.9</v>
       </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,7 +2347,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2395,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2411,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2443,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -727,7 +727,7 @@
 (101-110)</t>
   </si>
   <si>
-    <t>Create tests</t>
+    <t>Finishing repos</t>
   </si>
 </sst>
 </file>
@@ -963,6 +963,9 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -979,9 +982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,7 +1306,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,28 +1585,28 @@
       <c r="K9" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1614,58 +1614,58 @@
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1673,48 +1673,48 @@
       <c r="A11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="24">
         <v>4</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -1777,58 +1777,58 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1836,58 +1836,58 @@
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="26" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1895,54 +1895,54 @@
       <c r="A17" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>8</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <v>9</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>9</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="26">
         <v>9</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="26">
         <v>9</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="26">
         <v>9</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="26">
         <v>10</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <v>10</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <v>11</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="26">
         <v>12</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="26">
         <v>13</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="26">
         <v>13</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="26">
         <v>13</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="26">
         <v>13</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="26">
         <v>13</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -2005,58 +2005,58 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="Q21" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="S21" s="23" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2064,58 +2064,58 @@
       <c r="A22" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="26" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2123,29 +2123,29 @@
       <c r="A23" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2208,120 +2208,120 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="P28" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="26">
         <v>10.9</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -189,10 +189,6 @@
   </si>
   <si>
     <t>10
-(485-494)</t>
-  </si>
-  <si>
-    <t>10
 (495-504)</t>
   </si>
   <si>
@@ -728,6 +724,10 @@
   </si>
   <si>
     <t>Finishing repos</t>
+  </si>
+  <si>
+    <t>10 (489)
+(485-494)</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,12 +858,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,9 +957,6 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -982,6 +973,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,7 +1300,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,43 +1384,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1443,16 +1437,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1529,10 +1523,10 @@
       <c r="L8" s="18">
         <v>43034</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <v>43035</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>43038</v>
       </c>
       <c r="O8" s="20">
@@ -1556,165 +1550,165 @@
         <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>164</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>172</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K9" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="P9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="Q9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="R9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="S9" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="24" t="s">
+      <c r="K10" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="24">
+        <v>121</v>
+      </c>
+      <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="G11" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="23">
         <v>4</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="I11" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -1777,172 +1771,172 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="N15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="O15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="P15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="Q15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="R15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="S15" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="26" t="s">
-        <v>121</v>
+      <c r="S16" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="26">
+        <v>121</v>
+      </c>
+      <c r="B17" s="25">
         <v>8</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>9</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>9</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>9</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>9</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>9</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>10</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>10</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>11</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>12</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>13</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>13</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>13</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <v>13</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>13</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -2005,147 +1999,147 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="M21" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="N21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="O21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="P21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="Q21" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="R21" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="S21" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="Q22" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="R22" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="S22" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="28"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2208,120 +2202,120 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="I27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="J27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="G28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="L28" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="N28" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="O28" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="P28" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="P28" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="25">
         <v>10.9</v>
       </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2347,7 +2341,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2355,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2363,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2371,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2379,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2387,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2395,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2403,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2419,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2427,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2435,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2443,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2451,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2459,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(111-120)</t>
-  </si>
-  <si>
-    <t>10
 (121-130)</t>
   </si>
   <si>
@@ -186,10 +182,6 @@
   <si>
     <t>10
 (445-454)</t>
-  </si>
-  <si>
-    <t>10
-(495-504)</t>
   </si>
   <si>
     <t>10
@@ -728,6 +720,14 @@
   <si>
     <t>10 (489)
 (485-494)</t>
+  </si>
+  <si>
+    <t>10(497)
+(495-504)</t>
+  </si>
+  <si>
+    <t>10(111)
+(111-120)</t>
   </si>
 </sst>
 </file>
@@ -957,6 +957,9 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -973,9 +976,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,7 +1300,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,43 +1384,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1455,37 +1455,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1550,165 +1550,165 @@
         <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>170</v>
-      </c>
       <c r="F9" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="H9" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="N9" s="22" t="s">
+      <c r="P9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="Q9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="R9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="S9" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>185</v>
+      <c r="L10" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N10" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="P10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="Q10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="R10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="S10" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="23">
+        <v>119</v>
+      </c>
+      <c r="B11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="D11" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="24">
         <v>4</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>187</v>
+      <c r="I11" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -1771,172 +1771,172 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="I15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="J15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="K15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="L15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="M15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="N15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="O15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="P15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="Q15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="R15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="S15" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="K16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="L16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="M16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="N16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="O16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="P16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="Q16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="R16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>120</v>
+      <c r="S16" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="25">
+        <v>119</v>
+      </c>
+      <c r="B17" s="26">
         <v>8</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <v>9</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>9</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="26">
         <v>9</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="26">
         <v>9</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="26">
         <v>9</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="26">
         <v>10</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <v>10</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <v>11</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="26">
         <v>12</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="26">
         <v>13</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="26">
         <v>13</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="26">
         <v>13</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="26">
         <v>13</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="26">
         <v>13</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -1999,147 +1999,147 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="G21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="I21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="J21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="K21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="L21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="M21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="N21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="O21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="P21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="Q21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="R21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="S21" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="G22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="H22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="J22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="K22" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="L22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="M22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="N22" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="O22" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="P22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="Q22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="R22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="S22" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
+        <v>122</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2202,120 +2202,120 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="H27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="I27" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="J27" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="E28" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="G28" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="H28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="I28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="J28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="K28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="L28" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="M28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="N28" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="O28" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="P28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="O28" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="26">
         <v>10.9</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,7 +2341,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -15,7 +15,7 @@
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
     <sheet name="App plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="191">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(121-130)</t>
-  </si>
-  <si>
-    <t>10
 (131-140)</t>
   </si>
   <si>
@@ -182,10 +178,6 @@
   <si>
     <t>10
 (445-454)</t>
-  </si>
-  <si>
-    <t>10
-(505-514)</t>
   </si>
   <si>
     <t>10
@@ -728,6 +720,20 @@
   <si>
     <t>10(111)
 (111-120)</t>
+  </si>
+  <si>
+    <t>10 (508)
+(505-514)</t>
+  </si>
+  <si>
+    <t>10 (121)
+(121-130)</t>
+  </si>
+  <si>
+    <t>GeneralUserInformationViewModel</t>
+  </si>
+  <si>
+    <t>EF and UnitTestings</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1306,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,43 +1390,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1437,16 +1443,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1455,37 +1461,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1526,10 +1532,10 @@
       <c r="M8" s="18">
         <v>43035</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <v>43038</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>43039</v>
       </c>
       <c r="P8" s="20">
@@ -1550,58 +1556,58 @@
         <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>168</v>
-      </c>
       <c r="F9" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>171</v>
-      </c>
       <c r="H9" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="O9" s="23" t="s">
+      <c r="Q9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="R9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="S9" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1609,63 +1615,63 @@
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>167</v>
-      </c>
       <c r="F10" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>176</v>
-      </c>
       <c r="J10" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="24" t="s">
-        <v>179</v>
-      </c>
       <c r="L10" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="N10" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="P10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="Q10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="R10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="S10" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="24">
         <v>1</v>
@@ -1674,37 +1680,41 @@
         <v>2</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H11" s="24">
         <v>4</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
+        <v>183</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>190</v>
+      </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
@@ -1772,58 +1782,58 @@
         <v>3</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="I15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="J15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="L15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="M15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="N15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="O15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="P15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="Q15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="R15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="S15" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1831,63 +1841,63 @@
         <v>2</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="I16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="L16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="M16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="N16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="Q16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="R16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="26" t="s">
-        <v>36</v>
-      </c>
       <c r="S16" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="26">
         <v>8</v>
@@ -2000,122 +2010,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="I21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="J21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="L21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="M21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="N21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="O21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="P21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="Q21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="R21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="S21" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="F22" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="G22" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="H22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="I22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="J22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="K22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="L22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="M22" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="N22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="O22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="P22" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="Q22" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="R22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="S22" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -2124,7 +2134,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -2203,31 +2213,31 @@
         <v>3</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="F27" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="G27" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="I27" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="J27" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -2241,52 +2251,52 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="F28" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="G28" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="H28" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="I28" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="J28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="K28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="L28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="M28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="N28" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="O28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="P28" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="Q28" s="26">
         <v>10.9</v>
@@ -2296,7 +2306,7 @@
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -2341,7 +2351,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2383,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2399,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,7 +2415,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2423,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2431,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2439,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2455,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2471,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="192">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(131-140)</t>
-  </si>
-  <si>
-    <t>10
 (141-150)</t>
   </si>
   <si>
@@ -734,6 +730,13 @@
   </si>
   <si>
     <t>EF and UnitTestings</t>
+  </si>
+  <si>
+    <t>10 (139)
+(131-140)</t>
+  </si>
+  <si>
+    <t>UnitTests</t>
   </si>
 </sst>
 </file>
@@ -808,7 +811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +867,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,12 +973,8 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="8" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,6 +995,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1306,7 +1321,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,43 +1405,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1443,16 +1458,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1461,37 +1476,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1535,19 +1550,19 @@
       <c r="N8" s="18">
         <v>43038</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <v>43039</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="28">
         <v>43040</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>43041</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>43042</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="19">
         <v>43045</v>
       </c>
     </row>
@@ -1555,225 +1570,227 @@
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="G9" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="P9" s="23" t="s">
+      <c r="Q9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="R9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="S9" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" s="24" t="s">
+      <c r="K10" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="P10" s="26" t="s">
+      <c r="N10" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="R10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="S10" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="24">
+        <v>116</v>
+      </c>
+      <c r="B11" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="G11" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="22">
         <v>4</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="N11" s="24" t="s">
+      <c r="I11" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="O11" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="P11" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>43046</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>43047</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>43048</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>43049</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>43052</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>43053</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>43054</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>43055</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>43056</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>43059</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>43060</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>43061</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>43062</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <v>43063</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <v>43066</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <v>43067</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <v>43068</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <v>43069</v>
       </c>
     </row>
@@ -1781,227 +1798,227 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="L15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="M15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="N15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="O15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="P15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="Q15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="R15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="S15" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="I16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="L16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="M16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="N16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="P16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="Q16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="R16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="26" t="s">
-        <v>116</v>
+      <c r="S16" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="26">
+        <v>116</v>
+      </c>
+      <c r="B17" s="24">
         <v>8</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>9</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>9</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>9</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>9</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="24">
         <v>9</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="24">
         <v>10</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="24">
         <v>10</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <v>11</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>12</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>13</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="24">
         <v>13</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="24">
         <v>13</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="24">
         <v>13</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="24">
         <v>13</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>43070</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>43073</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>43074</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>43075</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <v>43076</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>43077</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>43080</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>43081</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <v>43082</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <v>43083</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <v>43084</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <v>43087</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <v>43088</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <v>43089</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="19">
         <v>43090</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="19">
         <v>43091</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <v>43094</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="19">
         <v>43095</v>
       </c>
     </row>
@@ -2009,202 +2026,202 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="J21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="M21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="N21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="O21" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="P21" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="Q21" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="R21" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="S21" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="Q22" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="R22" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="S22" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="28"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>43096</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>43097</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>43098</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>43102</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>43103</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>43104</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>43105</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <v>43108</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <v>43109</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <v>43110</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="19">
         <v>43111</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="19">
         <v>43112</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="19">
         <v>43115</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="19">
         <v>43116</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="19">
         <v>43117</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="19">
         <v>43118</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="19">
         <v>43119</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="19">
         <v>43122</v>
       </c>
     </row>
@@ -2212,120 +2229,120 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="G27" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="I27" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="J27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="G28" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="L28" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="N28" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="O28" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="P28" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="24">
         <v>10.9</v>
       </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
+        <v>118</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,7 +2368,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2400,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2416,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2424,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,7 +2432,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2440,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2464,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2488,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="194">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(141-150)</t>
-  </si>
-  <si>
-    <t>10
 (151-160)</t>
   </si>
   <si>
@@ -178,10 +174,6 @@
   <si>
     <t>10
 (515-524)</t>
-  </si>
-  <si>
-    <t>10
-(525-534)</t>
   </si>
   <si>
     <t>10
@@ -737,6 +729,20 @@
   </si>
   <si>
     <t>UnitTests</t>
+  </si>
+  <si>
+    <t>10(531)
+(525-534)</t>
+  </si>
+  <si>
+    <t>10(141)
+(141-150)</t>
+  </si>
+  <si>
+    <t>UnitTesting</t>
+  </si>
+  <si>
+    <t>Authentication</t>
   </si>
 </sst>
 </file>
@@ -811,7 +817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,12 +873,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +943,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -973,6 +973,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -995,10 +996,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1320,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,43 +1411,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1458,16 +1464,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1476,37 +1482,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1553,16 +1559,16 @@
       <c r="O8" s="18">
         <v>43039</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="18">
         <v>43040</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <v>43041</v>
       </c>
       <c r="R8" s="19">
         <v>43042</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="20">
         <v>43045</v>
       </c>
     </row>
@@ -1570,227 +1576,231 @@
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="27" t="s">
+      <c r="Q9" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="S9" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="N10" s="22" t="s">
+      <c r="L10" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>187</v>
-      </c>
       <c r="P10" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="R10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="S10" s="25" t="s">
         <v>16</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="22">
+        <v>114</v>
+      </c>
+      <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="D11" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="23">
         <v>4</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="O11" s="22" t="s">
+      <c r="I11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="P11" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
+      <c r="Q11" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S11" s="25"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>43046</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="20">
         <v>43047</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>43048</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>43049</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>43052</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <v>43053</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="20">
         <v>43054</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="20">
         <v>43055</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="20">
         <v>43056</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="20">
         <v>43059</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="20">
         <v>43060</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="20">
         <v>43061</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="20">
         <v>43062</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="20">
         <v>43063</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="20">
         <v>43066</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="20">
         <v>43067</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="20">
         <v>43068</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="20">
         <v>43069</v>
       </c>
     </row>
@@ -1798,227 +1808,227 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="H15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="J15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="K15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="L15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="M15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="N15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="O15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="P15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="Q15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="R15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="S15" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="H16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="I16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="J16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="K16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="L16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="M16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="N16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="O16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="P16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="Q16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="R16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>115</v>
+      <c r="S16" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="24">
+        <v>114</v>
+      </c>
+      <c r="B17" s="25">
         <v>8</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <v>9</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="25">
         <v>9</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="25">
         <v>9</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="25">
         <v>9</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="25">
         <v>9</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="25">
         <v>10</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="25">
         <v>10</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="25">
         <v>11</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="25">
         <v>12</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="25">
         <v>13</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="25">
         <v>13</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="25">
         <v>13</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="25">
         <v>13</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="25">
         <v>13</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="19">
+      <c r="B20" s="20">
         <v>43070</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>43073</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="20">
         <v>43074</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="20">
         <v>43075</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="20">
         <v>43076</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="20">
         <v>43077</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="20">
         <v>43080</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="20">
         <v>43081</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="20">
         <v>43082</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="20">
         <v>43083</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="20">
         <v>43084</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="20">
         <v>43087</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="20">
         <v>43088</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="20">
         <v>43089</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="20">
         <v>43090</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="20">
         <v>43091</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="20">
         <v>43094</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="20">
         <v>43095</v>
       </c>
     </row>
@@ -2026,202 +2036,202 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="H21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="I21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="J21" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="K21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="L21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="M21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="N21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="O21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="P21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="Q21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="R21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="S21" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="R21" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="H22" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="I22" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="J22" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="K22" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="L22" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="M22" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="N22" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="O22" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="P22" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="Q22" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="R22" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="S22" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+        <v>117</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="26"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>43096</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="20">
         <v>43097</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <v>43098</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="20">
         <v>43102</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="20">
         <v>43103</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="20">
         <v>43104</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="20">
         <v>43105</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="20">
         <v>43108</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="20">
         <v>43109</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="20">
         <v>43110</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="20">
         <v>43111</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="20">
         <v>43112</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="20">
         <v>43115</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="20">
         <v>43116</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="20">
         <v>43117</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="20">
         <v>43118</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="20">
         <v>43119</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="20">
         <v>43122</v>
       </c>
     </row>
@@ -2229,120 +2239,120 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="H27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="I27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="J27" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="E28" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="G28" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="H28" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="I28" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="J28" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="K28" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="L28" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="M28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="N28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="O28" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="P28" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="O28" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="25">
         <v>10.9</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
+        <v>116</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,7 +2378,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2442,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2490,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -578,12 +578,6 @@
     <t>(10.3-10.4)</t>
   </si>
   <si>
-    <t>(10.5-10.6)</t>
-  </si>
-  <si>
-    <t>(10.7-10.8)</t>
-  </si>
-  <si>
     <t>10 (380)
 (378-387)</t>
   </si>
@@ -743,6 +737,12 @@
   </si>
   <si>
     <t>Authentication</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>Get current user from cookies</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,8 +882,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -934,6 +940,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -943,7 +962,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -987,6 +1006,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -996,13 +1018,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,10 +1468,10 @@
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1565,10 +1589,10 @@
       <c r="Q8" s="18">
         <v>43041</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="18">
         <v>43042</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="18">
         <v>43045</v>
       </c>
     </row>
@@ -1577,118 +1601,106 @@
         <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>163</v>
-      </c>
       <c r="F9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>166</v>
-      </c>
       <c r="H9" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N9" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>162</v>
-      </c>
       <c r="F10" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="J10" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>174</v>
-      </c>
       <c r="L10" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N10" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="P10" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>16</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -1701,25 +1713,25 @@
         <v>2</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H11" s="23">
         <v>4</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>98</v>
@@ -1728,31 +1740,33 @@
         <v>98</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O11" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="P11" s="23" t="s">
-        <v>189</v>
-      </c>
       <c r="Q11" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="S11" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="R11" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="S11" s="25"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <v>43046</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>43047</v>
       </c>
       <c r="D14" s="20">
@@ -1808,172 +1822,140 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="G15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="H15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="I15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="J15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="K15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="L15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="M15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="N15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="O15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="P15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="Q15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="R15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="S15" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="K16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="L16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="M16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="N16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="O16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="P16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="Q16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="R16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="S16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="25">
-        <v>8</v>
-      </c>
-      <c r="C17" s="25">
-        <v>9</v>
-      </c>
-      <c r="D17" s="25">
-        <v>9</v>
-      </c>
-      <c r="E17" s="25">
-        <v>9</v>
-      </c>
-      <c r="F17" s="25">
-        <v>9</v>
-      </c>
-      <c r="G17" s="25">
-        <v>9</v>
-      </c>
-      <c r="H17" s="25">
-        <v>10</v>
-      </c>
-      <c r="I17" s="25">
-        <v>10</v>
-      </c>
-      <c r="J17" s="25">
-        <v>11</v>
-      </c>
-      <c r="K17" s="25">
-        <v>12</v>
-      </c>
-      <c r="L17" s="25">
-        <v>13</v>
-      </c>
-      <c r="M17" s="25">
-        <v>13</v>
-      </c>
-      <c r="N17" s="25">
-        <v>13</v>
-      </c>
-      <c r="O17" s="25">
-        <v>13</v>
-      </c>
-      <c r="P17" s="25">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+      <c r="B17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -2037,146 +2019,146 @@
         <v>3</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="G21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="H21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="I21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="J21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="K21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="L21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="M21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="N21" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="O21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="P21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="Q21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="R21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="S21" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="H22" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="J22" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="K22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="L22" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="M22" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="N22" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="O22" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="P22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="Q22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="R22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="S22" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2240,119 +2222,131 @@
         <v>3</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="G27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="H27" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="I27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="J27" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="K27" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="L27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="M27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="N27" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="H28" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="I28" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="J28" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="K28" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="L28" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="M28" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="N28" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="O28" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="P28" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="Q28" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="R28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="S28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="O28" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>10.9</v>
-      </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>10
-(535-544)</t>
-  </si>
-  <si>
-    <t>10
 (545-554)</t>
   </si>
   <si>
@@ -743,6 +739,13 @@
   </si>
   <si>
     <t>Get current user from cookies</t>
+  </si>
+  <si>
+    <t>"Remember me" option cookies</t>
+  </si>
+  <si>
+    <t>10(535)
+(535-544)</t>
   </si>
 </sst>
 </file>
@@ -884,7 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +965,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -992,21 +995,23 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,15 +1023,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,43 +1435,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1488,16 +1488,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1600,165 +1600,165 @@
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="G9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="21" t="s">
+      <c r="J9" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="P9" s="31" t="s">
+      <c r="O9" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="23" t="s">
+      <c r="K10" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="N10" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="23">
+        <v>113</v>
+      </c>
+      <c r="B11" s="22">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="G11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="22">
         <v>4</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="N11" s="23" t="s">
+      <c r="I11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q11" s="23" t="s">
+      <c r="P11" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="S11" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1766,55 +1766,55 @@
       <c r="B14" s="18">
         <v>43046</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>43047</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="23">
         <v>43048</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="24">
         <v>43049</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="24">
         <v>43052</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="24">
         <v>43053</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="24">
         <v>43054</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="24">
         <v>43055</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="24">
         <v>43056</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="24">
         <v>43059</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="24">
         <v>43060</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="24">
         <v>43061</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="24">
         <v>43062</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="24">
         <v>43063</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="24">
         <v>43066</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="24">
         <v>43067</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="24">
         <v>43068</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="24">
         <v>43069</v>
       </c>
     </row>
@@ -1822,195 +1822,197 @@
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="I15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="J15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="K15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="L15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="M15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="N15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="O15" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="P15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="Q15" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="R15" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="S15" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="26" t="s">
+      <c r="S16" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="20">
+      <c r="B20" s="24">
         <v>43070</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="24">
         <v>43073</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="24">
         <v>43074</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="24">
         <v>43075</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="24">
         <v>43076</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="24">
         <v>43077</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="24">
         <v>43080</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="24">
         <v>43081</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="24">
         <v>43082</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="24">
         <v>43083</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="24">
         <v>43084</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="24">
         <v>43087</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="24">
         <v>43088</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="24">
         <v>43089</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="24">
         <v>43090</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="24">
         <v>43091</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="24">
         <v>43094</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="24">
         <v>43095</v>
       </c>
     </row>
@@ -2018,202 +2020,202 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="F21" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="G21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="H21" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="I21" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="J21" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="K21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="L21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="M21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="N21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="O21" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="P21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="Q21" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="R21" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="S21" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="F22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="Q22" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="R22" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="S22" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="28"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="20">
+      <c r="B26" s="24">
         <v>43096</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="24">
         <v>43097</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="24">
         <v>43098</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="24">
         <v>43102</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="24">
         <v>43103</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="24">
         <v>43104</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="24">
         <v>43105</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="24">
         <v>43108</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="24">
         <v>43109</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="24">
         <v>43110</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="24">
         <v>43111</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="24">
         <v>43112</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="24">
         <v>43115</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="24">
         <v>43116</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="24">
         <v>43117</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="24">
         <v>43118</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="24">
         <v>43119</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="24">
         <v>43122</v>
       </c>
     </row>
@@ -2221,132 +2223,132 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="G27" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="I27" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="J27" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="K27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="L27" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="M27" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="N27" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="G28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="L28" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="N28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="O28" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="P28" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="26" t="s">
+      <c r="Q28" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="Q28" s="26" t="s">
+      <c r="R28" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="S28" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="S28" s="26" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
+        <v>115</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,7 +2374,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,7 +2422,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +2430,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2438,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2462,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +2478,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2486,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -744,7 +744,7 @@
     <t>"Remember me" option cookies</t>
   </si>
   <si>
-    <t>10(535)
+    <t>10(541)
 (535-544)</t>
   </si>
 </sst>
@@ -1008,10 +1008,16 @@
     <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,12 +1027,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1351,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,52 +1826,52 @@
       <c r="C15" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="S15" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1881,52 +1881,52 @@
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="R16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="S16" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1940,24 +1940,24 @@
       <c r="C17" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -2020,58 +2020,58 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="Q21" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="R21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="26" t="s">
+      <c r="S21" s="27" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2079,58 +2079,58 @@
       <c r="A22" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="P22" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="R22" s="28" t="s">
+      <c r="R22" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="S22" s="28" t="s">
+      <c r="S22" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2138,29 +2138,29 @@
       <c r="A23" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="30"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2223,107 +2223,107 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="26" t="s">
+      <c r="N27" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="N28" s="28" t="s">
+      <c r="N28" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="P28" s="28" t="s">
+      <c r="P28" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="Q28" s="28" t="s">
+      <c r="Q28" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="R28" s="28" t="s">
+      <c r="R28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="S28" s="28" t="s">
+      <c r="S28" s="30" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2331,24 +2331,24 @@
       <c r="A29" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(151-160)</t>
-  </si>
-  <si>
-    <t>10
 (161-170)</t>
   </si>
   <si>
@@ -174,10 +170,6 @@
   <si>
     <t>10
 (515-524)</t>
-  </si>
-  <si>
-    <t>10
-(545-554)</t>
   </si>
   <si>
     <t>10
@@ -746,6 +738,14 @@
   <si>
     <t>10(541)
 (535-544)</t>
+  </si>
+  <si>
+    <t>10(155)
+(151-160)</t>
+  </si>
+  <si>
+    <t>10(547)
+(545-554)</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,12 +882,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +959,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1017,9 +1011,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1027,6 +1018,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1348,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,43 +1432,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1488,16 +1485,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1506,37 +1503,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1601,49 +1598,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>163</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1654,49 +1651,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="F10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>168</v>
-      </c>
       <c r="J10" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>171</v>
-      </c>
       <c r="L10" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N10" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>182</v>
-      </c>
       <c r="P10" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1713,52 +1710,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="Q11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1824,55 +1821,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="F15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="H15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="I15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="J15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="K15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="L15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="M15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="N15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="O15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="P15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="Q15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="R15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="S15" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1881,83 +1878,83 @@
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="J16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="L16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="M16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="N16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="O16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="P16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="30" t="s">
+      <c r="Q16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="30" t="s">
+      <c r="R16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="30" t="s">
+      <c r="S16" s="29" t="s">
         <v>28</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -2021,146 +2018,146 @@
         <v>3</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="E21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="F21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="G21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="H21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="I21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="J21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="K21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="L21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="M21" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="N21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="O21" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="P21" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="Q21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="R21" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="S21" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="J22" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="K22" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="M22" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="N22" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="O22" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="N22" s="30" t="s">
+      <c r="P22" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="O22" s="30" t="s">
+      <c r="Q22" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="R22" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="30" t="s">
+      <c r="S22" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="R22" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+        <v>114</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="32"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2224,131 +2221,131 @@
         <v>3</v>
       </c>
       <c r="B27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="E27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="F27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="G27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="H27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="I27" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="J27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="K27" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="L27" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="M27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="N27" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="F28" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="J28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="K28" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="L28" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="K28" s="30" t="s">
+      <c r="M28" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="N28" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="M28" s="30" t="s">
+      <c r="O28" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="N28" s="30" t="s">
+      <c r="P28" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="30" t="s">
+      <c r="Q28" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="P28" s="30" t="s">
+      <c r="R28" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q28" s="30" t="s">
+      <c r="S28" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="R28" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="S28" s="30" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
+        <v>113</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2374,7 +2371,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2443,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2475,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +2491,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -746,6 +746,9 @@
   <si>
     <t>10(547)
 (545-554)</t>
+  </si>
+  <si>
+    <t>UserCurrentInfo, UserServices correct</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1018,12 +1021,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1766,10 +1763,10 @@
       <c r="C14" s="18">
         <v>43047</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="18">
         <v>43048</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>43049</v>
       </c>
       <c r="F14" s="24">
@@ -1823,7 +1820,7 @@
       <c r="C15" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="19" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -1878,7 +1875,7 @@
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="22" t="s">
         <v>186</v>
       </c>
       <c r="E16" s="28" t="s">
@@ -1937,10 +1934,12 @@
       <c r="C17" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28" t="s">
+        <v>195</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(161-170)</t>
-  </si>
-  <si>
-    <t>10
 (171-180)</t>
   </si>
   <si>
@@ -170,10 +166,6 @@
   <si>
     <t>10
 (515-524)</t>
-  </si>
-  <si>
-    <t>10
-(555-564)</t>
   </si>
   <si>
     <t>10
@@ -749,6 +741,14 @@
   </si>
   <si>
     <t>UserCurrentInfo, UserServices correct</t>
+  </si>
+  <si>
+    <t>10(555)
+(555-564)</t>
+  </si>
+  <si>
+    <t>10(161)
+(161-170)</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1345,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,43 +1429,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1482,16 +1482,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1500,37 +1500,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1595,49 +1595,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>161</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1648,49 +1648,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>157</v>
-      </c>
       <c r="F10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>166</v>
-      </c>
       <c r="J10" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="L10" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N10" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="P10" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1707,52 +1707,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>184</v>
-      </c>
       <c r="Q11" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1766,10 +1766,10 @@
       <c r="D14" s="18">
         <v>43048</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="18">
         <v>43049</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>43052</v>
       </c>
       <c r="G14" s="24">
@@ -1818,55 +1818,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="G15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="I15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="J15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="K15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="L15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="M15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="N15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="O15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="P15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="Q15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="R15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="S15" s="27" t="s">
         <v>47</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1876,71 +1876,71 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="H16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="I16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="J16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="K16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="L16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="M16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="N16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="29" t="s">
+      <c r="O16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="P16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="Q16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="29" t="s">
+      <c r="R16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="S16" s="29" t="s">
         <v>27</v>
-      </c>
-      <c r="S16" s="29" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="29"/>
+        <v>189</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
@@ -2017,122 +2017,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="E21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="F21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="G21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="H21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="I21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="J21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="K21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="L21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="M21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="N21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="O21" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="P21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="Q21" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="R21" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="S21" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="F22" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="J22" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="K22" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="L22" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="M22" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="N22" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="O22" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="P22" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="Q22" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="P22" s="29" t="s">
+      <c r="R22" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="S22" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="S22" s="29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2141,7 +2141,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -2220,43 +2220,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="E27" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="F27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="G27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="H27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="I27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="J27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="K27" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="L27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="M27" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="N27" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>80</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
@@ -2266,66 +2266,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="E28" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="F28" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="G28" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="H28" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="I28" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="J28" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="K28" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="L28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="M28" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="N28" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="O28" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="P28" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="29" t="s">
+      <c r="Q28" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="P28" s="29" t="s">
+      <c r="R28" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="29" t="s">
+      <c r="S28" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -2370,7 +2370,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2474,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -747,7 +747,7 @@
 (555-564)</t>
   </si>
   <si>
-    <t>10(161)
+    <t>10(168)
 (161-170)</t>
   </si>
 </sst>
@@ -1345,7 +1345,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="198">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -90,14 +90,6 @@
   </si>
   <si>
     <t>10
-(171-180)</t>
-  </si>
-  <si>
-    <t>10
-(181-190)</t>
-  </si>
-  <si>
-    <t>10
 (191-200)</t>
   </si>
   <si>
@@ -166,14 +158,6 @@
   <si>
     <t>10
 (515-524)</t>
-  </si>
-  <si>
-    <t>10
-(565-574)</t>
-  </si>
-  <si>
-    <t>10
-(575-584)</t>
   </si>
   <si>
     <t>10
@@ -749,6 +733,28 @@
   <si>
     <t>10(168)
 (161-170)</t>
+  </si>
+  <si>
+    <t>10(565)
+(565-574)</t>
+  </si>
+  <si>
+    <t>10 (
+(171-180)</t>
+  </si>
+  <si>
+    <t>10 (181)
+(181-190)</t>
+  </si>
+  <si>
+    <t>10(575)
+(575-584)</t>
+  </si>
+  <si>
+    <t>Settings page</t>
+  </si>
+  <si>
+    <t>EF</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1005,9 +1011,6 @@
     <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1021,6 +1024,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,7 +1360,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,43 +1444,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1482,16 +1497,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1500,37 +1515,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1595,49 +1610,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>163</v>
-      </c>
       <c r="I9" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>174</v>
-      </c>
       <c r="N9" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1648,49 +1663,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>165</v>
-      </c>
       <c r="K10" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>171</v>
-      </c>
       <c r="M10" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="O10" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1698,7 +1713,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1707,52 +1722,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>151</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P11" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="Q11" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="S11" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1769,13 +1784,13 @@
       <c r="E14" s="18">
         <v>43049</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="18">
         <v>43052</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>43053</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>43054</v>
       </c>
       <c r="I14" s="24">
@@ -1818,55 +1833,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="G15" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="H15" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="L15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="M15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="N15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="O15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="P15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="Q15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="R15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="S15" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1876,84 +1891,88 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="J16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="N16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="O16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="29" t="s">
+      <c r="P16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="Q16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="R16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="29" t="s">
+      <c r="S16" s="28" t="s">
         <v>25</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S16" s="29" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="F17" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -2016,147 +2035,147 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="K21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="L21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="M21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="N21" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="O21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="P21" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="Q21" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="R21" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="S21" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="29" t="s">
+      <c r="H22" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="L22" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="M22" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="N22" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="O22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="P22" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="Q22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="R22" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="S22" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="P22" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S22" s="29" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+        <v>108</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="31"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2219,132 +2238,132 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="K27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="L27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="M27" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="N27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="H28" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="I28" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="J28" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="K28" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="L28" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="M28" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="N28" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="O28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="P28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="Q28" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="R28" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="29" t="s">
+      <c r="S28" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="P28" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+        <v>107</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2370,7 +2389,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -743,10 +743,6 @@
 (171-180)</t>
   </si>
   <si>
-    <t>10 (181)
-(181-190)</t>
-  </si>
-  <si>
     <t>10(575)
 (575-584)</t>
   </si>
@@ -755,6 +751,10 @@
   </si>
   <si>
     <t>EF</t>
+  </si>
+  <si>
+    <t>10 (185)
+(181-190)</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1360,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,7 +1848,7 @@
         <v>192</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>33</v>
@@ -1903,7 +1903,7 @@
         <v>193</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>15</v>
@@ -1956,10 +1956,10 @@
         <v>189</v>
       </c>
       <c r="F17" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>196</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>197</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>10
-(191-200)</t>
-  </si>
-  <si>
-    <t>10
 (201-210)</t>
   </si>
   <si>
@@ -158,10 +154,6 @@
   <si>
     <t>10
 (515-524)</t>
-  </si>
-  <si>
-    <t>10
-(585-594)</t>
   </si>
   <si>
     <t>10
@@ -753,8 +745,16 @@
     <t>EF</t>
   </si>
   <si>
-    <t>10 (185)
+    <t>10(195)
+(191-200)</t>
+  </si>
+  <si>
+    <t>10 
 (181-190)</t>
+  </si>
+  <si>
+    <t>10 (586)
+(585-594)</t>
   </si>
 </sst>
 </file>
@@ -829,7 +829,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,6 +891,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +974,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1036,6 +1042,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1372,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,43 +1456,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1497,16 +1509,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1515,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1610,49 +1622,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>155</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1663,49 +1675,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>151</v>
-      </c>
       <c r="F10" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>160</v>
-      </c>
       <c r="J10" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>163</v>
-      </c>
       <c r="L10" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N10" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>174</v>
-      </c>
       <c r="P10" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1713,7 +1725,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1722,52 +1734,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="Q11" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1790,13 +1802,13 @@
       <c r="G14" s="18">
         <v>43053</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="18">
         <v>43054</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="18">
         <v>43055</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="23">
         <v>43056</v>
       </c>
       <c r="K14" s="24">
@@ -1833,55 +1845,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="L15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="R15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1891,78 +1903,78 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="K16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="L16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="M16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="N16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="O16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="P16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="Q16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="R16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="S16" s="28" t="s">
         <v>24</v>
-      </c>
-      <c r="S16" s="28" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+        <v>194</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
@@ -2036,122 +2048,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="D22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>29</v>
-      </c>
       <c r="F22" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="J22" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="K22" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="L22" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="M22" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="N22" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="O22" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="P22" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="Q22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="R22" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="S22" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -2160,7 +2172,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
@@ -2239,43 +2251,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -2285,66 +2297,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="E28" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="F28" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="G28" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="H28" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="I28" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="J28" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="K28" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="L28" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="M28" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="N28" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="O28" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="N28" s="28" t="s">
+      <c r="P28" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="Q28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="28" t="s">
+      <c r="R28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="Q28" s="28" t="s">
+      <c r="S28" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="S28" s="28" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -2389,7 +2401,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2465,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2505,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -157,10 +157,6 @@
   </si>
   <si>
     <t>10
-(595-604)</t>
-  </si>
-  <si>
-    <t>10
 (605-614)</t>
   </si>
   <si>
@@ -755,6 +751,10 @@
   <si>
     <t>10 (586)
 (585-594)</t>
+  </si>
+  <si>
+    <t>10(595)
+(595-604)</t>
   </si>
 </sst>
 </file>
@@ -829,7 +829,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,12 +891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1020,9 +1014,6 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1042,12 +1033,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1357,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,43 +1441,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1509,16 +1494,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1622,46 +1607,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>151</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>164</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>31</v>
@@ -1675,49 +1660,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>156</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>166</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1725,7 +1710,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1734,52 +1719,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>174</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1808,10 +1793,10 @@
       <c r="I14" s="18">
         <v>43055</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="18">
         <v>43056</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="23">
         <v>43059</v>
       </c>
       <c r="L14" s="24">
@@ -1845,55 +1830,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="I15" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="K15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="L15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1903,88 +1888,88 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="I16" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="28" t="s">
+      <c r="R16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="S16" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>183</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>194</v>
-      </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -2048,146 +2033,146 @@
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="28" t="s">
+      <c r="F22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="I22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="K22" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="L22" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="M22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="N22" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="O22" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="P22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="Q22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="R22" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="R22" s="28" t="s">
+      <c r="S22" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="30"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -2251,131 +2236,131 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N27" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="H28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="I28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="J28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="K28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="L28" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="M28" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="N28" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="N28" s="28" t="s">
+      <c r="O28" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="P28" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="P28" s="28" t="s">
+      <c r="Q28" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="Q28" s="28" t="s">
+      <c r="R28" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="R28" s="28" t="s">
+      <c r="S28" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="S28" s="28" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
+        <v>104</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2401,7 +2386,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2474,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2490,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2498,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1710" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1716" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,6 @@
   </si>
   <si>
     <t>10
-(211-220)</t>
-  </si>
-  <si>
-    <t>10
 (221-230)</t>
   </si>
   <si>
@@ -755,6 +751,10 @@
   <si>
     <t>10(595)
 (595-604)</t>
+  </si>
+  <si>
+    <t>10(212)
+(211-220)</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1033,6 +1033,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1356,18 +1359,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>43011</v>
@@ -1427,7 +1430,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1441,43 +1444,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1486,7 +1489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1494,16 +1497,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1512,40 +1515,40 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="18">
         <v>43020</v>
@@ -1602,115 +1605,115 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>158</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>165</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1719,55 +1722,55 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>144</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="S11" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18">
         <v>43046</v>
@@ -1824,139 +1827,139 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="I16" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="M16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="N16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="O16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="P16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="Q16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="R16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="S16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>182</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>192</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>193</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -1971,7 +1974,7 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="24">
         <v>43070</v>
@@ -2028,127 +2031,127 @@
         <v>43095</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>28</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="S22" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2157,7 +2160,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2171,10 +2174,10 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="29"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="24">
         <v>43096</v>
@@ -2231,48 +2234,48 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2280,68 +2283,68 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2376,137 +2379,137 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>10
-(605-614)</t>
-  </si>
-  <si>
-    <t>10
 (615-624)</t>
   </si>
   <si>
@@ -755,6 +751,10 @@
   <si>
     <t>10(212)
 (211-220)</t>
+  </si>
+  <si>
+    <t>10(606)
+(605-614)</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1033,9 +1033,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1357,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,43 +1441,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1497,16 +1494,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1610,46 +1607,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>162</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>30</v>
@@ -1663,49 +1660,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>157</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1722,52 +1719,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1833,55 +1830,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1891,28 +1888,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L16" s="27" t="s">
         <v>16</v>
@@ -1941,25 +1938,25 @@
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>181</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -2036,63 +2033,63 @@
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>24</v>
@@ -2107,51 +2104,51 @@
         <v>27</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2160,7 +2157,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2239,43 +2236,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>70</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2285,66 +2282,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2389,7 +2386,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2397,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2405,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2413,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2429,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2437,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2445,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2474,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2485,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2493,7 +2490,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,7 +2498,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -106,10 +106,6 @@
   </si>
   <si>
     <t>10
-(251-260)</t>
-  </si>
-  <si>
-    <t>10
 (261-270)</t>
   </si>
   <si>
@@ -753,7 +749,11 @@
 (211-220)</t>
   </si>
   <si>
-    <t>10(606)
+    <t>10(251)
+(251-260)</t>
+  </si>
+  <si>
+    <t>10(610)
 (605-614)</t>
   </si>
 </sst>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1033,6 +1033,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1356,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,43 +1447,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1494,16 +1500,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1512,37 +1518,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1607,49 +1613,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>148</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1660,49 +1666,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>153</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>156</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>163</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1710,7 +1716,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1719,52 +1725,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>142</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>171</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1796,10 +1802,10 @@
       <c r="J14" s="18">
         <v>43056</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="18">
         <v>43059</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="23">
         <v>43060</v>
       </c>
       <c r="M14" s="24">
@@ -1830,55 +1836,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>194</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>195</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1888,81 +1894,81 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="27" t="s">
+      <c r="P16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="Q16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="R16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="S16" s="27" t="s">
         <v>22</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>190</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>191</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -2033,122 +2039,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>27</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2157,7 +2163,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2236,43 +2242,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2282,66 +2288,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2386,7 +2392,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2394,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2402,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2410,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2418,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2426,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2434,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2442,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2450,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2458,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2466,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2474,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2482,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2490,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2498,7 +2504,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2506,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -149,15 +149,7 @@
   </si>
   <si>
     <t>10
-(615-624)</t>
-  </si>
-  <si>
-    <t>10
 (625-634)</t>
-  </si>
-  <si>
-    <t>10
-(635-644)</t>
   </si>
   <si>
     <t>10
@@ -755,6 +747,14 @@
   <si>
     <t>10(610)
 (605-614)</t>
+  </si>
+  <si>
+    <t>10(615)
+(615-624)</t>
+  </si>
+  <si>
+    <t>10(637)
+(635-644)</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,43 +1447,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1500,16 +1500,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1613,46 +1613,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>146</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>29</v>
@@ -1666,49 +1666,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="F10" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="J10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>157</v>
-      </c>
       <c r="L10" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>168</v>
-      </c>
       <c r="P10" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1725,52 +1725,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="Q11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1805,13 +1805,13 @@
       <c r="K14" s="18">
         <v>43059</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="18">
         <v>43060</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="18">
         <v>43061</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="23">
         <v>43062</v>
       </c>
       <c r="O14" s="24">
@@ -1836,55 +1836,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="H15" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>188</v>
-      </c>
       <c r="I15" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="K15" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="L15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="R15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1894,40 +1894,40 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>187</v>
-      </c>
       <c r="H16" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="22" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="34" t="s">
         <v>18</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>19</v>
@@ -1944,33 +1944,33 @@
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
@@ -2039,63 +2039,63 @@
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>23</v>
@@ -2110,51 +2110,51 @@
         <v>26</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2163,7 +2163,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2242,43 +2242,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>68</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2288,66 +2288,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2392,7 +2392,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2480,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2488,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2496,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2504,7 +2504,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -106,10 +106,6 @@
   </si>
   <si>
     <t>10
-(261-270)</t>
-  </si>
-  <si>
-    <t>10
 (271-280)</t>
   </si>
   <si>
@@ -154,10 +150,6 @@
   <si>
     <t>10
 (645-654)</t>
-  </si>
-  <si>
-    <t>10
-(655-664)</t>
   </si>
   <si>
     <t>10
@@ -755,6 +747,14 @@
   <si>
     <t>10(637)
 (635-644)</t>
+  </si>
+  <si>
+    <t>10(261)
+(261-270)</t>
+  </si>
+  <si>
+    <t>10(655)
+(655-664)</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1033,9 +1033,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1360,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,43 +1444,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1500,16 +1497,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1518,37 +1515,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1613,49 +1610,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>147</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1666,49 +1663,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="F10" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="J10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="L10" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>166</v>
-      </c>
       <c r="P10" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1716,7 +1713,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1725,52 +1722,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="Q11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1811,13 +1808,13 @@
       <c r="M14" s="18">
         <v>43061</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="18">
         <v>43062</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="18">
         <v>43063</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="23">
         <v>43066</v>
       </c>
       <c r="Q14" s="24">
@@ -1836,55 +1833,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="H15" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>186</v>
-      </c>
       <c r="I15" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K15" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="L15" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="M15" s="19" t="s">
+      <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="P15" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="R15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1894,28 +1891,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>185</v>
-      </c>
       <c r="H16" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -1923,46 +1920,46 @@
       <c r="M16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="P16" s="27" t="s">
+      <c r="O16" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="R16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="S16" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -1970,9 +1967,9 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="34"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
@@ -2039,122 +2036,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>26</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2163,7 +2160,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2242,43 +2239,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2288,66 +2285,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2392,7 +2389,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2424,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2440,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2472,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2480,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2488,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2496,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2504,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2512,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>10
-(281-290)</t>
-  </si>
-  <si>
-    <t>10
 (291-300)</t>
   </si>
   <si>
@@ -150,10 +146,6 @@
   <si>
     <t>10
 (645-654)</t>
-  </si>
-  <si>
-    <t>10
-(665-674)</t>
   </si>
   <si>
     <t>10
@@ -755,6 +747,14 @@
   <si>
     <t>10(655)
 (655-664)</t>
+  </si>
+  <si>
+    <t>10(285)
+(281-290)</t>
+  </si>
+  <si>
+    <t>10(668)
+(665-674)</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1360,7 @@
   <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,43 +1444,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1497,16 +1497,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1515,37 +1515,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1610,49 +1610,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1663,49 +1663,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>141</v>
-      </c>
       <c r="F10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>150</v>
-      </c>
       <c r="J10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>153</v>
-      </c>
       <c r="L10" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="P10" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1722,52 +1722,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>168</v>
-      </c>
       <c r="Q11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1814,10 +1814,10 @@
       <c r="O14" s="18">
         <v>43063</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="18">
         <v>43066</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="23">
         <v>43067</v>
       </c>
       <c r="R14" s="24">
@@ -1833,55 +1833,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="H15" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>184</v>
-      </c>
       <c r="I15" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K15" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="L15" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="M15" s="19" t="s">
+      <c r="O15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="P15" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="Q15" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="R15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1891,28 +1891,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>183</v>
-      </c>
       <c r="H16" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -1924,42 +1924,42 @@
         <v>18</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="P16" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="Q16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="27" t="s">
+      <c r="S16" s="27" t="s">
         <v>20</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -1969,8 +1969,8 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="27"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
     </row>
@@ -2036,122 +2036,122 @@
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>25</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2160,7 +2160,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2239,43 +2239,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2285,66 +2285,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2389,7 +2389,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2413,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2429,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2437,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -157,10 +157,6 @@
   </si>
   <si>
     <t>10
-(695-704)</t>
-  </si>
-  <si>
-    <t>10
 (705-714)</t>
   </si>
   <si>
@@ -755,6 +751,10 @@
   <si>
     <t>10(668)
 (665-674)</t>
+  </si>
+  <si>
+    <t>10(700)
+(695-704)</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1036,6 +1036,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,43 +1450,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1497,16 +1503,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1610,46 +1616,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>154</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>159</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>27</v>
@@ -1663,49 +1669,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>156</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1713,7 +1719,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1722,52 +1728,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>135</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1817,13 +1823,13 @@
       <c r="P14" s="18">
         <v>43066</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="18">
         <v>43067</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="18">
         <v>43068</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="23">
         <v>43069</v>
       </c>
     </row>
@@ -1833,54 +1839,54 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>188</v>
-      </c>
       <c r="K15" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" s="30" t="s">
         <v>191</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>192</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="R15" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="S15" s="36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1891,28 +1897,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -1924,42 +1930,42 @@
         <v>18</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="S16" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="S16" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>183</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>184</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -1970,9 +1976,9 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="34"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
@@ -2035,64 +2041,64 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>21</v>
@@ -2107,51 +2113,51 @@
         <v>24</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2160,7 +2166,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2239,43 +2245,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>62</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2285,66 +2291,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2389,7 +2395,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2397,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2405,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2413,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2429,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2437,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2445,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2483,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2493,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,7 +2507,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2515,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>10
-(291-300)</t>
-  </si>
-  <si>
-    <t>10
 (301-310)</t>
   </si>
   <si>
@@ -755,6 +751,10 @@
   <si>
     <t>10(700)
 (695-704)</t>
+  </si>
+  <si>
+    <t>10(291)
+(291-300)</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1039,9 +1039,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,43 +1447,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1503,16 +1500,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1521,37 +1518,37 @@
         <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1616,49 +1613,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1669,49 +1666,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1728,52 +1725,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>134</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>163</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1829,7 +1826,7 @@
       <c r="R14" s="18">
         <v>43068</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="18">
         <v>43069</v>
       </c>
     </row>
@@ -1839,55 +1836,55 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>187</v>
-      </c>
       <c r="K15" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="M15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="O15" s="19" t="s">
+      <c r="P15" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q15" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="R15" s="19" t="s">
+      <c r="S15" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
@@ -1897,28 +1894,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -1930,42 +1927,42 @@
         <v>18</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>20</v>
+      <c r="R16" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>182</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>183</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -1978,11 +1975,11 @@
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="34"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>43070</v>
       </c>
       <c r="C20" s="24">
@@ -2042,131 +2039,131 @@
         <v>3</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>24</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="27"/>
+        <v>94</v>
+      </c>
+      <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2245,43 +2242,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>60</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2291,66 +2288,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2395,7 +2392,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2403,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2411,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2419,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2427,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2435,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2443,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2451,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2459,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2467,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2475,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2483,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2491,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2499,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2507,7 +2504,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2515,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="199">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>10
-(705-714)</t>
-  </si>
-  <si>
-    <t>10
 (715-724)</t>
   </si>
   <si>
@@ -755,6 +751,13 @@
   <si>
     <t>10(291)
 (291-300)</t>
+  </si>
+  <si>
+    <t>10(711)
+(705-714)</t>
+  </si>
+  <si>
+    <t>project from work</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1032,13 +1035,10 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,43 +1447,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1500,16 +1500,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1613,46 +1613,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>157</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1666,49 +1666,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>144</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>147</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1725,52 +1725,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>133</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>162</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1836,49 +1836,49 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>186</v>
-      </c>
       <c r="K15" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="30" t="s">
         <v>189</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>190</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -1894,28 +1894,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -1927,68 +1927,92 @@
         <v>18</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>171</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+      <c r="H17" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="23">
+      <c r="B20" s="18">
         <v>43070</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="18">
         <v>43073</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="18">
         <v>43074</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>43075</v>
       </c>
       <c r="F20" s="24">
@@ -2038,144 +2062,178 @@
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>90</v>
+      <c r="F22" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="J22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="N22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
+      <c r="I23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="29"/>
@@ -2242,43 +2300,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>60</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2288,66 +2346,66 @@
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="H28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="K28" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="L28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="N28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="O28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="P28" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="S28" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2392,7 +2450,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2416,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2424,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2440,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,7 +2514,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2464,7 +2522,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2472,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2480,7 +2538,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2488,7 +2546,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2496,7 +2554,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2504,7 +2562,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2512,7 +2570,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Self Improvement PLAN\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1716" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="1185"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
     <sheet name="App plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -181,10 +176,6 @@
   </si>
   <si>
     <t>10
-(785-794)</t>
-  </si>
-  <si>
-    <t>10
 (795-804)</t>
   </si>
   <si>
@@ -758,12 +749,16 @@
   </si>
   <si>
     <t>project from work</t>
+  </si>
+  <si>
+    <t>10(788)
+(785-794)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,7 +1006,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,9 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1032,23 +1023,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="20% - Акцент1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Акцент5" xfId="5" builtinId="46"/>
+    <cellStyle name="40% - Акцент1" xfId="3" builtinId="31"/>
+    <cellStyle name="Акцент2" xfId="4" builtinId="33"/>
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,18 +1357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="18.5703125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>43011</v>
@@ -1447,43 +1442,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1500,16 +1495,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1551,7 +1546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="18">
         <v>43020</v>
@@ -1613,46 +1608,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>130</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>138</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>151</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1661,62 +1656,62 @@
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>153</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:22" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1725,55 +1720,55 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="S11" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18">
         <v>43046</v>
@@ -1830,55 +1825,55 @@
         <v>43069</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>189</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="30" t="s">
-        <v>190</v>
+      <c r="N15" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q15" s="30" t="s">
-        <v>194</v>
+      <c r="P15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -1887,35 +1882,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="I16" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="31" t="s">
-        <v>186</v>
+      <c r="K16" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -1926,82 +1921,82 @@
       <c r="N16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>191</v>
+      <c r="O16" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>196</v>
+      <c r="R16" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>198</v>
+      <c r="H17" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18">
         <v>43070</v>
@@ -2012,114 +2007,114 @@
       <c r="D20" s="18">
         <v>43074</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="18">
         <v>43075</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="18">
         <v>43076</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>43077</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="18">
         <v>43080</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="18">
         <v>43081</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="18">
         <v>43082</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="18">
         <v>43083</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="32">
         <v>43084</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="23">
         <v>43087</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <v>43088</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="23">
         <v>43089</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="23">
         <v>43090</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="23">
         <v>43091</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="23">
         <v>43094</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="23">
         <v>43095</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="B21" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="O21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="P21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="Q21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>20</v>
@@ -2130,301 +2125,301 @@
       <c r="D22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="N22" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="O22" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="S22" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="S22" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="29"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H24" s="27"/>
+    </row>
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>43096</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>43097</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>43098</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>43102</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>43103</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>43104</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>43105</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="23">
         <v>43108</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="23">
         <v>43109</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="23">
         <v>43110</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="23">
         <v>43111</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="23">
         <v>43112</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="23">
         <v>43115</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="23">
         <v>43116</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="23">
         <v>43117</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="23">
         <v>43118</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="23">
         <v>43119</v>
       </c>
-      <c r="S26" s="24">
+      <c r="S26" s="23">
         <v>43122</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N27" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="J28" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="K28" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="L28" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="N28" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="O28" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="P28" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="Q28" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="R28" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="S28" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
+        <v>91</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2440,17 +2435,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2458,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2466,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2474,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2482,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2490,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2498,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2506,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2514,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2522,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2530,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2538,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2546,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2554,7 +2549,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2562,7 +2557,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2570,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="225">
   <si>
     <t>Book "Refactoring"
 (read)</t>
@@ -367,110 +367,7 @@
     <t>My Web App (base)</t>
   </si>
   <si>
-    <t>GIT (doc)</t>
-  </si>
-  <si>
-    <t>My Web App (advanced and API)</t>
-  </si>
-  <si>
-    <t>My Web App (base) / 
-My Web App (advanced and API)</t>
-  </si>
-  <si>
     <t>finish base features</t>
-  </si>
-  <si>
-    <t>(2.1-2.2)</t>
-  </si>
-  <si>
-    <t>(2.3-2.4)</t>
-  </si>
-  <si>
-    <t>(2.5-2.6)</t>
-  </si>
-  <si>
-    <t>(2.7-2.8)</t>
-  </si>
-  <si>
-    <t>(3.1-3.2)</t>
-  </si>
-  <si>
-    <t>(3.3-3.4)</t>
-  </si>
-  <si>
-    <t>(3.5-3.6)</t>
-  </si>
-  <si>
-    <t>(3.7-4.1)</t>
-  </si>
-  <si>
-    <t>(4.2-4.3)</t>
-  </si>
-  <si>
-    <t>(4.4-4.5)</t>
-  </si>
-  <si>
-    <t>(4.6-4.7)</t>
-  </si>
-  <si>
-    <t>(4.8-4.9)</t>
-  </si>
-  <si>
-    <t>(4.10-5.1)</t>
-  </si>
-  <si>
-    <t>(5.2-5.3)</t>
-  </si>
-  <si>
-    <t>(5.4-6.1)</t>
-  </si>
-  <si>
-    <t>(6.2-6.3)</t>
-  </si>
-  <si>
-    <t>(6.4-6.5)</t>
-  </si>
-  <si>
-    <t>(6.6-7.1)</t>
-  </si>
-  <si>
-    <t>(7.2-7.3)</t>
-  </si>
-  <si>
-    <t>(7.4-7.5)</t>
-  </si>
-  <si>
-    <t>(7.6-7.7)</t>
-  </si>
-  <si>
-    <t>(7.8-7.9)</t>
-  </si>
-  <si>
-    <t>(7.10-7.11)</t>
-  </si>
-  <si>
-    <t>(7.12-7.13)</t>
-  </si>
-  <si>
-    <t>(7.14-7.15)</t>
-  </si>
-  <si>
-    <t>(8.1-8.2)</t>
-  </si>
-  <si>
-    <t>(8.3-8.4)</t>
-  </si>
-  <si>
-    <t>(8.5-9.1)</t>
-  </si>
-  <si>
-    <t>(9.2-9.3)</t>
-  </si>
-  <si>
-    <t>(10.1-10.2)</t>
-  </si>
-  <si>
-    <t>(10.3-10.4)</t>
   </si>
   <si>
     <t>10 (380)
@@ -751,8 +648,239 @@
     <t>project from work</t>
   </si>
   <si>
-    <t>10(788)
+    <t>10(792)
 (785-794)</t>
+  </si>
+  <si>
+    <t>Х</t>
+  </si>
+  <si>
+    <t>My Web App (base) / project from work</t>
+  </si>
+  <si>
+    <t>Project from work</t>
+  </si>
+  <si>
+    <t>Pro C# 7: With .NET and .NET Core 8th ed. Edition</t>
+  </si>
+  <si>
+    <t>Design Patterns Elements of reusable Object-Oriented Software (GoF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pro C# 7: With .NET and .NET Core 8th ed. Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(11-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(1-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(21-30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(31-40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(41-50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(51-60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(61-70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(71-80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(81-90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(91-100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(101-110)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(111-120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(121-130)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(131-140)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(141-150)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(151-160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(161-170)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(171-180)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(181-190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(191-200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(201-210)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(211-220)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(221-230)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(231-240)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(241-250)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(251-260)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(261-270)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(271-280)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(281-290)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(291-300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(301-310)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(311-320)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(321-330)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(331-340)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(341-350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(351-360)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(361-370)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(371-380)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(381-390)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(391-396)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(391-400)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(401-410)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(411-420)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(421-430)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(431-440)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(441-450)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(451-460)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(461-470)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(471-480)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(481-490)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(491-500)</t>
+  </si>
+  <si>
+    <t>Project from work / Family Economic my web app (base and advanced)</t>
+  </si>
+  <si>
+    <t>my project</t>
+  </si>
+  <si>
+    <t>Family Economic my web app (base and advanced)</t>
   </si>
 </sst>
 </file>
@@ -827,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +1017,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1100,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1026,15 +1160,27 @@
     <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1355,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V29"/>
+  <dimension ref="A2:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,10 +1621,10 @@
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1608,46 +1754,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1656,54 +1802,54 @@
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:22" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1720,25 +1866,25 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>73</v>
@@ -1747,25 +1893,25 @@
         <v>73</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
@@ -1831,49 +1977,49 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -1889,28 +2035,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -1922,78 +2068,78 @@
         <v>18</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>89</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2028,10 +2174,10 @@
       <c r="K20" s="18">
         <v>43083</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="18">
         <v>43084</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="31">
         <v>43087</v>
       </c>
       <c r="N20" s="23">
@@ -2058,10 +2204,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -2084,13 +2230,13 @@
       <c r="J21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="33" t="s">
-        <v>198</v>
+      <c r="K21" s="32" t="s">
+        <v>164</v>
       </c>
       <c r="L21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="30" t="s">
         <v>39</v>
       </c>
       <c r="N21" s="25" t="s">
@@ -2112,9 +2258,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>20</v>
@@ -2131,103 +2277,103 @@
       <c r="F22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>106</v>
+      <c r="G22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>92</v>
+      <c r="A23" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>93</v>
+        <v>163</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>197</v>
+        <v>163</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>163</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>197</v>
+        <v>163</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2290,7 +2436,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
@@ -2333,93 +2479,821 @@
       <c r="N27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-    </row>
-    <row r="28" spans="1:19" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="N28" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="R28" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="S28" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
+      <c r="O27" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="P27" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="R28" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="S29" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="23">
+        <v>43123</v>
+      </c>
+      <c r="C31" s="23">
+        <v>43124</v>
+      </c>
+      <c r="D31" s="23">
+        <v>43125</v>
+      </c>
+      <c r="E31" s="23">
+        <v>43126</v>
+      </c>
+      <c r="F31" s="23">
+        <v>43129</v>
+      </c>
+      <c r="G31" s="23">
+        <v>43130</v>
+      </c>
+      <c r="H31" s="23">
+        <v>43131</v>
+      </c>
+      <c r="I31" s="23">
+        <v>43132</v>
+      </c>
+      <c r="J31" s="23">
+        <v>43133</v>
+      </c>
+      <c r="K31" s="23">
+        <v>43136</v>
+      </c>
+      <c r="L31" s="23">
+        <v>43137</v>
+      </c>
+      <c r="M31" s="23">
+        <v>43138</v>
+      </c>
+      <c r="N31" s="23">
+        <v>43139</v>
+      </c>
+      <c r="O31" s="23">
+        <v>43140</v>
+      </c>
+      <c r="P31" s="23">
+        <v>43143</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>43144</v>
+      </c>
+      <c r="R31" s="23">
+        <v>43145</v>
+      </c>
+      <c r="S31" s="23">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="P32" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="P33" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="R33" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="S33" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="23">
+        <v>43146</v>
+      </c>
+      <c r="C37" s="23">
+        <v>43147</v>
+      </c>
+      <c r="D37" s="23">
+        <v>43150</v>
+      </c>
+      <c r="E37" s="23">
+        <v>43151</v>
+      </c>
+      <c r="F37" s="23">
+        <v>43152</v>
+      </c>
+      <c r="G37" s="23">
+        <v>43153</v>
+      </c>
+      <c r="H37" s="23">
+        <v>43154</v>
+      </c>
+      <c r="I37" s="23">
+        <v>43157</v>
+      </c>
+      <c r="J37" s="23">
+        <v>43158</v>
+      </c>
+      <c r="K37" s="23">
+        <v>43159</v>
+      </c>
+      <c r="L37" s="23">
+        <v>43160</v>
+      </c>
+      <c r="M37" s="23">
+        <v>43161</v>
+      </c>
+      <c r="N37" s="23">
+        <v>43164</v>
+      </c>
+      <c r="O37" s="23">
+        <v>43165</v>
+      </c>
+      <c r="P37" s="23">
+        <v>43166</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>43167</v>
+      </c>
+      <c r="R37" s="23">
+        <v>43168</v>
+      </c>
+      <c r="S37" s="23">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="P38" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="R38" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="S38" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="L39" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="P39" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q39" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="R39" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="S39" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="23">
+        <v>43172</v>
+      </c>
+      <c r="C43" s="23">
+        <v>43173</v>
+      </c>
+      <c r="D43" s="23">
+        <v>43174</v>
+      </c>
+      <c r="E43" s="23">
+        <v>43175</v>
+      </c>
+      <c r="F43" s="23">
+        <v>43178</v>
+      </c>
+      <c r="G43" s="23">
+        <v>43179</v>
+      </c>
+      <c r="H43" s="23">
+        <v>43180</v>
+      </c>
+      <c r="I43" s="23">
+        <v>43181</v>
+      </c>
+      <c r="J43" s="23">
+        <v>43182</v>
+      </c>
+      <c r="K43" s="23">
+        <v>43185</v>
+      </c>
+      <c r="L43" s="23">
+        <v>43186</v>
+      </c>
+      <c r="M43" s="23">
+        <v>43187</v>
+      </c>
+      <c r="N43" s="23">
+        <v>43188</v>
+      </c>
+      <c r="O43" s="23">
+        <v>43189</v>
+      </c>
+      <c r="P43" s="23">
+        <v>43166</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>43167</v>
+      </c>
+      <c r="R43" s="23">
+        <v>43168</v>
+      </c>
+      <c r="S43" s="23">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="L44" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="N44" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="P44" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q44" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="R44" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="S44" s="37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+    </row>
+    <row r="46" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="S46" s="36" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -180,19 +180,7 @@
   </si>
   <si>
     <t>10
-(805-814)</t>
-  </si>
-  <si>
-    <t>10
-(815-824)</t>
-  </si>
-  <si>
-    <t>10
 (825-834)</t>
-  </si>
-  <si>
-    <t>10
-(835-844)</t>
   </si>
   <si>
     <t>10
@@ -881,6 +869,18 @@
   </si>
   <si>
     <t>Family Economic my web app (base and advanced)</t>
+  </si>
+  <si>
+    <t>10(812)
+(805-814)</t>
+  </si>
+  <si>
+    <t>10(818)
+(815-824)</t>
+  </si>
+  <si>
+    <t>10(836)
+(835-844)</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1100,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1155,9 +1155,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1503,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,43 +1585,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1641,16 +1638,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1754,46 +1751,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="L9" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1807,49 +1804,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="K10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>113</v>
-      </c>
       <c r="L10" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O10" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>127</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1857,7 +1854,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1866,52 +1863,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="F11" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="Q11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="Q11" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="R11" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
@@ -1977,49 +1974,49 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="28" t="s">
-        <v>153</v>
-      </c>
       <c r="L15" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -2035,28 +2032,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -2068,78 +2065,78 @@
         <v>18</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="S16" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="S16" s="29" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>166</v>
+      <c r="A17" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2177,16 +2174,16 @@
       <c r="L20" s="18">
         <v>43084</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="18">
         <v>43087</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="18">
         <v>43088</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="18">
         <v>43089</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="30">
         <v>43090</v>
       </c>
       <c r="Q20" s="23">
@@ -2204,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -2230,32 +2227,32 @@
       <c r="J21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="30" t="s">
+      <c r="K21" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="P21" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="R21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="S21" s="25" t="s">
         <v>42</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,105 +2272,105 @@
         <v>23</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="R22" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="S22" s="34" t="s">
-        <v>165</v>
+        <v>85</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="S22" s="33" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>167</v>
+      <c r="A23" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>90</v>
+        <v>160</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="N23" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2441,176 +2438,176 @@
         <v>3</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="K27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="M27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" s="37" t="s">
+      <c r="O27" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="S27" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="37" t="s">
+    </row>
+    <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="R28" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="Q27" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="R27" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S27" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" s="37" t="s">
+      <c r="S28" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="P28" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="R28" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="S28" s="37" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="29" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="J29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="L29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="O29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="P29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="R29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="S29" s="38" t="s">
-        <v>163</v>
+      <c r="A29" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="S29" s="37" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2671,180 +2668,180 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="37" t="s">
+      <c r="A32" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="F32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="G32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="I32" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="J32" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="H32" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="N32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="O32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="P32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="N32" s="37" t="s">
+      <c r="Q32" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="O32" s="37" t="s">
+      <c r="R32" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="P32" s="37" t="s">
+      <c r="S32" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="Q32" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="R32" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="S32" s="37" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="33" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="37" t="s">
+      <c r="A33" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="G33" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="H33" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="I33" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="J33" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="N33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="O33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="37" t="s">
+      <c r="P33" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="Q33" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="O33" s="37" t="s">
+      <c r="R33" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="P33" s="37" t="s">
+      <c r="S33" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="Q33" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="R33" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="S33" s="37" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="O34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="R34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="S34" s="36" t="s">
-        <v>223</v>
+      <c r="A34" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="R34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="S34" s="35" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2905,180 +2902,180 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="G38" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="H38" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="I38" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="J38" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="K38" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="L38" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="M38" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="N38" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="O38" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="M38" s="37" t="s">
+      <c r="P38" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="N38" s="37" t="s">
+      <c r="Q38" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="O38" s="37" t="s">
+      <c r="R38" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="P38" s="37" t="s">
+      <c r="S38" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="Q38" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="R38" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="S38" s="37" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="39" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="F39" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="G39" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="H39" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="I39" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="J39" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="K39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="L39" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="M39" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="K39" s="37" t="s">
+      <c r="N39" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="O39" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="M39" s="37" t="s">
+      <c r="P39" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="N39" s="37" t="s">
+      <c r="Q39" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="O39" s="37" t="s">
+      <c r="R39" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="P39" s="37" t="s">
+      <c r="S39" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="Q39" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="R39" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="S39" s="37" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="40" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="M40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="N40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="O40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="P40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="R40" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="S40" s="36" t="s">
-        <v>223</v>
+      <c r="A40" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="R40" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="S40" s="35" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3139,91 +3136,91 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="37" t="s">
+      <c r="A44" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="F44" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="G44" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="H44" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="I44" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="36" t="s">
         <v>207</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="K44" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="M44" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="N44" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="O44" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="P44" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q44" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="R44" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="S44" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>210</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -3237,62 +3234,62 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="J46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="L46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="N46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="O46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="P46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="R46" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="S46" s="36" t="s">
-        <v>223</v>
+      <c r="A46" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="L46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="P46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="R46" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="S46" s="35" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3319,7 +3316,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3327,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3335,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3343,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3351,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3359,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3367,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3375,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3383,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3391,7 +3388,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3399,7 +3396,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3407,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3415,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3423,7 +3420,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3431,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3439,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>10
-(845-854)</t>
-  </si>
-  <si>
-    <t>10
 (855-864)</t>
   </si>
   <si>
@@ -881,6 +877,10 @@
   <si>
     <t>10(836)
 (835-844)</t>
+  </si>
+  <si>
+    <t>10(850)
+(845-854)</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1501,7 +1501,7 @@
   <dimension ref="A2:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,43 +1585,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1638,16 +1638,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1751,46 +1751,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>113</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1804,49 +1804,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>105</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>108</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1863,52 +1863,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>123</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
@@ -1974,49 +1974,49 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>147</v>
-      </c>
       <c r="K15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -2032,28 +2032,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -2065,78 +2065,78 @@
         <v>18</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>143</v>
-      </c>
       <c r="H17" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2183,10 +2183,10 @@
       <c r="O20" s="18">
         <v>43089</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="18">
         <v>43090</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="30">
         <v>43091</v>
       </c>
       <c r="R20" s="23">
@@ -2201,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -2228,31 +2228,31 @@
         <v>37</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M21" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>223</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q21" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="R21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="S21" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,105 +2272,105 @@
         <v>23</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2438,176 +2438,176 @@
         <v>3</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="K27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="N27" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="O27" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q27" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="P27" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q27" s="36" t="s">
+      <c r="R27" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="R27" s="36" t="s">
+      <c r="S27" s="36" t="s">
         <v>171</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O28" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="P28" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q28" s="36" t="s">
+      <c r="R28" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="R28" s="36" t="s">
+      <c r="S28" s="36" t="s">
         <v>171</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S29" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2669,179 +2669,179 @@
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="E32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="I32" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>181</v>
-      </c>
       <c r="K32" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="M32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="N32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="O32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="P32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="Q32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="Q32" s="36" t="s">
+      <c r="R32" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="R32" s="36" t="s">
+      <c r="S32" s="36" t="s">
         <v>180</v>
-      </c>
-      <c r="S32" s="36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="E33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="F33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="I33" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>181</v>
-      </c>
       <c r="K33" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="M33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="N33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="O33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="P33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="Q33" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="R33" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="S33" s="36" t="s">
         <v>180</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2903,179 +2903,179 @@
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="D38" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="E38" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="F38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="G38" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="H38" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="I38" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="J38" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="K38" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="L38" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="M38" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="N38" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="O38" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="P38" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="Q38" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="Q38" s="36" t="s">
+      <c r="R38" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="R38" s="36" t="s">
+      <c r="S38" s="36" t="s">
         <v>198</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="E39" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="F39" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="G39" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="H39" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="I39" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="K39" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="L39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="M39" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="N39" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="N39" s="36" t="s">
+      <c r="O39" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="O39" s="36" t="s">
+      <c r="P39" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="Q39" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="Q39" s="36" t="s">
+      <c r="R39" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="R39" s="36" t="s">
+      <c r="S39" s="36" t="s">
         <v>198</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3137,90 +3137,90 @@
     </row>
     <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="D44" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="H44" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>206</v>
-      </c>
       <c r="I44" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="K44" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="L44" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="L44" s="36" t="s">
+      <c r="M44" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="N44" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="N44" s="36" t="s">
+      <c r="O44" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="P44" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="P44" s="36" t="s">
+      <c r="Q44" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="Q44" s="36" t="s">
+      <c r="R44" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="S44" s="36" t="s">
         <v>217</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="D45" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="E45" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="F45" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="G45" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="H45" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="I45" s="36" t="s">
         <v>206</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>207</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -3235,61 +3235,61 @@
     </row>
     <row r="46" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3316,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3332,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3356,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3388,7 +3388,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3420,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>10
-(855-864)</t>
-  </si>
-  <si>
-    <t>10
 (865-874)</t>
   </si>
   <si>
@@ -881,6 +877,10 @@
   <si>
     <t>10(850)
 (845-854)</t>
+  </si>
+  <si>
+    <t>10(861)
+(855-864)</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,43 +1585,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1638,16 +1638,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1751,46 +1751,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1804,49 +1804,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>107</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>114</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1863,52 +1863,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>93</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>122</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
@@ -1974,49 +1974,49 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>146</v>
-      </c>
       <c r="K15" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -2032,28 +2032,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -2065,78 +2065,78 @@
         <v>18</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>142</v>
-      </c>
       <c r="H17" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2186,10 +2186,10 @@
       <c r="P20" s="18">
         <v>43090</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="18">
         <v>43091</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="30">
         <v>43094</v>
       </c>
       <c r="S20" s="23">
@@ -2201,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -2228,31 +2228,31 @@
         <v>37</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M21" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>39</v>
       </c>
       <c r="P21" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q21" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="R21" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="S21" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,105 +2272,105 @@
         <v>23</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S22" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2438,176 +2438,176 @@
         <v>3</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="K27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="N27" s="25" t="s">
-        <v>54</v>
-      </c>
       <c r="O27" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q27" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="P27" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q27" s="36" t="s">
+      <c r="R27" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="R27" s="36" t="s">
+      <c r="S27" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O28" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="P28" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q28" s="36" t="s">
+      <c r="R28" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="R28" s="36" t="s">
+      <c r="S28" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2669,179 +2669,179 @@
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="E32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="I32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>180</v>
-      </c>
       <c r="K32" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="M32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="N32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="O32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="P32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="Q32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="Q32" s="36" t="s">
+      <c r="R32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="R32" s="36" t="s">
+      <c r="S32" s="36" t="s">
         <v>179</v>
-      </c>
-      <c r="S32" s="36" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="E33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="F33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="I33" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>180</v>
-      </c>
       <c r="K33" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="M33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="N33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="O33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="P33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="Q33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="R33" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="S33" s="36" t="s">
         <v>179</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2903,179 +2903,179 @@
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="D38" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="E38" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="F38" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="G38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="H38" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="I38" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="J38" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="K38" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="L38" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="M38" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="N38" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="O38" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="P38" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="Q38" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="Q38" s="36" t="s">
+      <c r="R38" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="R38" s="36" t="s">
+      <c r="S38" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="E39" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="F39" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="G39" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="H39" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="I39" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="K39" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="L39" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="M39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="N39" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="N39" s="36" t="s">
+      <c r="O39" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="O39" s="36" t="s">
+      <c r="P39" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="Q39" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="Q39" s="36" t="s">
+      <c r="R39" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="R39" s="36" t="s">
+      <c r="S39" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3137,90 +3137,90 @@
     </row>
     <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="D44" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="H44" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>205</v>
-      </c>
       <c r="I44" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="K44" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="L44" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="L44" s="36" t="s">
+      <c r="M44" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="N44" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="N44" s="36" t="s">
+      <c r="O44" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="P44" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P44" s="36" t="s">
+      <c r="Q44" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="Q44" s="36" t="s">
+      <c r="R44" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="S44" s="36" t="s">
         <v>216</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="D45" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="E45" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="F45" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="G45" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="H45" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="I45" s="36" t="s">
         <v>205</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>206</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -3235,61 +3235,61 @@
     </row>
     <row r="46" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3316,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3332,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3356,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3388,7 +3388,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3420,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -188,10 +188,6 @@
   </si>
   <si>
     <t>10
-(875-884)</t>
-  </si>
-  <si>
-    <t>10
 (885-894)</t>
   </si>
   <si>
@@ -881,6 +877,10 @@
   <si>
     <t>10(861)
 (855-864)</t>
+  </si>
+  <si>
+    <t>10(877)
+(875-884)</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1100,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1177,6 +1177,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1490,7 +1493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1500,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,43 +1588,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1638,16 +1641,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1751,46 +1754,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>98</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>116</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1804,49 +1807,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>106</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>113</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1863,52 +1866,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>92</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
@@ -1974,49 +1977,49 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I15" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>145</v>
-      </c>
       <c r="K15" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>149</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -2032,28 +2035,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -2065,78 +2068,78 @@
         <v>18</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>130</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>141</v>
-      </c>
       <c r="H17" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2189,10 +2192,10 @@
       <c r="Q20" s="18">
         <v>43091</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="18">
         <v>43094</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="18">
         <v>43095</v>
       </c>
     </row>
@@ -2201,10 +2204,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -2228,30 +2231,30 @@
         <v>37</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M21" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>221</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>39</v>
       </c>
       <c r="P21" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q21" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="R21" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="R21" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2272,105 +2275,105 @@
         <v>23</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S22" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="S23" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2378,10 +2381,10 @@
     </row>
     <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="23">
+      <c r="B26" s="18">
         <v>43096</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="30">
         <v>43097</v>
       </c>
       <c r="D26" s="23">
@@ -2437,177 +2440,177 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="K27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="25" t="s">
-        <v>53</v>
-      </c>
       <c r="O27" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q27" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="P27" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q27" s="36" t="s">
+      <c r="R27" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="36" t="s">
+      <c r="S27" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O28" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="P28" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q28" s="36" t="s">
+      <c r="R28" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="R28" s="36" t="s">
+      <c r="S28" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S29" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2669,179 +2672,179 @@
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="E32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="I32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>179</v>
-      </c>
       <c r="K32" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="M32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="N32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="O32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="P32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="Q32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="Q32" s="36" t="s">
+      <c r="R32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="R32" s="36" t="s">
+      <c r="S32" s="36" t="s">
         <v>178</v>
-      </c>
-      <c r="S32" s="36" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="E33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="F33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="I33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>179</v>
-      </c>
       <c r="K33" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="M33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="N33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="O33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="P33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="Q33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="R33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="S33" s="36" t="s">
         <v>178</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2903,179 +2906,179 @@
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="D38" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="E38" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="F38" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="G38" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="H38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="I38" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="J38" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="K38" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="L38" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="M38" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="N38" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="O38" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="P38" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="Q38" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="Q38" s="36" t="s">
+      <c r="R38" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="36" t="s">
+      <c r="S38" s="36" t="s">
         <v>196</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="E39" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="F39" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="G39" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="H39" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="I39" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="K39" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="L39" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="M39" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="N39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="N39" s="36" t="s">
+      <c r="O39" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="O39" s="36" t="s">
+      <c r="P39" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="Q39" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="Q39" s="36" t="s">
+      <c r="R39" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="R39" s="36" t="s">
+      <c r="S39" s="36" t="s">
         <v>196</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3137,90 +3140,90 @@
     </row>
     <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="D44" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="H44" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>204</v>
-      </c>
       <c r="I44" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="K44" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="L44" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="36" t="s">
+      <c r="M44" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="N44" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="N44" s="36" t="s">
+      <c r="O44" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="P44" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="P44" s="36" t="s">
+      <c r="Q44" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="Q44" s="36" t="s">
+      <c r="R44" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="S44" s="36" t="s">
         <v>215</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="D45" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="E45" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="F45" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="G45" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="H45" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="I45" s="36" t="s">
         <v>204</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>205</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -3235,61 +3238,61 @@
     </row>
     <row r="46" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3319,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3324,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3332,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3340,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3356,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3367,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3380,7 +3383,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3388,7 +3391,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3404,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3415,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3423,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3439,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -192,10 +192,6 @@
   </si>
   <si>
     <t>10
-(895-904)</t>
-  </si>
-  <si>
-    <t>10
 (905-914)</t>
   </si>
   <si>
@@ -881,6 +877,10 @@
   <si>
     <t>10(877)
 (875-884)</t>
+  </si>
+  <si>
+    <t>10(897)
+(895-904)</t>
   </si>
 </sst>
 </file>
@@ -955,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,6 +1023,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,7 +1106,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1180,6 +1186,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="13" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1503,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,43 +1601,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1641,16 +1654,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1754,46 +1767,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1807,49 +1820,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>105</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1857,7 +1870,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1866,52 +1879,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
@@ -1977,49 +1990,49 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>144</v>
-      </c>
       <c r="K15" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -2035,28 +2048,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -2068,78 +2081,78 @@
         <v>18</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>140</v>
-      </c>
       <c r="H17" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2204,10 +2217,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -2231,28 +2244,28 @@
         <v>37</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M21" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>39</v>
       </c>
       <c r="P21" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q21" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="R21" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="R21" s="28" t="s">
-        <v>223</v>
       </c>
       <c r="S21" s="19" t="s">
         <v>40</v>
@@ -2275,105 +2288,105 @@
         <v>23</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S22" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2381,19 +2394,19 @@
     </row>
     <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="18">
+      <c r="B26" s="39">
         <v>43096</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="39">
         <v>43097</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="18">
         <v>43098</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="18">
         <v>43102</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="30">
         <v>43103</v>
       </c>
       <c r="G26" s="23">
@@ -2440,177 +2453,177 @@
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="F27" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="K27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="25" t="s">
-        <v>52</v>
-      </c>
       <c r="O27" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q27" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="P27" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q27" s="36" t="s">
+      <c r="R27" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="R27" s="36" t="s">
+      <c r="S27" s="36" t="s">
         <v>168</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O28" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q28" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="P28" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q28" s="36" t="s">
+      <c r="R28" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="36" t="s">
+      <c r="S28" s="36" t="s">
         <v>168</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S29" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2672,179 +2685,179 @@
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="E32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="I32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>178</v>
-      </c>
       <c r="K32" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="M32" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="N32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="O32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="P32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="Q32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="Q32" s="36" t="s">
+      <c r="R32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="R32" s="36" t="s">
+      <c r="S32" s="36" t="s">
         <v>177</v>
-      </c>
-      <c r="S32" s="36" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="E33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="F33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="I33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>178</v>
-      </c>
       <c r="K33" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="M33" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="N33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="O33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="P33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="Q33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="R33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="S33" s="36" t="s">
         <v>177</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2906,179 +2919,179 @@
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="D38" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="E38" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="F38" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="G38" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="H38" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="I38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="J38" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="K38" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="L38" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="M38" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="N38" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="O38" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="P38" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="Q38" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="Q38" s="36" t="s">
+      <c r="R38" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="R38" s="36" t="s">
+      <c r="S38" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="E39" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="F39" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="G39" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="H39" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="I39" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="K39" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="L39" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="M39" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="N39" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="N39" s="36" t="s">
+      <c r="O39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="O39" s="36" t="s">
+      <c r="P39" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="Q39" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="Q39" s="36" t="s">
+      <c r="R39" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="R39" s="36" t="s">
+      <c r="S39" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3140,90 +3153,90 @@
     </row>
     <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="D44" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="H44" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>203</v>
-      </c>
       <c r="I44" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J44" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="K44" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="L44" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="L44" s="36" t="s">
+      <c r="M44" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="N44" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="N44" s="36" t="s">
+      <c r="O44" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="P44" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="P44" s="36" t="s">
+      <c r="Q44" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="Q44" s="36" t="s">
+      <c r="R44" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="S44" s="36" t="s">
         <v>214</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B45" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="D45" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="E45" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="F45" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="G45" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="H45" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="I45" s="36" t="s">
         <v>203</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>204</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -3238,61 +3251,61 @@
     </row>
     <row r="46" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3319,7 +3332,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3327,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3335,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3343,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3351,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3359,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3367,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3375,7 +3388,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3383,7 +3396,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3391,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3399,7 +3412,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3407,7 +3420,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3415,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3423,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3431,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3439,7 +3452,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -192,10 +192,6 @@
   </si>
   <si>
     <t>10
-(905-914)</t>
-  </si>
-  <si>
-    <t>10
 (915-924)</t>
   </si>
   <si>
@@ -881,6 +877,10 @@
   <si>
     <t>10(897)
 (895-904)</t>
+  </si>
+  <si>
+    <t>10(905)
+(905-914)</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1517,7 +1517,7 @@
   <dimension ref="A2:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:F29"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,43 +1601,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>8</v>
@@ -1654,16 +1654,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>11</v>
@@ -1767,46 +1767,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>109</v>
-      </c>
       <c r="M9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="O9" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>26</v>
@@ -1820,49 +1820,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>101</v>
-      </c>
       <c r="I10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="K10" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>111</v>
-      </c>
       <c r="N10" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="11" spans="1:22" ht="91.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1879,52 +1879,52 @@
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="P11" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
@@ -1990,49 +1990,49 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="K15" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>147</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>29</v>
@@ -2048,28 +2048,28 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>16</v>
@@ -2081,78 +2081,78 @@
         <v>18</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>128</v>
-      </c>
       <c r="E17" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>139</v>
-      </c>
       <c r="H17" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2217,10 +2217,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>31</v>
@@ -2244,28 +2244,28 @@
         <v>37</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M21" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>219</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>39</v>
       </c>
       <c r="P21" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q21" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="R21" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="R21" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="S21" s="19" t="s">
         <v>40</v>
@@ -2288,105 +2288,105 @@
         <v>23</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S22" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
@@ -2454,176 +2454,176 @@
         <v>3</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="F27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="G27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="K27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="25" t="s">
-        <v>51</v>
-      </c>
       <c r="O27" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="P27" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q27" s="36" t="s">
+      <c r="R27" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="R27" s="36" t="s">
+      <c r="S27" s="36" t="s">
         <v>167</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O28" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="36" t="s">
+      <c r="R28" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="R28" s="36" t="s">
+      <c r="S28" s="36" t="s">
         <v>167</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S29" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2685,179 +2685,179 @@
     </row>
     <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="E32" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="I32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>177</v>
-      </c>
       <c r="K32" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="M32" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="N32" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="O32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="P32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="Q32" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="Q32" s="36" t="s">
+      <c r="R32" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="R32" s="36" t="s">
+      <c r="S32" s="36" t="s">
         <v>176</v>
-      </c>
-      <c r="S32" s="36" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="E33" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="F33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="I33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>177</v>
-      </c>
       <c r="K33" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="M33" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="N33" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="O33" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="P33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="Q33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="R33" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="S33" s="36" t="s">
         <v>176</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2919,179 +2919,179 @@
     </row>
     <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="D38" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="E38" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="F38" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="G38" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="H38" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="I38" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="J38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="K38" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="L38" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="M38" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="N38" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="O38" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="P38" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="Q38" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="Q38" s="36" t="s">
+      <c r="R38" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="R38" s="36" t="s">
+      <c r="S38" s="36" t="s">
         <v>194</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="E39" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="F39" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="G39" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="H39" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="I39" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="K39" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="L39" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="M39" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="N39" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="N39" s="36" t="s">
+      <c r="O39" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="O39" s="36" t="s">
+      <c r="P39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="Q39" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="Q39" s="36" t="s">
+      <c r="R39" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="R39" s="36" t="s">
+      <c r="S39" s="36" t="s">
         <v>194</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3153,90 +3153,90 @@
     </row>
     <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="D44" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="H44" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>202</v>
-      </c>
       <c r="I44" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J44" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="K44" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="L44" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="L44" s="36" t="s">
+      <c r="M44" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="N44" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="N44" s="36" t="s">
+      <c r="O44" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="P44" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="P44" s="36" t="s">
+      <c r="Q44" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="Q44" s="36" t="s">
+      <c r="R44" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="S44" s="36" t="s">
         <v>213</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="D45" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="E45" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="F45" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="G45" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="H45" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="I45" s="36" t="s">
         <v>202</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>203</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
@@ -3251,61 +3251,61 @@
     </row>
     <row r="46" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S46" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3332,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3356,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3388,7 +3388,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3412,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3420,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3444,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3452,7 +3452,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/PLAN_Workflow.xlsx
+++ b/PLAN_Workflow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="1185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="1188"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="1" r:id="rId1"/>
@@ -196,10 +196,6 @@
   </si>
   <si>
     <t>10
-(935-944)</t>
-  </si>
-  <si>
-    <t>10
 (945-954)</t>
   </si>
   <si>
@@ -881,6 +877,10 @@
   <si>
     <t>10(905)
 (905-914)</t>
+  </si>
+  <si>
+    <t>10(928)
+(935-944)</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1517,17 +1517,17 @@
   <dimension ref="A2:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>43011</v>
@@ -1601,43 +1601,43 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>83</v>
-      <